--- a/library.xlsx
+++ b/library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MY\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB6765C-26A5-4131-A9E6-32D28517967B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAD712A-806D-4545-A780-EBF32234D0DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="2610" windowWidth="18120" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="17790" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="702">
   <si>
     <t>links</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -588,10 +588,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COMBINING INFORMATION RETRIEVAL MODULES AND STRUCTURAL INFORMATION FOR SOURCE CODE BUG LOCALIZATION AND FEATURE LOCATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A Static Technique for Fault Localization Using Character N-Gram Based Information Retrieval Model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -942,12 +938,6 @@
   <si>
     <t>Moin, Amir H.
 Khansari, Mohammad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHAO, PENG
-ATKISON, RANDY K. SMITH TRAVIS
-PARRISH, JEFFREY C. CARVER ALLEN S.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1626,9 +1616,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Source code retrieval plays an important role in many software engineering tasks. However, designing a query that can accurately retrieve the relevant software artifacts can be challenging for developers as it requires a certain level of knowledge and experience regarding the code base. This paper demonstrates how the difficulty of designing a proper query can be alleviated through automatic Query Reformulation (QR) - an under-the-hood operation for reformulating a user's query with no additional input from the user. The proposed QR framework works by enriching a user's search query with certain specific additional terms drawn from the highest-ranked artifacts retrieved in response to the initial query. The important point here is that these additional terms injected into a query are those that are deemed to be "close" to the original query terms in the source code on the basis of positional proximity. This similarity metric is based on the notion that terms that deal with the same concepts in source code are usually proximal to one another in the same files. We demonstrate the superiority of our QR framework in relation to the QR frameworks well-known in the natural language document retrieval by showing significant improvements in bug localization performance for two large software projects using more than 4,000 queries. © 2013 IEEE.</t>
-  </si>
-  <si>
     <t>Chaparro, Oscar
 Florez, Juan Manuel
 Marcus, Andrian</t>
@@ -1973,18 +1960,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bug localization refers to the process of identifying source code files that contain defects from descriptions of these de-fects which are typically contained in bug reports. There have been many bug localization techniques proposed in the literature. However, often it is hard to compare these tech-niques since different evaluation datasets are used. At times the datasets are not made publicly available and thus it is dificult to reproduce reported results. Furthermore, some techniques are only evaluated on small datasets and thus it is not clear whether the results are generalizable. Thus, there is a need for a platform that allows various techniques to be compared with one another on a common pool containing a large number of bug reports with known defective source code files. In this paper, we address this need by propos-ing our Bug lOcalization experimental plATform (BOAT). BOAT is an extensible web application that contains thou-sands of bug reports with known defective source code files. Researchers can create accounts in BOAT, upload executa-bles of their bug localization techniques, and see how these techniques perform in comparison with techniques uploaded by other researchers, with respect to some standard eval-uation measures. BOAT is already preloaded with several bug localization techniques and thus researchers can direct-ly compare their newly proposed techniques against these existing techniques. BOAT has been made available online since October 2013, and researchers could access the plat-form at: http://www.vlis.zju.edu.cn/blp. Copyright © 2014 ACM.</t>
-  </si>
-  <si>
     <t>Herzig, Kim
 Just, Sascha
 Zeller, Andreas</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This submission presents work submitted and accepted at the International onference on Software Engineering in 2013 [Hj2013]. In empirical software engineering, it has become common to mine historic data to detect where bugs have occurred in the past, or to predict where they will occur in the future. The accuracy of such models depends on the quality of the data. For example, defect prediction models rely on the accuracy of historic data, such as bug reports. Bug reports that refer to any other than corrective development activities may cause code artefacts to be falsely marked as defective. This may have severe consequences for the resulting models and its accuracy. Earlier studies raised concerns about bug reports referring to error unrelated development activities. But how often does such misclassification occur? Further, does it actually impact analysis and prediction models? These are the questions we addressed in this paper. In a manual examination of more than 7,000 issue reports from five open-source projects, we found 33.8% of all bug reports to be misclassified threatening bug prediction models, confusing bugs and features: On average, 39% of files marked as defective actually never had a bug. The presentation will cover causes for issue report misclassification and the result of our study (some newer results not in the paper).</t>
-  </si>
-  <si>
     <t>https://doi.org/10.5220/0006261901710178</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2515,18 +2496,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>search space minimization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Bug localization involves using information about a bug to locate affected code sections. Several automated bug localization techniques based on information retrieval (IR) models have been constructed recently. The "gold standard" of measuring an IR technique's accuracy considers the technique's ability to locate a "first relevant method." However, the question remains - does finding this single method enable the location of a complete set of affected methods? Previous arguments assume this to be true, however, few analyses of this assumption have been performed. In this paper, we perform a case study to test the reliability of this "gold standard" assumption. To further measure IR accuracy in the context of bug localization, we analyze the relevance of the IR model's "first method returned." We use various structural analysis techniques to extend relevant methods located by IR techniques and determine accuracy and reliability of these assumptions. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>evaluation metrics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>empirical study</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2536,31 +2509,6 @@
   </si>
   <si>
     <t>structure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>structure
-lexical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>version history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">version history
-IR
-</t>
-  </si>
-  <si>
-    <t>N-Gram
-concept localization
-IR
-control flow graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>concern localization</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2594,65 +2542,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>structure
-version history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-version history
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empirical study
-IR
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-IR
-code clones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-Gram
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">similar report
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">segmentation
-stack trace
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-VSM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cross-language
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">learn to rank
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-IR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>topic model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2668,37 +2557,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>incremental framework</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>incremental framework
 LSI
 version history</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">IR
-program spectrum
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>empirical study
 learn to rank</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>empirical study
-VSM
-LSI
-LDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-similar report
-rVSM</t>
   </si>
   <si>
     <t>call dependency
@@ -2727,11 +2594,6 @@
   </si>
   <si>
     <t>An Appropriate Method Ranking Approach for Localizing Bugs using Minimized Search Space</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stack trace
-IR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2781,17 +2643,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>deep learning
-CNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.ijcai.org/Abstract/16/230</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change history
-empirical study</t>
   </si>
   <si>
     <t>change history</t>
@@ -2820,36 +2673,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>deep learning
-CNN
-LSTM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>metadata</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>empirical study
 execution Information</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change history
-similar report
-structure
-stack trace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deep learning
-CNN
-word embedding
-TF-IDF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>textual analysis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2880,12 +2709,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>deep learning
-CNN
-cascade forest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>learn to rank
 empirical study</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2897,18 +2720,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>concern localization
-VSM
-topic model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNN
-RNN
-deep learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>information theory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2940,41 +2751,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>feature identification
-IR
-structure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>structure
-IR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>change history</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>word embedding
-deep learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>defect pattern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bug classification
-LSTM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>word embedding
-IR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bug classification</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3022,12 +2803,459 @@
     <t>EXSY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>datasets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.st.cs.uni-saarland.de//ibugs/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://engineering.purdue.edu/RVL/Database/BUGLinks/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query reformulation
+dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empirical study
+dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This submission presents work submitted and accepted at the International onference on Software Engineering in 2013 [Hj2013]. In empirical software engineering, it has become common to mine historic data to detect where bugs have occurred in the past, or to predict where they will occur in the future. The accuracy of such models depends on the quality of the data. For example, defect prediction models rely on the accuracy of historic data, such as bug reports. Bug reports that refer to any other than corrective development activities may cause code artefacts to be falsely marked as defective. This may have severe consequences for the resulting models and its accuracy. Earlier studies raised concerns about bug reports referring to error unrelated development activities. But how often does such misclassification occur? Further, does it actually impact analysis and prediction models? These are the questions we addressed in this paper. In a manual examination of more than 7,000 issue reports from five open-source projects, we found 33.8% of all bug reports to be misclassified threatening bug prediction models, confusing bugs and features: On average, 39% of files marked as defective actually never had a bug. The presentation will cover causes for issue report misclassification and the result of our study (some newer results not in the paper).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.st.cs.uni-saarland.de//softevo/bugclassify/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://code.google.com/p/bugcenter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learn to rank
+dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.6084/m9.figshare.951967</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/exatoa/Bench4BL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/yanxiao6/BugLocalization-dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deep learning
+CNN
+word embedding
+TF-IDF
+dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sites.google.com/unitelmasapienza.it/buglocalization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word embedding
+deep learning
+dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The IlmSeven Dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://goo.gl/3qCwfw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/masud99r/IR-in-SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incremental framework
+dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://engineering.purdue.edu/RVL/Database/moreBugs/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sailhome.cs.queensu.ca/replication/sthomas/TSE2013, 2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cs.wayne.edu/~severe/era13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://homepages.wmich.edu/∼</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mnn7262/Steps</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empirical study
+VSM
+LSI
+LDA
+dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.utdallas.edu/~lmorenoc/research/fse2015-quest/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bitbucket.org/amlfse/amldata/downloads/amldata.7z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combining information retrieval modules and structural information for source code bug localization and feature location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shao, peng
+atkison, randy k. smith travis
+parrish, jeffrey c. carver allen s.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feature location in source code: a taxonomy and survey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cs.wm.edu/semeru/data/benchmarks/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defects4J: A database of existing faults to enable controlled testing studies for Java programs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/rjust/defects4j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://utexas.box.com/icsme2014-dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mgarnier.github.io/bug_localization/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rath, Michael
+Rempel, Patrick
+Mader, Patrick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/RE.2017.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developing new ideas and algorithms or comparing new findings in the field of requirements engineering and management implies a dataset to work with. Collecting the required data is time consuming, tedious, and may involve unforeseen difficulties. The need for datasets often forces re-searchers to collect data themselves in order to evaluate their findings. However, comparing results with other publications is especially difficult on proprietary datasets. A big obstacle is the reproduction of a previously used dataset, which may include subtle preprocessing steps not explicitly mentioned by the original authors. Providing a predefined dataset avoids these problems. It establishes a common baseline and enables direct comparison for benchmarking. This paper provides a well defined dataset consisting of seven open source software projects. It contains a large number of typed development artifacts and links between them. Enriched with additional metadata, such as time stamps, versions, and component information, the dataset allows answering a broad range of research questions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dit, Bogdan
+Revelle, Meghan
+Gethers, Malcom
+Poshyvanyk, Denys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/smr.567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feature location is the activity of identifying an initial location in the source code that implements function-ality in a software system. Many feature location techniques have been introduced that automate some or all of this process, and a comprehensive overview of this large body of work would be beneficial to researchers and practitioners. This paper presents a systematic literature survey of feature location techniques. Eighty-nine articles from 25 venues have been reviewed and classified within the taxonomy in order to organize and structure existing work in the field of feature location. The paper also discusses open issues and defines future directions in the field of feature location.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Just, René
+Jalali, Darioush
+Ernst, Michael D.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/2610384.2628055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empirical studies in software testing research may not be comparable, reproducible, or characteristic of practice. One reason is that real bugs are too infrequently used in software testing research. Extracting and reproducing real bugs is challenging and as a result hand-seeded faults or mutants are commonly used as a substitute. This paper presents Defects4J, a database and extensible framework providing real bugs to enable reproducible studies in software testing research. The initial version of Defects4J contains 357 real bugs from 5 real-world open source pro- grams. Each real bug is accompanied by a comprehensive test suite that can expose (demonstrate) that bug. Defects4J is extensible and builds on top of each program's version control system. Once a program is configured in Defects4J, new bugs can be added to the database with little or no effort. Defects4J features a framework to easily access faulty and fixed program versions and corresponding test suites. This framework also provides a high-level interface to common tasks in software testing research, making it easy to con- duct and reproduce empirical studies. Defects4J is publicly available at http://defects4j.org.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSI
+version history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version history
+SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search space minimization
+topic model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature identification
+LSI
+structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">empirical study
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>concern localization</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+dataset</t>
+  </si>
+  <si>
+    <t>evaluation metrics
+feature identification
+LDA
+LSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empirical study
+LDA
+LSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-Gram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call dependency
+LSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word embedding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>similar report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-Gram
+concern localization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change history
+empirical study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concern localization
+LDA
+topic model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empirical study
+LSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empirical study
+dataset
+LDA
+LSI
+VSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug localization refers to the process of identifying source code files that contain defects from descriptions of these de-fects which are typically contained in bug reports. There have been many bug localization techniques proposed in the literature. However, often it is hard to compare these tech-niques since different evaluation datasets are used. At times the datasets are not made publicly available and thus it is dificult to reproduce reported results. Furthermore, some techniques are only evaluated on small datasets and thus it is not clear whether the results are generalizable. Thus, there is a need for a platform that allows various techniques to be compared with one another on a common pool containing a large number of bug reports with known defective source code files. In this paper, we address this need by propos-ing our Bug lOcalization experimental plATform (BOAT). BOAT is an extensible web application that contains thou-sands of bug reports with known defective source code files. Researchers can create accounts in BOAT, upload executa-bles of their bug localization techniques, and see how these techniques perform in comparison with techniques uploaded by other researchers, with respect to some standard eval-uation measures. BOAT is already preloaded with several bug localization techniques and thus researchers can direct-ly compare their newly proposed techniques against these existing techniques. BOAT has been made available online since October 2013, and researchers could access the plat-form at: http://www.vlis.zju.edu.cn/blp. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>segmentation
+stack trace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+VSM
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross-language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">stack trace
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>structure
+version history
+VSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectiveness prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">word embedding
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classification
+LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataset
+program spectrum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataset
+rVSM
+similar report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change history
+similar report
+stack trace
+structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN
+deep learning
+RNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code clone
+concern localization
+feature identification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">concern localization
+topic model
+VSM
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CNN
+deep learning
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cascade forest
+CNN
+deep learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN
+deep learning
+LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Source code retrieval plays an important role in many software engineering tasks. However, designing a query that can accurately retrieve the relevant software artifacts can be challenging for developers as it requires a certain level of knowledge and experience regarding the code base. This paper demonstrates how the difficulty of designing a proper query can be alleviated through automatic Query Reformulation (QR) - an under-the-hood operation for reformulating a user's query with no additional input from the user. The proposed QR framework works by enriching a user's search query with certain specific additional terms drawn from the highest-ranked artifacts retrieved in response to the initial query. The important point here is that these additional terms injected into a query are those that are deemed to be "close" to the original query terms in the source code on the basis of positional proximity. This similarity metric is based on the notion that terms that deal with the same concepts in source code are usually proximal to one another in the same files. We demonstrate the superiority of our QR framework in relation to the QR frameworks well-known in the natural language document retrieval by showing significant improvements in bug localization performance for two large software projects using more than 4,000 queries. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3085,6 +3313,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3114,7 +3351,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3153,6 +3390,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7628,10 +7886,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7643,9 +7901,10 @@
     <col min="5" max="5" width="43.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="160.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="49.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -7667,22 +7926,25 @@
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="H1" s="15" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C2" s="2">
         <v>2006</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>100</v>
@@ -7691,239 +7953,242 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C3" s="2">
         <v>2007</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>628</v>
+        <v>592</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4" s="2">
         <v>2007</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C5" s="2">
         <v>2008</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>102</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C6" s="2">
         <v>2010</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>163</v>
+        <v>552</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C7" s="2">
         <v>2010</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>557</v>
+        <v>663</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C8" s="2">
         <v>2010</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>168</v>
+        <v>662</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C9" s="2">
         <v>2011</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>420</v>
+        <v>696</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>417</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C10" s="3">
+        <v>357</v>
+      </c>
+      <c r="C10" s="2">
         <v>2011</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>643</v>
+        <v>668</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>170</v>
+        <v>465</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C11" s="2">
         <v>2011</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>579</v>
+        <v>669</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>642</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C12" s="2">
+        <v>643</v>
+      </c>
+      <c r="C12" s="3">
         <v>2011</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>580</v>
+        <v>665</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>422</v>
+        <v>169</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>360</v>
@@ -7932,44 +8197,44 @@
         <v>2011</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>561</v>
+        <v>666</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>102</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>361</v>
+        <v>246</v>
       </c>
       <c r="C14" s="2">
         <v>2011</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>562</v>
+        <v>664</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>471</v>
+        <v>415</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>224</v>
@@ -7978,622 +8243,646 @@
         <v>2012</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="C16" s="2">
         <v>2012</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>565</v>
+        <v>674</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>175</v>
+        <v>419</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="C17" s="2">
         <v>2012</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>567</v>
+        <v>670</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>423</v>
+        <v>171</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C18" s="2">
         <v>2012</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>562</v>
+        <v>671</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C19" s="2">
         <v>2012</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>582</v>
+        <v>672</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C20" s="2">
         <v>2012</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>598</v>
+        <v>693</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>228</v>
+        <v>411</v>
       </c>
       <c r="C21" s="2">
         <v>2013</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>183</v>
+        <v>478</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2">
         <v>2013</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>571</v>
+        <v>676</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>462</v>
+        <v>183</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>229</v>
+        <v>301</v>
       </c>
       <c r="C23" s="2">
         <v>2013</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>184</v>
+        <v>441</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="C24" s="2">
         <v>2013</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>644</v>
+        <v>678</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>425</v>
+        <v>186</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>415</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2">
         <v>2013</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>562</v>
+        <v>679</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>483</v>
+        <v>188</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>259</v>
+        <v>361</v>
       </c>
       <c r="C26" s="2">
         <v>2013</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>426</v>
+        <v>496</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C27" s="2">
         <v>2013</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>569</v>
+        <v>634</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="C28" s="2">
         <v>2013</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>562</v>
+        <v>675</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>189</v>
+        <v>420</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>364</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2">
         <v>2013</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>562</v>
+        <v>618</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2">
         <v>2013</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>562</v>
+        <v>604</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C31" s="2">
         <v>2013</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>645</v>
+        <v>677</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>509</v>
+        <v>421</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="C32" s="2">
         <v>2013</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>637</v>
+        <v>680</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="G32" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>658</v>
+      </c>
+      <c r="C33" s="21">
         <v>2014</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="D33" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>263</v>
+        <v>363</v>
       </c>
       <c r="C34" s="2">
         <v>2014</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>583</v>
+        <v>555</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>427</v>
+        <v>469</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>411</v>
+        <v>364</v>
       </c>
       <c r="C35" s="2">
         <v>2014</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>584</v>
+        <v>555</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="171" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>231</v>
+        <v>367</v>
       </c>
       <c r="C36" s="2">
         <v>2014</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>190</v>
+        <v>471</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>405</v>
+        <v>230</v>
       </c>
       <c r="C37" s="2">
         <v>2014</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>586</v>
+        <v>686</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>488</v>
+        <v>191</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C38" s="2">
         <v>2014</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>562</v>
+        <v>667</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>277</v>
+        <v>408</v>
       </c>
       <c r="C39" s="2">
         <v>2014</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>587</v>
+        <v>683</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>115</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>372</v>
+        <v>264</v>
       </c>
       <c r="C40" s="2">
         <v>2014</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>477</v>
+        <v>423</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C41" s="2">
         <v>2014</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>604</v>
+        <v>684</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>107</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="C42" s="2">
         <v>2014</v>
@@ -8602,380 +8891,398 @@
         <v>562</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>370</v>
+        <v>261</v>
       </c>
       <c r="C43" s="2">
         <v>2014</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>589</v>
+        <v>682</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>476</v>
+        <v>422</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>266</v>
+        <v>402</v>
       </c>
       <c r="C44" s="2">
         <v>2014</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="G44" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C45" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>577</v>
+        <v>623</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>429</v>
+        <v>503</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>7</v>
+        <v>276</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="C46" s="2">
         <v>2015</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>590</v>
+        <v>639</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>197</v>
+        <v>494</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="C47" s="2">
         <v>2015</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>430</v>
+        <v>499</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="C48" s="2">
         <v>2015</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>591</v>
+        <v>692</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>193</v>
+        <v>427</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="C49" s="2">
         <v>2015</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C50" s="2">
         <v>2015</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>21</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="C51" s="2">
         <v>2015</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>595</v>
+        <v>565</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>432</v>
+        <v>196</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>378</v>
+        <v>265</v>
       </c>
       <c r="C52" s="2">
         <v>2015</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>596</v>
+        <v>687</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>498</v>
+        <v>424</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>374</v>
+        <v>226</v>
       </c>
       <c r="C53" s="2">
         <v>2015</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>499</v>
+        <v>200</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>376</v>
+        <v>273</v>
       </c>
       <c r="C54" s="2">
         <v>2015</v>
       </c>
+      <c r="D54" s="8" t="s">
+        <v>570</v>
+      </c>
       <c r="E54" s="6" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C55" s="2">
         <v>2015</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>599</v>
+        <v>572</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>507</v>
+        <v>425</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>279</v>
+        <v>375</v>
       </c>
       <c r="C56" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>433</v>
+        <v>493</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>380</v>
+        <v>299</v>
       </c>
       <c r="C57" s="2">
         <v>2016</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>497</v>
+        <v>440</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>266</v>
+        <v>399</v>
       </c>
       <c r="C58" s="2">
         <v>2016</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>434</v>
+        <v>477</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>603</v>
+        <v>149</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>234</v>
@@ -8984,1283 +9291,1295 @@
         <v>2016</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="C60" s="2">
         <v>2016</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>206</v>
+        <v>698</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>580</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>204</v>
+        <v>121</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>305</v>
+        <v>236</v>
       </c>
       <c r="C61" s="2">
         <v>2016</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>447</v>
+        <v>212</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>105</v>
+        <v>614</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="C62" s="2">
         <v>2016</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>608</v>
+        <v>563</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>210</v>
+        <v>428</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C63" s="2">
         <v>2016</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>634</v>
+        <v>576</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>40</v>
+        <v>574</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="C64" s="2">
         <v>2016</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>611</v>
+        <v>576</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>301</v>
+        <v>237</v>
       </c>
       <c r="C65" s="2">
         <v>2016</v>
       </c>
+      <c r="D65" s="8" t="s">
+        <v>583</v>
+      </c>
       <c r="E65" s="6" t="s">
-        <v>445</v>
+        <v>214</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>113</v>
+        <v>586</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>281</v>
+        <v>377</v>
       </c>
       <c r="C66" s="2">
         <v>2016</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>613</v>
+      <c r="D66" s="17" t="s">
+        <v>688</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>282</v>
+        <v>125</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>238</v>
+        <v>335</v>
       </c>
       <c r="C67" s="2">
         <v>2016</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>614</v>
+        <v>584</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>213</v>
+        <v>453</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>659</v>
+        <v>123</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>402</v>
+        <v>264</v>
       </c>
       <c r="C68" s="2">
         <v>2016</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>482</v>
+        <v>429</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="C69" s="2">
         <v>2016</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>615</v>
+        <v>581</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>215</v>
+        <v>430</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>618</v>
+        <v>112</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>216</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="C70" s="2">
         <v>2016</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>616</v>
+        <v>579</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>338</v>
+        <v>577</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C71" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>617</v>
+        <v>697</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>417</v>
+        <v>210</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>283</v>
+        <v>404</v>
       </c>
       <c r="C72" s="2">
         <v>2017</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C73" s="2">
         <v>2017</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>592</v>
+        <v>559</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="C74" s="2">
         <v>2017</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>449</v>
+        <v>491</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="171" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="C75" s="2">
         <v>2017</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>620</v>
+        <v>555</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>418</v>
+        <v>484</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>382</v>
+        <v>283</v>
       </c>
       <c r="C76" s="2">
         <v>2017</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>496</v>
+        <v>689</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>432</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="C77" s="2">
         <v>2017</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>622</v>
+        <v>700</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C78" s="3">
+        <v>332</v>
+      </c>
+      <c r="C78" s="2">
         <v>2017</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>623</v>
+        <v>567</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>285</v>
+        <v>367</v>
       </c>
       <c r="C79" s="2">
         <v>2017</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>437</v>
+        <v>589</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>490</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>403</v>
+        <v>233</v>
       </c>
       <c r="C80" s="2">
         <v>2017</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>489</v>
+        <v>412</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>103</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C81" s="2">
+        <v>310</v>
+      </c>
+      <c r="C81" s="3">
         <v>2017</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>562</v>
+        <v>627</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H81" s="16" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>345</v>
+        <v>269</v>
       </c>
       <c r="C82" s="2">
         <v>2017</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>571</v>
+        <v>694</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>370</v>
+        <v>238</v>
       </c>
       <c r="C83" s="2">
         <v>2017</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>625</v>
+        <v>587</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>495</v>
+        <v>413</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C84" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>626</v>
+        <v>570</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C85" s="2">
         <v>2018</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>627</v>
+        <v>597</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C86" s="2">
         <v>2018</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C87" s="2">
         <v>2018</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>562</v>
+        <v>599</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C88" s="2">
         <v>2018</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>628</v>
+        <v>592</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>116</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+      <c r="H88" s="16" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="C89" s="2">
         <v>2018</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>564</v>
+        <v>594</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C90" s="2">
         <v>2018</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>630</v>
+        <v>555</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>241</v>
+        <v>344</v>
       </c>
       <c r="C91" s="2">
         <v>2018</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>314</v>
+        <v>243</v>
       </c>
       <c r="C92" s="2">
         <v>2018</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>631</v>
+        <v>600</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>391</v>
+        <v>243</v>
       </c>
       <c r="C93" s="2">
         <v>2018</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>632</v>
+        <v>559</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="C94" s="2">
         <v>2018</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>633</v>
+        <v>591</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>511</v>
+        <v>439</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>312</v>
+        <v>385</v>
       </c>
       <c r="C95" s="2">
         <v>2018</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>635</v>
+        <v>555</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>245</v>
+        <v>388</v>
       </c>
       <c r="C96" s="2">
         <v>2018</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>388</v>
+        <v>287</v>
       </c>
       <c r="C97" s="2">
         <v>2018</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>492</v>
+        <v>434</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G97" s="8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="G97" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C98" s="2">
         <v>2018</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>636</v>
+        <v>590</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>316</v>
+        <v>390</v>
       </c>
       <c r="C99" s="2">
         <v>2018</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>637</v>
+        <v>601</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="G99" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>349</v>
+        <v>239</v>
       </c>
       <c r="C100" s="2">
         <v>2018</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>638</v>
+        <v>565</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>465</v>
+        <v>414</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="C101" s="2">
         <v>2018</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>562</v>
+        <v>695</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>245</v>
+        <v>314</v>
       </c>
       <c r="C102" s="2">
         <v>2018</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>639</v>
+        <v>598</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>393</v>
+        <v>312</v>
       </c>
       <c r="C103" s="2">
         <v>2018</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>640</v>
+        <v>699</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="C104" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>641</v>
+        <v>596</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>441</v>
+        <v>506</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>395</v>
+        <v>318</v>
       </c>
       <c r="C105" s="2">
         <v>2019</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>562</v>
+        <v>673</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>396</v>
+        <v>113</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="C106" s="2">
         <v>2019</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>103</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C107" s="2">
         <v>2019</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>456</v>
+        <v>559</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>461</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="C108" s="2">
         <v>2019</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>647</v>
+        <v>606</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>442</v>
+        <v>322</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C109" s="2">
         <v>2019</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C110" s="2">
         <v>2019</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>649</v>
+        <v>608</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>605</v>
+        <v>66</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="C111" s="2">
         <v>2019</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>650</v>
+        <v>559</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>328</v>
+        <v>463</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>47</v>
+        <v>575</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C112" s="2">
         <v>2019</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>651</v>
+        <v>689</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C113" s="2">
         <v>2019</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>652</v>
+        <v>607</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>119</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C114" s="2">
         <v>2019</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+      <c r="H114" s="16" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>339</v>
@@ -10269,282 +10588,388 @@
         <v>2019</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>654</v>
+        <v>611</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G115" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G115" s="8" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>316</v>
+        <v>394</v>
       </c>
       <c r="C116" s="2">
         <v>2019</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>655</v>
+        <v>555</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>341</v>
+        <v>396</v>
       </c>
       <c r="C117" s="2">
         <v>2019</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+      <c r="H117" s="16" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>297</v>
+        <v>352</v>
       </c>
       <c r="C118" s="2">
         <v>2019</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>657</v>
+        <v>559</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C119" s="2">
         <v>2019</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>562</v>
+        <v>613</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>409</v>
+        <v>328</v>
       </c>
       <c r="C120" s="2">
         <v>2019</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>562</v>
+        <v>690</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G120" s="8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="G120" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="C121" s="2">
         <v>2019</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C122" s="2">
         <v>2019</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>658</v>
+        <v>613</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>100</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="C123" s="2">
         <v>2019</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>658</v>
+        <v>555</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="C124" s="2">
         <v>2019</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>571</v>
+        <v>610</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>399</v>
+        <v>304</v>
       </c>
       <c r="C125" s="2">
         <v>2019</v>
       </c>
-      <c r="D125" s="8"/>
+      <c r="D125" s="8" t="s">
+        <v>691</v>
+      </c>
       <c r="E125" s="6" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="C126" s="2">
         <v>2019</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>571</v>
+        <v>602</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>354</v>
+        <v>118</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="18" customFormat="1" ht="171" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C127" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H127" s="1"/>
+    </row>
+    <row r="128" spans="1:8" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A128" s="19" t="s">
+        <v>644</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="C128" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="E128" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="F128" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="G128" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="H128" s="20" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="18" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="19" t="s">
+        <v>630</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="C129" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="E129" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="F129" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="G129" s="19" t="s">
+        <v>652</v>
+      </c>
+      <c r="H129" s="20" t="s">
+        <v>631</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G126">
-    <sortCondition ref="C2:C126"/>
-    <sortCondition ref="A2:A126"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H129">
+    <sortCondition ref="C2:C129"/>
+    <sortCondition ref="B2:B129"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{A688DDE4-24D8-4033-AB45-C9A558DB48C1}"/>
-    <hyperlink ref="E64" r:id="rId2" xr:uid="{11568FC3-A101-4651-86CA-08C2C46D02FC}"/>
-    <hyperlink ref="E79" r:id="rId3" xr:uid="{25C2A04E-4FC3-40A9-9E05-A411A820A42C}"/>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{A688DDE4-24D8-4033-AB45-C9A558DB48C1}"/>
+    <hyperlink ref="E60" r:id="rId2" xr:uid="{11568FC3-A101-4651-86CA-08C2C46D02FC}"/>
+    <hyperlink ref="E76" r:id="rId3" xr:uid="{25C2A04E-4FC3-40A9-9E05-A411A820A42C}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{3B047E56-465C-42EC-834E-1C9E6B0839A6}"/>
+    <hyperlink ref="H29" r:id="rId5" xr:uid="{25255CD0-D3C6-4EA9-B5F4-060DB87E3F26}"/>
+    <hyperlink ref="H21" r:id="rId6" xr:uid="{70444F6A-12E8-4DC0-9521-BF8E904752F1}"/>
+    <hyperlink ref="H20" r:id="rId7" xr:uid="{C58C966D-5BE5-4FF4-B825-C5D3F3E620E6}"/>
+    <hyperlink ref="H45" r:id="rId8" xr:uid="{810CF192-3739-4F0F-9BFA-A2AC2DA5570F}"/>
+    <hyperlink ref="H88" r:id="rId9" xr:uid="{DBF90CF1-B0A3-40B6-9E4F-903FDDE1B491}"/>
+    <hyperlink ref="H81" r:id="rId10" xr:uid="{20D3A430-DEDB-40DD-A924-24F321D5CAE2}"/>
+    <hyperlink ref="H114" r:id="rId11" xr:uid="{88C3A20A-AA0B-41D2-AE83-E43792328931}"/>
+    <hyperlink ref="H129" r:id="rId12" xr:uid="{D9A6DE75-8329-436F-A61E-55F45B03EE49}"/>
+    <hyperlink ref="H117" r:id="rId13" xr:uid="{D46F1C3A-EEA8-4ABE-9413-194182EE1C82}"/>
+    <hyperlink ref="H27" r:id="rId14" xr:uid="{38E5709B-CB19-4C30-B480-BCE88F9B21D6}"/>
+    <hyperlink ref="H32" r:id="rId15" xr:uid="{65CA1109-B062-41FD-997D-B87BD92C9945}"/>
+    <hyperlink ref="H26" r:id="rId16" xr:uid="{885E54C5-80DF-4D78-98BE-8AECB2D8E751}"/>
+    <hyperlink ref="H46" r:id="rId17" xr:uid="{06DF0EFE-E2AE-46CA-8868-E189570AF93C}"/>
+    <hyperlink ref="H49" r:id="rId18" xr:uid="{1428692F-1A92-4271-8E95-C739EDC4929F}"/>
+    <hyperlink ref="H48" r:id="rId19" xr:uid="{045875A8-4301-44CF-B6A8-D8C8C712315E}"/>
+    <hyperlink ref="H128" r:id="rId20" xr:uid="{15BBD0F3-9239-4CEC-A8E1-83F42688A825}"/>
+    <hyperlink ref="H33" r:id="rId21" xr:uid="{083E8C36-F96C-4F1D-A42E-B4CED7B04F76}"/>
+    <hyperlink ref="H38" r:id="rId22" xr:uid="{5F8C3A82-4C39-4CED-A1BD-7F868F2F0DC9}"/>
+    <hyperlink ref="H58" r:id="rId23" xr:uid="{E384313E-4A03-488A-AB8F-219E036C3125}"/>
+    <hyperlink ref="E107" r:id="rId24" xr:uid="{8D695BDA-C16B-4D93-878B-28C0610E64B7}"/>
+    <hyperlink ref="E129" r:id="rId25" xr:uid="{DBCDBFFB-EA8D-469B-B54B-420E2DA2C02F}"/>
+    <hyperlink ref="E128" r:id="rId26" xr:uid="{2AADC822-250A-45C0-BB4B-4CFD9C4B7203}"/>
+    <hyperlink ref="E33" r:id="rId27" xr:uid="{CE85137B-D2D3-4EA4-A277-A742CFAEFDEB}"/>
+    <hyperlink ref="E9" r:id="rId28" xr:uid="{E26D6670-6C23-46AD-A1A1-F9C5C2A89839}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 
@@ -10565,10 +10990,10 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -10677,7 +11102,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B16" s="9">
         <v>125</v>
@@ -10707,15 +11132,15 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B3" s="9">
         <v>22</v>
@@ -10723,7 +11148,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B4" s="9">
         <v>8</v>
@@ -10731,7 +11156,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B5" s="9">
         <v>8</v>
@@ -10739,7 +11164,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B6" s="9">
         <v>7</v>
@@ -10747,7 +11172,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B7" s="9">
         <v>7</v>
@@ -10755,7 +11180,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B8" s="9">
         <v>6</v>
@@ -10763,7 +11188,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B9" s="9">
         <v>6</v>
@@ -10771,7 +11196,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B10" s="9">
         <v>6</v>
@@ -10779,7 +11204,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B11" s="9">
         <v>6</v>
@@ -10787,7 +11212,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B12" s="9">
         <v>5</v>
@@ -10795,7 +11220,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B13" s="9">
         <v>4</v>
@@ -10803,7 +11228,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B14" s="9">
         <v>3</v>
@@ -10811,7 +11236,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B15" s="9">
         <v>3</v>
@@ -10819,7 +11244,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B16" s="9">
         <v>3</v>
@@ -10827,7 +11252,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B17" s="9">
         <v>2</v>
@@ -10835,7 +11260,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B18" s="9">
         <v>2</v>
@@ -10843,7 +11268,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B19" s="9">
         <v>2</v>
@@ -10851,7 +11276,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B20" s="9">
         <v>2</v>
@@ -10859,7 +11284,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B21" s="9">
         <v>2</v>
@@ -10867,7 +11292,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B22" s="9">
         <v>2</v>
@@ -10875,7 +11300,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B23" s="9">
         <v>1</v>
@@ -10883,7 +11308,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B24" s="9">
         <v>1</v>
@@ -10891,7 +11316,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B25" s="9">
         <v>1</v>
@@ -10899,7 +11324,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B26" s="9">
         <v>1</v>
@@ -10907,7 +11332,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B27" s="9">
         <v>1</v>
@@ -10915,7 +11340,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B28" s="9">
         <v>1</v>
@@ -10923,7 +11348,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B29" s="9">
         <v>1</v>
@@ -10931,7 +11356,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B30" s="9">
         <v>1</v>
@@ -10939,7 +11364,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B31" s="9">
         <v>1</v>
@@ -10947,7 +11372,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B32" s="9">
         <v>1</v>
@@ -10955,7 +11380,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B33" s="9">
         <v>1</v>
@@ -10963,7 +11388,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B34" s="9">
         <v>1</v>
@@ -10971,7 +11396,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B35" s="9">
         <v>1</v>
@@ -10979,7 +11404,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B36" s="9">
         <v>1</v>
@@ -10987,7 +11412,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B37" s="9">
         <v>1</v>
@@ -10995,7 +11420,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B38" s="9">
         <v>1</v>
@@ -11003,7 +11428,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B39" s="9">
         <v>1</v>
@@ -11011,7 +11436,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B40" s="9">
         <v>1</v>
@@ -11019,7 +11444,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B41" s="9">
         <v>1</v>
@@ -11027,7 +11452,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B42" s="9">
         <v>125</v>

--- a/library.xlsx
+++ b/library.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\buglocalization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBA0677-4C80-4933-9AA6-6C9E3A4FD371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="26895" windowHeight="12450"/>
+    <workbookView xWindow="13875" yWindow="-11865" windowWidth="24000" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,15 +19,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$129</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="760">
   <si>
     <t>title</t>
   </si>
@@ -519,6 +535,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>D&amp;C: A</t>
@@ -528,6 +545,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> Divide-and-Conquer</t>
@@ -537,6 +555,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> Approach to IR-based Bug Localization</t>
@@ -1603,6 +1622,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Kılınç, Deniz
@@ -1614,6 +1634,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ğ</t>
@@ -1623,6 +1644,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>, Emin
@@ -1644,6 +1666,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Bug fixing has a key role in software quality evaluation. Bug fixing starts with the bug localization step, in which developers use textual bug information to find location of source codes which have the bug. Bug localization is a tedious and time consuming process. Information retrieval requires understanding the programme's goal, coding structure, programming logic and the relevant attributes of bug. Information retrieval (IR) based bug localization is a retrieval task, where bug reports and source files represent the queries and documents, respectively. In this paper, we propose BugCatcher, a newly developed bug localization method based on multi</t>
@@ -1653,7 +1676,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>‐</t>
     </r>
@@ -1662,6 +1685,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>level re</t>
@@ -1671,7 +1695,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>‐</t>
     </r>
@@ -1680,6 +1704,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ranking IR technique. We evaluate BugCatcher on three open source projects with approximately 3400 bugs. Our experiments show that multi</t>
@@ -1689,7 +1714,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>‐</t>
     </r>
@@ -1698,6 +1723,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>level reranking approach to bug localization is promising. Retrieval performance and accuracy of BugCatcher are better than current bug localization tools, and BugCatcher has the best Top N, Mean Average Precision (MAP) and Mean Reciprocal Rank (MRR) values for all datasets.</t>
@@ -2758,6 +2784,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>T</t>
@@ -2767,6 +2794,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>SE</t>
@@ -2811,22 +2839,102 @@
   <si>
     <t>总文献数</t>
   </si>
+  <si>
+    <t>A Preliminary Investigation on the Performance of SBFL Techniques and Distance Metrics in Parallel Fault Localization</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9761975</t>
+  </si>
+  <si>
+    <t>abstract—To locate multiple bugs in parallel, one common prac_x0002_tice is to generate fault-focused clusters where failed test cases that are likely caused by the same bug are grouped together. With respect to the fault-focused clustering and fault localization, Spectrum-based fault localization (SBFL) technique and distance metric are two critical impact factors. This article proposes a method to evaluate the parallel fault localization performance of SBFL techniques and distance metrics where the fault-focused information for each failed test case is already given. Case studies are conducted using the proposed method to evaluate five SBFL techniques and five distance metrics on three programs with mul_x0002_tiple bugs. Index Terms—Distance metric, fault-focused clustering, multiple bug, parallel fault localization, spectrum-based fault localization (SBFL).</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yihao, Li 
+Pan, Liu</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>An extensive study on smell-aware bug localization</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jss.2021.110986</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>B类期刊</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug localization is an important aspect of software maintenance because it can locate modules that should be changed to fix a specific bug. Our previous study showed that the accuracy of the information retrieval (IR)-based bug localization technique improved when used in combination with code smell information. Although this technique showed promise, the study showed limited usefulness because of the small number of: (1) projects in the dataset, (2) types of smell information, and (3) baseline bug localization techniques used for assessment. This paper presents an extension of our previous experiments on Bench4BL, the largest bug localization benchmark dataset available for bug localization. In addition, we generalized the smell-aware bug localization technique to allow different configurations of smell information, which were combined with various bug localization techniques. Our results confirmed that our technique can improve the performance of IR-based bug localization techniques for the class level even when large datasets are processed. Furthermore, because of the optimized configuration of the smell information, our technique can enhance the performance of most state-of-the-art bug localization techniques.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aoi, Takahashi
+ Natthawute, Sae-Lim
+Shinpei, Hayashi 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Motoshi, Saeki</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aries: A Semi-formal Technique for Fine-grained Bug Localization in Hardware Designs</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binod, Kumar
+Vineesh, V S
+Puneet, Nemade
+Masahiro, Fujita</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abstract—Effective bug localization during verification is a challenging step in the development cycle of complex hardware designs. While meeting different coverage goals is possible in the verification process, yet bug localization can not be directly related to such goals. We propose a two-step methodology to achieve fine-grained design bug localization. First, we obtain multiple error traces based on a failing property. Starting from an initial error trace, we employ model checking to generate supportive error traces that are utilized to mine important assertions. In the second step, we utilize these assertions for fine_x0002_grained design bug localization. The mapping of the assertions leads to specific regions in RTL descriptions that are highly probable to be the root cause of the design bug. Specifically, we devise a binning methodology to categorize multiple suspects in different bins that need to be investigated by the design engineer for arriving at the correction for corresponding bugs. Experiments on multiple designs illustrate the efficacy of the proposed methodology in comparison to previous work and state_x0002_of-the-art industrial tool.</t>
+  </si>
+  <si>
+    <t>ARIES: a transaction recovery method supporting fine-granularity locking and partial rollbacks using write-ahead logging: ACM Transactions on Database Systems: Vol 17, No 1</t>
+  </si>
+  <si>
+    <t>HeuiChan, Lim
+Saumya, Debray</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automated Bug Localization in JIT Compilers</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automated bug localization in JIT compilers | Proceedings of the 17th ACM SIGPLAN/SIGOPS International Conference on Virtual Execution Environments</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Many widely-deployed modern programming systems use just-in-time (JIT) compilers to improve performance. The size and complexity of JIT-based systems, combined with the dynamic nature of JIT-compiler optimizations, make it challenging to locate and fix JIT compiler bugs quickly. At the same time, JIT compiler bugs can result in exploitable security vulnerabilities, making rapid bug localization impor_x0002_tant. Existing work on automated bug localization focuses on static code, i.e., code that is not generated at runtime, and so cannot handle bugs in JIT compilers that generate incorrect code during optimization. This paper describes an approach to automated bug localization in JIT compilers, down to the level of distinct optimization phases, starting with a single initial Proof-of-Concept (PoC) input that demonstrates the bug. Experiments using a prototype implementation of our ideas on Google’s V8 JavaScript interpreter and TurboFan JIT compiler demonstrates that it can successfully identify buggy optimization phases.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2846,348 +2954,70 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="等线"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="等线"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -3195,356 +3025,89 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="50">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="常规 2" xfId="14"/>
-    <cellStyle name="Accent3" xfId="15" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="21" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
-    <cellStyle name="Bad" xfId="24" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
-    <cellStyle name="Total" xfId="26" builtinId="25"/>
-    <cellStyle name="Output" xfId="27" builtinId="21"/>
-    <cellStyle name="Currency" xfId="28" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
-    <cellStyle name="Note" xfId="30" builtinId="10"/>
-    <cellStyle name="Input" xfId="31" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="33" builtinId="22"/>
-    <cellStyle name="Good" xfId="34" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="36" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="37" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="38" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="41" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="42" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
-    <cellStyle name="Comma" xfId="45" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="false"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="false"/>
+  <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -3561,7 +3124,7 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3585,8 +3148,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="false"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3594,13 +3156,443 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="false"/>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="false"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3639,14 +3631,10 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="true"/>
-          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet2!$A$5:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2006</c:v>
@@ -3690,8 +3678,8 @@
                 <c:pt idx="13">
                   <c:v>2020</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3717,7 +3705,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8B6-4772-9360-D18172BDECDF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3757,14 +3750,10 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="true"/>
-          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet2!$A$5:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2006</c:v>
@@ -3808,8 +3797,8 @@
                 <c:pt idx="13">
                   <c:v>2020</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3847,7 +3836,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B8B6-4772-9360-D18172BDECDF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3887,14 +3881,10 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="true"/>
-          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet2!$A$5:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2006</c:v>
@@ -3938,8 +3928,8 @@
                 <c:pt idx="13">
                   <c:v>2020</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3992,7 +3982,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B8B6-4772-9360-D18172BDECDF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4032,14 +4027,10 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="true"/>
-          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet2!$A$5:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2006</c:v>
@@ -4083,8 +4074,8 @@
                 <c:pt idx="13">
                   <c:v>2020</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4116,7 +4107,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B8B6-4772-9360-D18172BDECDF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4156,14 +4152,10 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="true"/>
-          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet2!$A$5:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2006</c:v>
@@ -4207,8 +4199,8 @@
                 <c:pt idx="13">
                   <c:v>2020</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4234,7 +4226,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B8B6-4772-9360-D18172BDECDF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -4274,14 +4271,10 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="true"/>
-          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet2!$A$5:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2006</c:v>
@@ -4325,8 +4318,8 @@
                 <c:pt idx="13">
                   <c:v>2020</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4340,18 +4333,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B8B6-4772-9360-D18172BDECDF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="false"/>
-          <c:showVal val="false"/>
-          <c:showCatName val="false"/>
-          <c:showSerName val="false"/>
-          <c:showPercent val="false"/>
-          <c:showBubbleSize val="false"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="true"/>
-        <c:smooth val="false"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="1568334352"/>
         <c:axId val="1564629472"/>
       </c:lineChart>
@@ -4360,9 +4358,9 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="false"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="true"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4380,7 +4378,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4396,21 +4394,22 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1564629472"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="true"/>
+        <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="false"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1564629472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="false"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4426,7 +4425,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="true"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4438,7 +4437,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4454,6 +4453,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1568334352"/>
@@ -4470,8 +4470,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="false"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4480,7 +4479,7 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
@@ -4496,12 +4495,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="true"/>
+    <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="false"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4525,6 +4525,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4546,10 +4547,10 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="false"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="false"/>
+  <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -4562,7 +4563,7 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4602,8 +4603,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="false"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4611,13 +4611,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="false"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="false"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4656,9 +4676,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="true"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$D$43:$D$56</c:f>
@@ -4734,7 +4751,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E15-4BDB-A922-54B3041BE85E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4774,9 +4796,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="true"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$D$43:$D$56</c:f>
@@ -4864,7 +4883,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E15-4BDB-A922-54B3041BE85E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4904,9 +4928,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="true"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$D$43:$D$56</c:f>
@@ -5009,7 +5030,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4E15-4BDB-A922-54B3041BE85E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5049,9 +5075,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="true"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$D$43:$D$56</c:f>
@@ -5133,7 +5156,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4E15-4BDB-A922-54B3041BE85E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -5173,9 +5201,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="true"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$D$43:$D$56</c:f>
@@ -5251,7 +5276,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4E15-4BDB-A922-54B3041BE85E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -5291,9 +5321,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="true"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$D$43:$D$56</c:f>
@@ -5357,18 +5384,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4E15-4BDB-A922-54B3041BE85E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="false"/>
-          <c:showVal val="false"/>
-          <c:showCatName val="false"/>
-          <c:showSerName val="false"/>
-          <c:showPercent val="false"/>
-          <c:showBubbleSize val="false"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="true"/>
-        <c:smooth val="false"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="12841040"/>
         <c:axId val="142972704"/>
       </c:lineChart>
@@ -5377,9 +5409,9 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="false"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="true"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5397,7 +5429,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -5413,21 +5445,22 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142972704"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="true"/>
+        <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="false"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="142972704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="false"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5443,7 +5476,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="true"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5455,7 +5488,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -5471,6 +5504,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="12841040"/>
@@ -5487,8 +5521,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="false"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5497,7 +5530,7 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
@@ -5513,12 +5546,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="true"/>
+    <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="false"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5542,6 +5576,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5553,10 +5588,10 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="false"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="false"/>
+  <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -5569,7 +5604,7 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -5597,8 +5632,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="false"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5606,13 +5640,33 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="false"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="false"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5651,9 +5705,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="true"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$D$43:$D$56</c:f>
@@ -5756,7 +5807,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-39F4-4DD9-A52B-B8DBF7ABB811}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5796,9 +5852,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="true"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$D$43:$D$56</c:f>
@@ -5880,7 +5933,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-39F4-4DD9-A52B-B8DBF7ABB811}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5920,9 +5978,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="true"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$D$43:$D$56</c:f>
@@ -5998,7 +6053,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-39F4-4DD9-A52B-B8DBF7ABB811}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -6038,9 +6098,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="true"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$D$43:$D$56</c:f>
@@ -6116,7 +6173,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-39F4-4DD9-A52B-B8DBF7ABB811}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -6156,9 +6218,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="true"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$D$43:$D$56</c:f>
@@ -6246,7 +6305,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-39F4-4DD9-A52B-B8DBF7ABB811}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -6286,9 +6350,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="true"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$D$43:$D$56</c:f>
@@ -6352,7 +6413,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-39F4-4DD9-A52B-B8DBF7ABB811}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -6398,9 +6464,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="true"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$D$43:$D$56</c:f>
@@ -6503,18 +6566,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-39F4-4DD9-A52B-B8DBF7ABB811}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="false"/>
-          <c:showVal val="false"/>
-          <c:showCatName val="false"/>
-          <c:showSerName val="false"/>
-          <c:showPercent val="false"/>
-          <c:showBubbleSize val="false"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="true"/>
-        <c:smooth val="false"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="142645696"/>
         <c:axId val="142979776"/>
       </c:lineChart>
@@ -6523,9 +6591,9 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="false"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="true"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6543,7 +6611,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -6559,21 +6627,22 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142979776"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="true"/>
+        <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="false"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="142979776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="false"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -6589,7 +6658,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="true"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6601,7 +6670,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -6617,6 +6686,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142645696"/>
@@ -6633,8 +6703,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="false"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6643,7 +6712,7 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
@@ -6659,12 +6728,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="true"/>
+    <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="false"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6688,6 +6758,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6914,7 +6985,7 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="true">
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
@@ -7419,7 +7490,7 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="true">
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
@@ -7922,7 +7993,7 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="true">
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
@@ -8330,7 +8401,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -8344,14 +8415,20 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3324225" y="4629150"/>
-        <a:ext cx="6249035" cy="3085465"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8374,14 +8451,20 @@
       <xdr:row>71</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3862070" y="11634470"/>
-        <a:ext cx="5639435" cy="2595880"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8404,14 +8487,20 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvPr id="8" name="图表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11180445" y="12101195"/>
-        <a:ext cx="8307070" cy="3028950"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8425,13 +8514,17 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" refreshedDate="44130.1005732639" refreshedBy="zc" recordCount="141">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="zc" refreshedDate="44130.100573263902" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="141" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:J142" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="10">
-    <cacheField name="title" numFmtId="0"/>
-    <cacheField name="authors" numFmtId="0"/>
+    <cacheField name="title" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="authors" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
     <cacheField name="year" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2020" count="14">
         <n v="2020"/>
@@ -8460,13 +8553,30 @@
         <s v="Tool"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="tags" numFmtId="0"/>
-    <cacheField name="links" numFmtId="0"/>
-    <cacheField name="CCF" numFmtId="0"/>
-    <cacheField name="conference" numFmtId="0"/>
-    <cacheField name="abstract" numFmtId="0"/>
-    <cacheField name="datasets" numFmtId="0"/>
+    <cacheField name="tags" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="links" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="CCF" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="conference" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="abstract" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="datasets" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -10168,24 +10278,24 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表13" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" createdVersion="6" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" compact="0" indent="0" compactData="0" showDrill="true" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:G18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
-    <pivotField dataField="1" compact="0" defaultSubtotal="0" outline="0" showAll="0">
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
         </ext>
       </extLst>
     </pivotField>
-    <pivotField compact="0" defaultSubtotal="0" outline="0" showAll="0">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
         </ext>
       </extLst>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" defaultSubtotal="0" outline="0" showAll="0">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="14">
         <item x="13"/>
         <item x="12"/>
@@ -10208,7 +10318,7 @@
         </ext>
       </extLst>
     </pivotField>
-    <pivotField axis="axisCol" compact="0" defaultSubtotal="0" outline="0" showAll="0">
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="6">
         <item x="2"/>
         <item x="1"/>
@@ -10223,42 +10333,42 @@
         </ext>
       </extLst>
     </pivotField>
-    <pivotField compact="0" defaultSubtotal="0" outline="0" showAll="0">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
         </ext>
       </extLst>
     </pivotField>
-    <pivotField compact="0" defaultSubtotal="0" outline="0" showAll="0">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
         </ext>
       </extLst>
     </pivotField>
-    <pivotField compact="0" defaultSubtotal="0" outline="0" showAll="0">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
         </ext>
       </extLst>
     </pivotField>
-    <pivotField compact="0" defaultSubtotal="0" outline="0" showAll="0">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
         </ext>
       </extLst>
     </pivotField>
-    <pivotField compact="0" defaultSubtotal="0" outline="0" showAll="0">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
         </ext>
       </extLst>
     </pivotField>
-    <pivotField compact="0" defaultSubtotal="0" outline="0" showAll="0">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
@@ -10339,10 +10449,87 @@
   <dataFields count="1">
     <dataField name="计数项:title" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -10466,7 +10653,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -10490,9 +10677,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -10516,7 +10703,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -10569,7 +10756,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -10594,42 +10781,41 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L142"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.2" style="3" customWidth="true"/>
-    <col min="2" max="2" width="11.26" style="3" customWidth="true"/>
-    <col min="3" max="3" width="5" style="3" customWidth="true"/>
-    <col min="4" max="4" width="15.0533333333333" style="3" customWidth="true"/>
-    <col min="5" max="5" width="15.4666666666667" style="4" customWidth="true"/>
-    <col min="6" max="6" width="31.5733333333333" style="5" customWidth="true"/>
-    <col min="7" max="7" width="15.6266666666667" style="5" customWidth="true"/>
-    <col min="8" max="8" width="8.73333333333333" style="3" customWidth="true"/>
-    <col min="9" max="9" width="25.58" style="3" customWidth="true"/>
-    <col min="10" max="10" width="35.5733333333333" style="6" customWidth="true"/>
-    <col min="11" max="11" width="35.5733333333333" customWidth="true"/>
+    <col min="1" max="1" width="18.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="31.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="35.625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" ht="28.5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -10664,7 +10850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="113" customHeight="true" spans="1:12">
+    <row r="2" spans="1:12" ht="113.1" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -10696,7 +10882,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" ht="113" customHeight="true" spans="1:11">
+    <row r="3" spans="1:12" ht="113.1" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
@@ -10731,7 +10917,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" ht="113" customHeight="true" spans="1:11">
+    <row r="4" spans="1:12" ht="113.1" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
@@ -10766,7 +10952,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" ht="113" customHeight="true" spans="1:11">
+    <row r="5" spans="1:12" ht="113.1" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
@@ -10797,7 +10983,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" ht="113" customHeight="true" spans="1:11">
+    <row r="6" spans="1:12" ht="113.1" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>45</v>
       </c>
@@ -10827,7 +11013,7 @@
       </c>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" ht="113" customHeight="true" spans="1:11">
+    <row r="7" spans="1:12" ht="113.1" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>51</v>
       </c>
@@ -10858,7 +11044,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" ht="113" customHeight="true" spans="1:11">
+    <row r="8" spans="1:12" ht="113.1" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>59</v>
       </c>
@@ -10889,7 +11075,7 @@
       <c r="J8"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" ht="113" customHeight="true" spans="1:11">
+    <row r="9" spans="1:12" ht="113.1" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>66</v>
       </c>
@@ -10920,7 +11106,7 @@
       <c r="J9"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" ht="113" customHeight="true" spans="1:11">
+    <row r="10" spans="1:12" ht="113.1" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>72</v>
       </c>
@@ -10951,7 +11137,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" ht="113" customHeight="true" spans="1:11">
+    <row r="11" spans="1:12" ht="113.1" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>78</v>
       </c>
@@ -10981,7 +11167,7 @@
       </c>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" ht="113" customHeight="true" spans="1:12">
+    <row r="12" spans="1:12" ht="113.1" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>84</v>
       </c>
@@ -11013,7 +11199,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" ht="113" customHeight="true" spans="1:11">
+    <row r="13" spans="1:12" ht="113.1" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>89</v>
       </c>
@@ -11044,7 +11230,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" ht="113" customHeight="true" spans="1:11">
+    <row r="14" spans="1:12" ht="113.1" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>94</v>
       </c>
@@ -11074,7 +11260,7 @@
       </c>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" ht="113" customHeight="true" spans="1:11">
+    <row r="15" spans="1:12" ht="113.1" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>100</v>
       </c>
@@ -11105,7 +11291,7 @@
       <c r="J15"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" ht="113" customHeight="true" spans="1:11">
+    <row r="16" spans="1:12" ht="113.1" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>107</v>
       </c>
@@ -11135,7 +11321,7 @@
       </c>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" ht="113" customHeight="true" spans="1:11">
+    <row r="17" spans="1:11" ht="113.1" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>112</v>
       </c>
@@ -11166,7 +11352,7 @@
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" ht="113" customHeight="true" spans="1:11">
+    <row r="18" spans="1:11" ht="113.1" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>115</v>
       </c>
@@ -11199,7 +11385,7 @@
       </c>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" ht="113" customHeight="true" spans="1:11">
+    <row r="19" spans="1:11" ht="113.1" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>121</v>
       </c>
@@ -11230,7 +11416,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" ht="113" customHeight="true" spans="1:11">
+    <row r="20" spans="1:11" ht="113.1" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>127</v>
       </c>
@@ -11261,7 +11447,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" ht="113" customHeight="true" spans="1:11">
+    <row r="21" spans="1:11" ht="113.1" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>132</v>
       </c>
@@ -11292,7 +11478,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" ht="113" customHeight="true" spans="1:11">
+    <row r="22" spans="1:11" ht="113.1" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>137</v>
       </c>
@@ -11323,7 +11509,7 @@
       <c r="J22"/>
       <c r="K22" s="9"/>
     </row>
-    <row r="23" ht="113" customHeight="true" spans="1:9">
+    <row r="23" spans="1:11" ht="113.1" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>143</v>
       </c>
@@ -11352,7 +11538,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" ht="113" customHeight="true" spans="1:11">
+    <row r="24" spans="1:11" ht="113.1" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>147</v>
       </c>
@@ -11383,7 +11569,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" ht="113" customHeight="true" spans="1:11">
+    <row r="25" spans="1:11" ht="113.1" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>150</v>
       </c>
@@ -11414,7 +11600,7 @@
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" ht="113" customHeight="true" spans="1:11">
+    <row r="26" spans="1:11" ht="113.1" customHeight="1">
       <c r="A26" s="8" t="s">
         <v>155</v>
       </c>
@@ -11445,7 +11631,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" ht="113" customHeight="true" spans="1:9">
+    <row r="27" spans="1:11" ht="113.1" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>160</v>
       </c>
@@ -11474,7 +11660,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" ht="113" customHeight="true" spans="1:11">
+    <row r="28" spans="1:11" ht="113.1" customHeight="1">
       <c r="A28" s="8" t="s">
         <v>165</v>
       </c>
@@ -11505,7 +11691,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" ht="113" customHeight="true" spans="1:11">
+    <row r="29" spans="1:11" ht="113.1" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>170</v>
       </c>
@@ -11536,7 +11722,7 @@
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" ht="113" customHeight="true" spans="1:11">
+    <row r="30" spans="1:11" ht="113.1" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>175</v>
       </c>
@@ -11566,7 +11752,7 @@
       </c>
       <c r="K30" s="9"/>
     </row>
-    <row r="31" ht="113" customHeight="true" spans="1:11">
+    <row r="31" spans="1:11" ht="113.1" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>179</v>
       </c>
@@ -11597,7 +11783,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" ht="113" customHeight="true" spans="1:11">
+    <row r="32" spans="1:11" ht="113.1" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>183</v>
       </c>
@@ -11627,7 +11813,7 @@
       </c>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" ht="113" customHeight="true" spans="1:11">
+    <row r="33" spans="1:12" ht="113.1" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>186</v>
       </c>
@@ -11658,7 +11844,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" ht="113" customHeight="true" spans="1:10">
+    <row r="34" spans="1:12" ht="113.1" customHeight="1">
       <c r="A34" s="8" t="s">
         <v>191</v>
       </c>
@@ -11688,7 +11874,7 @@
       </c>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" ht="113" customHeight="true" spans="1:12">
+    <row r="35" spans="1:12" ht="113.1" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>196</v>
       </c>
@@ -11720,7 +11906,7 @@
       <c r="K35" s="13"/>
       <c r="L35" s="10"/>
     </row>
-    <row r="36" ht="113" customHeight="true" spans="1:12">
+    <row r="36" spans="1:12" ht="113.1" customHeight="1">
       <c r="A36" s="8" t="s">
         <v>201</v>
       </c>
@@ -11756,7 +11942,7 @@
       </c>
       <c r="L36" s="10"/>
     </row>
-    <row r="37" ht="113" customHeight="true" spans="1:12">
+    <row r="37" spans="1:12" ht="113.1" customHeight="1">
       <c r="A37" s="8" t="s">
         <v>209</v>
       </c>
@@ -11788,7 +11974,7 @@
       <c r="K37" s="13"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" ht="113" customHeight="true" spans="1:10">
+    <row r="38" spans="1:12" ht="113.1" customHeight="1">
       <c r="A38" s="8" t="s">
         <v>214</v>
       </c>
@@ -11818,7 +12004,7 @@
       </c>
       <c r="J38"/>
     </row>
-    <row r="39" ht="113" customHeight="true" spans="1:10">
+    <row r="39" spans="1:12" ht="113.1" customHeight="1">
       <c r="A39" s="8" t="s">
         <v>219</v>
       </c>
@@ -11848,7 +12034,7 @@
       </c>
       <c r="J39"/>
     </row>
-    <row r="40" ht="113" customHeight="true" spans="1:9">
+    <row r="40" spans="1:12" ht="113.1" customHeight="1">
       <c r="A40" s="8" t="s">
         <v>224</v>
       </c>
@@ -11877,7 +12063,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="41" ht="113" customHeight="true" spans="1:9">
+    <row r="41" spans="1:12" ht="113.1" customHeight="1">
       <c r="A41" s="8" t="s">
         <v>229</v>
       </c>
@@ -11906,7 +12092,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="42" ht="113" customHeight="true" spans="1:11">
+    <row r="42" spans="1:12" ht="113.1" customHeight="1">
       <c r="A42" s="8" t="s">
         <v>232</v>
       </c>
@@ -11941,7 +12127,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="43" ht="113" customHeight="true" spans="1:9">
+    <row r="43" spans="1:12" ht="113.1" customHeight="1">
       <c r="A43" s="8" t="s">
         <v>238</v>
       </c>
@@ -11970,7 +12156,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="44" ht="113" customHeight="true" spans="1:9">
+    <row r="44" spans="1:12" ht="113.1" customHeight="1">
       <c r="A44" s="8" t="s">
         <v>242</v>
       </c>
@@ -11999,7 +12185,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="45" ht="113" customHeight="true" spans="1:11">
+    <row r="45" spans="1:12" ht="113.1" customHeight="1">
       <c r="A45" s="8" t="s">
         <v>248</v>
       </c>
@@ -12029,7 +12215,7 @@
       </c>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" ht="113" customHeight="true" spans="1:9">
+    <row r="46" spans="1:12" ht="113.1" customHeight="1">
       <c r="A46" s="8" t="s">
         <v>254</v>
       </c>
@@ -12058,7 +12244,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="47" ht="113" customHeight="true" spans="1:9">
+    <row r="47" spans="1:12" ht="113.1" customHeight="1">
       <c r="A47" s="8" t="s">
         <v>259</v>
       </c>
@@ -12087,7 +12273,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" ht="113" customHeight="true" spans="1:9">
+    <row r="48" spans="1:12" ht="113.1" customHeight="1">
       <c r="A48" s="8" t="s">
         <v>264</v>
       </c>
@@ -12116,7 +12302,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" ht="113" customHeight="true" spans="1:11">
+    <row r="49" spans="1:11" ht="113.1" customHeight="1">
       <c r="A49" s="8" t="s">
         <v>269</v>
       </c>
@@ -12146,7 +12332,7 @@
       </c>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" ht="113" customHeight="true" spans="1:11">
+    <row r="50" spans="1:11" ht="113.1" customHeight="1">
       <c r="A50" s="8" t="s">
         <v>275</v>
       </c>
@@ -12177,7 +12363,7 @@
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
     </row>
-    <row r="51" ht="113" customHeight="true" spans="1:11">
+    <row r="51" spans="1:11" ht="113.1" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>280</v>
       </c>
@@ -12208,7 +12394,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" ht="113" customHeight="true" spans="1:11">
+    <row r="52" spans="1:11" ht="113.1" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>283</v>
       </c>
@@ -12239,7 +12425,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
     </row>
-    <row r="53" ht="113" customHeight="true" spans="1:11">
+    <row r="53" spans="1:11" ht="113.1" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>287</v>
       </c>
@@ -12270,7 +12456,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" ht="113" customHeight="true" spans="1:11">
+    <row r="54" spans="1:11" ht="113.1" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>290</v>
       </c>
@@ -12300,7 +12486,7 @@
       </c>
       <c r="K54" s="9"/>
     </row>
-    <row r="55" ht="113" customHeight="true" spans="1:11">
+    <row r="55" spans="1:11" ht="113.1" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>295</v>
       </c>
@@ -12331,7 +12517,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="13"/>
     </row>
-    <row r="56" ht="113" customHeight="true" spans="1:10">
+    <row r="56" spans="1:11" ht="113.1" customHeight="1">
       <c r="A56" s="8" t="s">
         <v>299</v>
       </c>
@@ -12361,7 +12547,7 @@
       </c>
       <c r="J56"/>
     </row>
-    <row r="57" ht="113" customHeight="true" spans="1:10">
+    <row r="57" spans="1:11" ht="113.1" customHeight="1">
       <c r="A57" s="8" t="s">
         <v>304</v>
       </c>
@@ -12391,7 +12577,7 @@
       </c>
       <c r="J57"/>
     </row>
-    <row r="58" ht="113" customHeight="true" spans="1:9">
+    <row r="58" spans="1:11" ht="113.1" customHeight="1">
       <c r="A58" s="8" t="s">
         <v>309</v>
       </c>
@@ -12420,7 +12606,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="59" ht="113" customHeight="true" spans="1:9">
+    <row r="59" spans="1:11" ht="113.1" customHeight="1">
       <c r="A59" s="8" t="s">
         <v>314</v>
       </c>
@@ -12449,7 +12635,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="60" ht="113" customHeight="true" spans="1:11">
+    <row r="60" spans="1:11" ht="113.1" customHeight="1">
       <c r="A60" s="8" t="s">
         <v>319</v>
       </c>
@@ -12479,7 +12665,7 @@
       </c>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" ht="113" customHeight="true" spans="1:10">
+    <row r="61" spans="1:11" ht="113.1" customHeight="1">
       <c r="A61" s="8" t="s">
         <v>324</v>
       </c>
@@ -12509,7 +12695,7 @@
       </c>
       <c r="J61"/>
     </row>
-    <row r="62" ht="113" customHeight="true" spans="1:9">
+    <row r="62" spans="1:11" ht="113.1" customHeight="1">
       <c r="A62" s="8" t="s">
         <v>329</v>
       </c>
@@ -12538,7 +12724,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="63" ht="113" customHeight="true" spans="1:11">
+    <row r="63" spans="1:11" ht="113.1" customHeight="1">
       <c r="A63" s="8" t="s">
         <v>334</v>
       </c>
@@ -12569,7 +12755,7 @@
       <c r="J63" s="10"/>
       <c r="K63" s="9"/>
     </row>
-    <row r="64" ht="113" customHeight="true" spans="1:11">
+    <row r="64" spans="1:11" ht="113.1" customHeight="1">
       <c r="A64" s="8" t="s">
         <v>339</v>
       </c>
@@ -12599,7 +12785,7 @@
       </c>
       <c r="K64" s="10"/>
     </row>
-    <row r="65" ht="113" customHeight="true" spans="1:12">
+    <row r="65" spans="1:12" ht="113.1" customHeight="1">
       <c r="A65" s="8" t="s">
         <v>344</v>
       </c>
@@ -12635,7 +12821,7 @@
       </c>
       <c r="L65" s="10"/>
     </row>
-    <row r="66" ht="113" customHeight="true" spans="1:9">
+    <row r="66" spans="1:12" ht="113.1" customHeight="1">
       <c r="A66" s="8" t="s">
         <v>350</v>
       </c>
@@ -12664,7 +12850,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="67" ht="113" customHeight="true" spans="1:11">
+    <row r="67" spans="1:12" ht="113.1" customHeight="1">
       <c r="A67" s="8" t="s">
         <v>354</v>
       </c>
@@ -12695,7 +12881,7 @@
       <c r="J67"/>
       <c r="K67" s="9"/>
     </row>
-    <row r="68" ht="113" customHeight="true" spans="1:11">
+    <row r="68" spans="1:12" ht="113.1" customHeight="1">
       <c r="A68" s="8" t="s">
         <v>358</v>
       </c>
@@ -12726,7 +12912,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
     </row>
-    <row r="69" ht="113" customHeight="true" spans="1:11">
+    <row r="69" spans="1:12" ht="113.1" customHeight="1">
       <c r="A69" s="8" t="s">
         <v>363</v>
       </c>
@@ -12761,7 +12947,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="70" ht="113" customHeight="true" spans="1:11">
+    <row r="70" spans="1:12" ht="113.1" customHeight="1">
       <c r="A70" s="8" t="s">
         <v>370</v>
       </c>
@@ -12792,7 +12978,7 @@
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
     </row>
-    <row r="71" ht="113" customHeight="true" spans="1:10">
+    <row r="71" spans="1:12" ht="113.1" customHeight="1">
       <c r="A71" s="8" t="s">
         <v>373</v>
       </c>
@@ -12822,7 +13008,7 @@
       </c>
       <c r="J71"/>
     </row>
-    <row r="72" ht="113" customHeight="true" spans="1:10">
+    <row r="72" spans="1:12" ht="113.1" customHeight="1">
       <c r="A72" s="8" t="s">
         <v>378</v>
       </c>
@@ -12852,7 +13038,7 @@
       </c>
       <c r="J72"/>
     </row>
-    <row r="73" ht="113" customHeight="true" spans="1:10">
+    <row r="73" spans="1:12" ht="113.1" customHeight="1">
       <c r="A73" s="8" t="s">
         <v>383</v>
       </c>
@@ -12882,7 +13068,7 @@
       </c>
       <c r="J73"/>
     </row>
-    <row r="74" ht="113" customHeight="true" spans="1:11">
+    <row r="74" spans="1:12" ht="113.1" customHeight="1">
       <c r="A74" s="8" t="s">
         <v>388</v>
       </c>
@@ -12913,7 +13099,7 @@
       <c r="J74" s="10"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" ht="113" customHeight="true" spans="1:11">
+    <row r="75" spans="1:12" ht="113.1" customHeight="1">
       <c r="A75" s="8" t="s">
         <v>394</v>
       </c>
@@ -12943,7 +13129,7 @@
       </c>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" ht="113" customHeight="true" spans="1:11">
+    <row r="76" spans="1:12" ht="113.1" customHeight="1">
       <c r="A76" s="8" t="s">
         <v>400</v>
       </c>
@@ -12973,7 +13159,7 @@
       </c>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" ht="113" customHeight="true" spans="1:9">
+    <row r="77" spans="1:12" ht="113.1" customHeight="1">
       <c r="A77" s="8" t="s">
         <v>403</v>
       </c>
@@ -13002,7 +13188,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="78" ht="113" customHeight="true" spans="1:9">
+    <row r="78" spans="1:12" ht="113.1" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>407</v>
       </c>
@@ -13031,7 +13217,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="79" ht="113" customHeight="true" spans="1:11">
+    <row r="79" spans="1:12" ht="113.1" customHeight="1">
       <c r="A79" s="8" t="s">
         <v>413</v>
       </c>
@@ -13062,7 +13248,7 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
     </row>
-    <row r="80" ht="113" customHeight="true" spans="1:11">
+    <row r="80" spans="1:12" ht="113.1" customHeight="1">
       <c r="A80" s="8" t="s">
         <v>418</v>
       </c>
@@ -13093,7 +13279,7 @@
       <c r="J80" s="13"/>
       <c r="K80" s="13"/>
     </row>
-    <row r="81" ht="113" customHeight="true" spans="1:11">
+    <row r="81" spans="1:12" ht="113.1" customHeight="1">
       <c r="A81" s="8" t="s">
         <v>422</v>
       </c>
@@ -13122,7 +13308,7 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
     </row>
-    <row r="82" ht="113" customHeight="true" spans="1:11">
+    <row r="82" spans="1:12" ht="113.1" customHeight="1">
       <c r="A82" s="8" t="s">
         <v>426</v>
       </c>
@@ -13153,7 +13339,7 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
     </row>
-    <row r="83" ht="113" customHeight="true" spans="1:11">
+    <row r="83" spans="1:12" ht="113.1" customHeight="1">
       <c r="A83" s="8" t="s">
         <v>432</v>
       </c>
@@ -13184,7 +13370,7 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
     </row>
-    <row r="84" ht="113" customHeight="true" spans="1:11">
+    <row r="84" spans="1:12" ht="113.1" customHeight="1">
       <c r="A84" s="8" t="s">
         <v>438</v>
       </c>
@@ -13217,7 +13403,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" ht="113" customHeight="true" spans="1:10">
+    <row r="85" spans="1:12" ht="113.1" customHeight="1">
       <c r="A85" s="8" t="s">
         <v>443</v>
       </c>
@@ -13247,7 +13433,7 @@
       </c>
       <c r="J85"/>
     </row>
-    <row r="86" ht="113" customHeight="true" spans="1:11">
+    <row r="86" spans="1:12" ht="113.1" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>448</v>
       </c>
@@ -13278,7 +13464,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" ht="113" customHeight="true" spans="1:10">
+    <row r="87" spans="1:12" ht="113.1" customHeight="1">
       <c r="A87" s="8" t="s">
         <v>454</v>
       </c>
@@ -13308,7 +13494,7 @@
       </c>
       <c r="J87"/>
     </row>
-    <row r="88" ht="113" customHeight="true" spans="1:11">
+    <row r="88" spans="1:12" ht="113.1" customHeight="1">
       <c r="A88" s="8" t="s">
         <v>459</v>
       </c>
@@ -13339,7 +13525,7 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
     </row>
-    <row r="89" ht="113" customHeight="true" spans="1:10">
+    <row r="89" spans="1:12" ht="113.1" customHeight="1">
       <c r="A89" s="8" t="s">
         <v>464</v>
       </c>
@@ -13369,7 +13555,7 @@
       </c>
       <c r="J89"/>
     </row>
-    <row r="90" customFormat="true" ht="113" customHeight="true" spans="1:12">
+    <row r="90" spans="1:12" ht="113.1" customHeight="1">
       <c r="A90" s="8" t="s">
         <v>469</v>
       </c>
@@ -13401,7 +13587,7 @@
       <c r="K90" s="9"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" ht="113" customHeight="true" spans="1:12">
+    <row r="91" spans="1:12" ht="113.1" customHeight="1">
       <c r="A91" s="8" t="s">
         <v>474</v>
       </c>
@@ -13433,7 +13619,7 @@
       <c r="K91" s="13"/>
       <c r="L91" s="9"/>
     </row>
-    <row r="92" ht="113" customHeight="true" spans="1:12">
+    <row r="92" spans="1:12" ht="113.1" customHeight="1">
       <c r="A92" s="8" t="s">
         <v>477</v>
       </c>
@@ -13465,7 +13651,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="10"/>
     </row>
-    <row r="93" ht="113" customHeight="true" spans="1:12">
+    <row r="93" spans="1:12" ht="113.1" customHeight="1">
       <c r="A93" s="8" t="s">
         <v>482</v>
       </c>
@@ -13501,7 +13687,7 @@
       </c>
       <c r="L93" s="10"/>
     </row>
-    <row r="94" ht="113" customHeight="true" spans="1:11">
+    <row r="94" spans="1:12" ht="113.1" customHeight="1">
       <c r="A94" s="8" t="s">
         <v>490</v>
       </c>
@@ -13532,7 +13718,7 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
     </row>
-    <row r="95" ht="113" customHeight="true" spans="1:12">
+    <row r="95" spans="1:12" ht="113.1" customHeight="1">
       <c r="A95" s="8" t="s">
         <v>495</v>
       </c>
@@ -13564,7 +13750,7 @@
       <c r="K95" s="12"/>
       <c r="L95" s="10"/>
     </row>
-    <row r="96" ht="113" customHeight="true" spans="1:12">
+    <row r="96" spans="1:12" ht="113.1" customHeight="1">
       <c r="A96" s="8" t="s">
         <v>500</v>
       </c>
@@ -13596,7 +13782,7 @@
       <c r="K96" s="12"/>
       <c r="L96" s="9"/>
     </row>
-    <row r="97" ht="113" customHeight="true" spans="1:12">
+    <row r="97" spans="1:12" ht="113.1" customHeight="1">
       <c r="A97" s="8" t="s">
         <v>504</v>
       </c>
@@ -13628,7 +13814,7 @@
       <c r="K97" s="9"/>
       <c r="L97" s="10"/>
     </row>
-    <row r="98" ht="113" customHeight="true" spans="1:12">
+    <row r="98" spans="1:12" ht="113.1" customHeight="1">
       <c r="A98" s="8" t="s">
         <v>508</v>
       </c>
@@ -13660,7 +13846,7 @@
       <c r="K98" s="13"/>
       <c r="L98" s="10"/>
     </row>
-    <row r="99" ht="113" customHeight="true" spans="1:12">
+    <row r="99" spans="1:12" ht="113.1" customHeight="1">
       <c r="A99" s="8" t="s">
         <v>514</v>
       </c>
@@ -13692,7 +13878,7 @@
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
     </row>
-    <row r="100" ht="113" customHeight="true" spans="1:12">
+    <row r="100" spans="1:12" ht="113.1" customHeight="1">
       <c r="A100" s="8" t="s">
         <v>519</v>
       </c>
@@ -13724,7 +13910,7 @@
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
     </row>
-    <row r="101" ht="113" customHeight="true" spans="1:12">
+    <row r="101" spans="1:12" ht="113.1" customHeight="1">
       <c r="A101" s="8" t="s">
         <v>524</v>
       </c>
@@ -13756,7 +13942,7 @@
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
     </row>
-    <row r="102" ht="113" customHeight="true" spans="1:12">
+    <row r="102" spans="1:12" ht="113.1" customHeight="1">
       <c r="A102" s="8" t="s">
         <v>529</v>
       </c>
@@ -13788,7 +13974,7 @@
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
     </row>
-    <row r="103" ht="113" customHeight="true" spans="1:11">
+    <row r="103" spans="1:12" ht="113.1" customHeight="1">
       <c r="A103" s="8" t="s">
         <v>534</v>
       </c>
@@ -13823,7 +14009,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="104" ht="113" customHeight="true" spans="1:11">
+    <row r="104" spans="1:12" ht="113.1" customHeight="1">
       <c r="A104" s="8" t="s">
         <v>540</v>
       </c>
@@ -13854,7 +14040,7 @@
       <c r="J104" s="10"/>
       <c r="K104" s="10"/>
     </row>
-    <row r="105" ht="113" customHeight="true" spans="1:11">
+    <row r="105" spans="1:12" ht="113.1" customHeight="1">
       <c r="A105" s="8" t="s">
         <v>544</v>
       </c>
@@ -13889,7 +14075,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="106" ht="113" customHeight="true" spans="1:9">
+    <row r="106" spans="1:12" ht="113.1" customHeight="1">
       <c r="A106" s="8" t="s">
         <v>551</v>
       </c>
@@ -13916,7 +14102,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="107" ht="113" customHeight="true" spans="1:11">
+    <row r="107" spans="1:12" ht="113.1" customHeight="1">
       <c r="A107" s="8" t="s">
         <v>555</v>
       </c>
@@ -13947,7 +14133,7 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
     </row>
-    <row r="108" ht="113" customHeight="true" spans="1:10">
+    <row r="108" spans="1:12" ht="113.1" customHeight="1">
       <c r="A108" s="8" t="s">
         <v>559</v>
       </c>
@@ -13977,7 +14163,7 @@
       </c>
       <c r="J108"/>
     </row>
-    <row r="109" ht="113" customHeight="true" spans="1:9">
+    <row r="109" spans="1:12" ht="113.1" customHeight="1">
       <c r="A109" s="8" t="s">
         <v>563</v>
       </c>
@@ -14006,7 +14192,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="110" ht="113" customHeight="true" spans="1:11">
+    <row r="110" spans="1:12" ht="113.1" customHeight="1">
       <c r="A110" s="8" t="s">
         <v>566</v>
       </c>
@@ -14037,7 +14223,7 @@
       <c r="J110" s="10"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" ht="113" customHeight="true" spans="1:11">
+    <row r="111" spans="1:12" ht="113.1" customHeight="1">
       <c r="A111" s="8" t="s">
         <v>570</v>
       </c>
@@ -14072,7 +14258,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="112" ht="113" customHeight="true" spans="1:11">
+    <row r="112" spans="1:12" ht="113.1" customHeight="1">
       <c r="A112" s="8" t="s">
         <v>577</v>
       </c>
@@ -14107,7 +14293,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="113" ht="113" customHeight="true" spans="1:9">
+    <row r="113" spans="1:12" ht="113.1" customHeight="1">
       <c r="A113" s="8" t="s">
         <v>584</v>
       </c>
@@ -14136,7 +14322,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="114" ht="113" customHeight="true" spans="1:11">
+    <row r="114" spans="1:12" ht="113.1" customHeight="1">
       <c r="A114" s="8" t="s">
         <v>590</v>
       </c>
@@ -14171,7 +14357,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="115" ht="113" customHeight="true" spans="1:11">
+    <row r="115" spans="1:12" ht="113.1" customHeight="1">
       <c r="A115" s="8" t="s">
         <v>596</v>
       </c>
@@ -14202,7 +14388,7 @@
       <c r="J115" s="10"/>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" ht="113" customHeight="true" spans="1:11">
+    <row r="116" spans="1:12" ht="113.1" customHeight="1">
       <c r="A116" s="8" t="s">
         <v>600</v>
       </c>
@@ -14235,7 +14421,7 @@
       </c>
       <c r="K116" s="6"/>
     </row>
-    <row r="117" ht="113" customHeight="true" spans="1:9">
+    <row r="117" spans="1:12" ht="113.1" customHeight="1">
       <c r="A117" s="8" t="s">
         <v>605</v>
       </c>
@@ -14264,7 +14450,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="118" ht="113" customHeight="true" spans="1:9">
+    <row r="118" spans="1:12" ht="113.1" customHeight="1">
       <c r="A118" s="8" t="s">
         <v>610</v>
       </c>
@@ -14293,7 +14479,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="119" ht="113" customHeight="true" spans="1:9">
+    <row r="119" spans="1:12" ht="113.1" customHeight="1">
       <c r="A119" s="8" t="s">
         <v>616</v>
       </c>
@@ -14322,7 +14508,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="120" ht="113" customHeight="true" spans="1:9">
+    <row r="120" spans="1:12" ht="113.1" customHeight="1">
       <c r="A120" s="8" t="s">
         <v>621</v>
       </c>
@@ -14351,7 +14537,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="121" ht="113" customHeight="true" spans="1:10">
+    <row r="121" spans="1:12" ht="113.1" customHeight="1">
       <c r="A121" s="8" t="s">
         <v>626</v>
       </c>
@@ -14383,7 +14569,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="122" ht="113" customHeight="true" spans="1:9">
+    <row r="122" spans="1:12" ht="113.1" customHeight="1">
       <c r="A122" s="8" t="s">
         <v>632</v>
       </c>
@@ -14412,7 +14598,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="123" ht="113" customHeight="true" spans="1:11">
+    <row r="123" spans="1:12" ht="113.1" customHeight="1">
       <c r="A123" s="8" t="s">
         <v>636</v>
       </c>
@@ -14443,7 +14629,7 @@
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
     </row>
-    <row r="124" ht="113" customHeight="true" spans="1:9">
+    <row r="124" spans="1:12" ht="113.1" customHeight="1">
       <c r="A124" s="8" t="s">
         <v>640</v>
       </c>
@@ -14472,7 +14658,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="125" ht="113" customHeight="true" spans="1:11">
+    <row r="125" spans="1:12" ht="113.1" customHeight="1">
       <c r="A125" s="8" t="s">
         <v>645</v>
       </c>
@@ -14503,7 +14689,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="9"/>
     </row>
-    <row r="126" ht="113" customHeight="true" spans="1:11">
+    <row r="126" spans="1:12" ht="113.1" customHeight="1">
       <c r="A126" s="8" t="s">
         <v>651</v>
       </c>
@@ -14531,10 +14717,9 @@
       <c r="I126" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="J126" s="6"/>
       <c r="K126" s="9"/>
     </row>
-    <row r="127" customFormat="true" ht="113" customHeight="true" spans="1:12">
+    <row r="127" spans="1:12" ht="113.1" customHeight="1">
       <c r="A127" s="8" t="s">
         <v>655</v>
       </c>
@@ -14566,7 +14751,7 @@
       <c r="K127" s="9"/>
       <c r="L127" s="10"/>
     </row>
-    <row r="128" customFormat="true" ht="113" customHeight="true" spans="1:12">
+    <row r="128" spans="1:12" ht="113.1" customHeight="1">
       <c r="A128" s="8" t="s">
         <v>660</v>
       </c>
@@ -14598,7 +14783,7 @@
       <c r="K128" s="9"/>
       <c r="L128" s="13"/>
     </row>
-    <row r="129" customFormat="true" ht="113" customHeight="true" spans="1:12">
+    <row r="129" spans="1:12" ht="113.1" customHeight="1">
       <c r="A129" s="8" t="s">
         <v>665</v>
       </c>
@@ -14634,7 +14819,7 @@
       </c>
       <c r="L129" s="13"/>
     </row>
-    <row r="130" customFormat="true" ht="113" customHeight="true" spans="1:12">
+    <row r="130" spans="1:12" ht="113.1" customHeight="1">
       <c r="A130" s="8" t="s">
         <v>672</v>
       </c>
@@ -14666,7 +14851,7 @@
       <c r="K130" s="9"/>
       <c r="L130" s="13"/>
     </row>
-    <row r="131" customFormat="true" ht="113" customHeight="true" spans="1:12">
+    <row r="131" spans="1:12" ht="113.1" customHeight="1">
       <c r="A131" s="8" t="s">
         <v>674</v>
       </c>
@@ -14698,7 +14883,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="13"/>
     </row>
-    <row r="132" customFormat="true" ht="113" customHeight="true" spans="1:12">
+    <row r="132" spans="1:12" ht="113.1" customHeight="1">
       <c r="A132" s="8" t="s">
         <v>679</v>
       </c>
@@ -14730,7 +14915,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="13"/>
     </row>
-    <row r="133" customFormat="true" ht="113" customHeight="true" spans="1:12">
+    <row r="133" spans="1:12" ht="113.1" customHeight="1">
       <c r="A133" s="8" t="s">
         <v>684</v>
       </c>
@@ -14762,7 +14947,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="13"/>
     </row>
-    <row r="134" customFormat="true" ht="113" customHeight="true" spans="1:12">
+    <row r="134" spans="1:12" ht="113.1" customHeight="1">
       <c r="A134" s="8" t="s">
         <v>689</v>
       </c>
@@ -14794,7 +14979,7 @@
       <c r="K134" s="9"/>
       <c r="L134" s="13"/>
     </row>
-    <row r="135" customFormat="true" ht="113" customHeight="true" spans="1:12">
+    <row r="135" spans="1:12" ht="113.1" customHeight="1">
       <c r="A135" s="8" t="s">
         <v>694</v>
       </c>
@@ -14826,7 +15011,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="13"/>
     </row>
-    <row r="136" customFormat="true" ht="113" customHeight="true" spans="1:12">
+    <row r="136" spans="1:12" ht="113.1" customHeight="1">
       <c r="A136" s="8" t="s">
         <v>699</v>
       </c>
@@ -14858,7 +15043,7 @@
       <c r="K136" s="9"/>
       <c r="L136" s="13"/>
     </row>
-    <row r="137" customFormat="true" ht="113" customHeight="true" spans="1:12">
+    <row r="137" spans="1:12" ht="113.1" customHeight="1">
       <c r="A137" s="8" t="s">
         <v>704</v>
       </c>
@@ -14890,7 +15075,7 @@
       <c r="K137" s="9"/>
       <c r="L137" s="13"/>
     </row>
-    <row r="138" customFormat="true" ht="113" customHeight="true" spans="1:12">
+    <row r="138" spans="1:12" ht="113.1" customHeight="1">
       <c r="A138" s="8" t="s">
         <v>709</v>
       </c>
@@ -14922,7 +15107,7 @@
       <c r="K138" s="9"/>
       <c r="L138" s="13"/>
     </row>
-    <row r="139" customFormat="true" ht="113" customHeight="true" spans="1:12">
+    <row r="139" spans="1:12" ht="113.1" customHeight="1">
       <c r="A139" s="8" t="s">
         <v>715</v>
       </c>
@@ -14954,7 +15139,7 @@
       <c r="K139" s="9"/>
       <c r="L139" s="13"/>
     </row>
-    <row r="140" customFormat="true" ht="113" customHeight="true" spans="1:12">
+    <row r="140" spans="1:12" ht="113.1" customHeight="1">
       <c r="A140" s="8" t="s">
         <v>718</v>
       </c>
@@ -14990,7 +15175,7 @@
       </c>
       <c r="L140" s="13"/>
     </row>
-    <row r="141" customFormat="true" ht="113" customHeight="true" spans="1:12">
+    <row r="141" spans="1:12" ht="113.1" customHeight="1">
       <c r="A141" s="8" t="s">
         <v>724</v>
       </c>
@@ -15022,7 +15207,7 @@
       <c r="K141" s="9"/>
       <c r="L141" s="13"/>
     </row>
-    <row r="142" ht="113" customHeight="true" spans="1:10">
+    <row r="142" spans="1:12" ht="113.1" customHeight="1">
       <c r="A142" s="8" t="s">
         <v>730</v>
       </c>
@@ -15052,61 +15237,394 @@
       </c>
       <c r="J142"/>
     </row>
+    <row r="143" spans="1:12" ht="113.1" customHeight="1">
+      <c r="A143" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="C143" s="8">
+        <v>2022</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="J143"/>
+    </row>
+    <row r="144" spans="1:12" s="8" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A144" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="B144" s="18" t="s">
+        <v>751</v>
+      </c>
+      <c r="C144" s="8">
+        <v>2021</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F144" s="20" t="s">
+        <v>748</v>
+      </c>
+      <c r="G144" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="H144" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="I144" s="8" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" s="18" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A145" s="18" t="s">
+        <v>752</v>
+      </c>
+      <c r="B145" s="18" t="s">
+        <v>753</v>
+      </c>
+      <c r="C145" s="18">
+        <v>2022</v>
+      </c>
+      <c r="F145" s="19" t="s">
+        <v>755</v>
+      </c>
+      <c r="I145" s="16" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A146" s="18" t="s">
+        <v>757</v>
+      </c>
+      <c r="B146" s="18" t="s">
+        <v>756</v>
+      </c>
+      <c r="C146" s="18">
+        <v>2021</v>
+      </c>
+      <c r="D146" s="18"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="15" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+    </row>
+    <row r="148" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+    </row>
+    <row r="149" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
+    </row>
+    <row r="150" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="8"/>
+    </row>
+    <row r="151" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+    </row>
+    <row r="152" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+    </row>
+    <row r="153" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
+    </row>
+    <row r="154" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="8"/>
+    </row>
+    <row r="155" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+    </row>
+    <row r="156" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="8"/>
+    </row>
+    <row r="157" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
+    </row>
+    <row r="158" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
+    </row>
+    <row r="159" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="8"/>
+    </row>
+    <row r="160" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
+    </row>
+    <row r="161" spans="1:10" s="4" customFormat="1">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="17"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="6"/>
+    </row>
+    <row r="162" spans="1:10" s="4" customFormat="1">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="17"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="6"/>
+    </row>
+    <row r="163" spans="1:10" s="4" customFormat="1">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="6"/>
+    </row>
+    <row r="164" spans="1:10" s="4" customFormat="1">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="6"/>
+    </row>
+    <row r="165" spans="1:10" s="4" customFormat="1">
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="6"/>
+    </row>
+    <row r="166" spans="1:10" s="4" customFormat="1">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="17"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="6"/>
+    </row>
+    <row r="167" spans="1:10" s="4" customFormat="1">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="17"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="6"/>
+    </row>
+    <row r="168" spans="1:10" s="4" customFormat="1">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="F168" s="17"/>
+      <c r="G168" s="17"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+      <c r="J168" s="6"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:K142">
-    <sortCondition ref="C2:C142" descending="true"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K142">
+    <sortCondition descending="1" ref="C2:C142"/>
     <sortCondition ref="A2:A142"/>
   </sortState>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J121" r:id="rId1" display="http://sailhome.cs.queensu.ca/replication/sthomas/TSE2013" tooltip="http://sailhome.cs.queensu.ca/replication/sthomas/TSE2013"/>
-    <hyperlink ref="J129" r:id="rId2" display="http://code.google.com/p/bugcenter"/>
-    <hyperlink ref="J105" r:id="rId3" display="http://dx.doi.org/10.6084/m9.figshare.951967"/>
-    <hyperlink ref="J114" r:id="rId4" display="http://www.cs.wm.edu/semeru/data/benchmarks/"/>
-    <hyperlink ref="J4" r:id="rId5" display="https://github.com/muvvasandeep/BuGL"/>
-    <hyperlink ref="J93" r:id="rId6" display="https://bitbucket.org/amlfse/amldata/downloads/amldata.7z" tooltip="https://bitbucket.org/amlfse/amldata/downloads/amldata.7z"/>
-    <hyperlink ref="J3" r:id="rId7" display="https://engineering.purdue.edu/RVL/Bugzbook/"/>
-    <hyperlink ref="J112" r:id="rId8" display="https://engineering.purdue.edu/RVL/Database/BUGLinks/"/>
-    <hyperlink ref="J111" r:id="rId9" display="https://engineering.purdue.edu/RVL/Database/moreBugs/"/>
-    <hyperlink ref="J42" r:id="rId10" display="https://github.com/exatoa/Bench4BL"/>
-    <hyperlink ref="J36" r:id="rId11" display="https://github.com/masud99r/IR-in-SE"/>
-    <hyperlink ref="J103" r:id="rId12" display="https://github.com/rjust/defects4j"/>
-    <hyperlink ref="J65" r:id="rId13" display="https://github.com/yanxiao6/BugLocalization-dataset"/>
-    <hyperlink ref="J69" r:id="rId14" display="https://goo.gl/3qCwfw"/>
-    <hyperlink ref="J84" r:id="rId15" display="https://mgarnier.github.io/bug_localization/"/>
-    <hyperlink ref="J140" r:id="rId16" display="https://www.st.cs.uni-saarland.de//ibugs/"/>
+    <hyperlink ref="J121" r:id="rId1" tooltip="http://sailhome.cs.queensu.ca/replication/sthomas/TSE2013" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J129" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J105" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J114" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J93" r:id="rId6" tooltip="https://bitbucket.org/amlfse/amldata/downloads/amldata.7z" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J112" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J111" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J42" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J36" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J103" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J65" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J69" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J84" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J140" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F144" r:id="rId17" xr:uid="{A85ED5DA-6221-414B-A462-2685C3B906C6}"/>
+    <hyperlink ref="F145" r:id="rId18" display="https://dl.acm.org/doi/10.1145/128765.128770" xr:uid="{B8C1E87C-DF03-4078-9352-32227C360C62}"/>
+    <hyperlink ref="F146" r:id="rId19" display="https://dl.acm.org/doi/10.1145/3453933.3454021" xr:uid="{6CC18420-388E-4A79-AB6E-559A833DDB30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K56"/>
   <sheetViews>
     <sheetView topLeftCell="C58" workbookViewId="0">
       <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="true"/>
-    <col min="2" max="2" width="14.5" customWidth="true"/>
-    <col min="3" max="3" width="15" customWidth="true"/>
-    <col min="4" max="4" width="24.7533333333333" customWidth="true"/>
-    <col min="5" max="5" width="31.2533333333333" customWidth="true"/>
-    <col min="6" max="6" width="20.1266666666667" customWidth="true"/>
-    <col min="7" max="7" width="5.25333333333333" customWidth="true"/>
-    <col min="8" max="8" width="15" customWidth="true"/>
-    <col min="9" max="9" width="24.7533333333333" customWidth="true"/>
-    <col min="10" max="10" width="31.2533333333333" customWidth="true"/>
-    <col min="11" max="11" width="20.1266666666667" customWidth="true"/>
-    <col min="12" max="12" width="5.5" customWidth="true"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="24.75" customWidth="1"/>
+    <col min="5" max="5" width="31.25" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
+    <col min="7" max="7" width="5.25" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="24.75" customWidth="1"/>
+    <col min="10" max="10" width="31.25" customWidth="1"/>
+    <col min="11" max="11" width="20.125" customWidth="1"/>
+    <col min="12" max="12" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
         <v>733</v>
       </c>
@@ -15126,7 +15644,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>739</v>
       </c>
@@ -15393,7 +15911,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="42" spans="5:11">
+    <row r="42" spans="4:11">
       <c r="E42" s="1" t="s">
         <v>735</v>
       </c>
@@ -15709,9 +16227,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/library.xlsx
+++ b/library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\buglocalization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBA0677-4C80-4933-9AA6-6C9E3A4FD371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D45698-7A8D-4672-A38E-EA2E95F7AF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13875" yWindow="-11865" windowWidth="24000" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15390" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="760">
   <si>
     <t>title</t>
   </si>
@@ -2930,7 +2930,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2955,6 +2955,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2962,6 +2963,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2999,15 +3001,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3033,7 +3026,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3069,7 +3062,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3079,11 +3071,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10797,7 +10784,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G146" sqref="G146"/>
+      <selection pane="bottomLeft" activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15241,13 +15228,15 @@
       <c r="A143" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="B143" s="18" t="s">
+      <c r="B143" s="17" t="s">
         <v>745</v>
       </c>
       <c r="C143" s="8">
         <v>2022</v>
       </c>
-      <c r="D143" s="8"/>
+      <c r="D143" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="E143" s="8"/>
       <c r="F143" s="8" t="s">
         <v>743</v>
@@ -15263,7 +15252,7 @@
       <c r="A144" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="B144" s="18" t="s">
+      <c r="B144" s="17" t="s">
         <v>751</v>
       </c>
       <c r="C144" s="8">
@@ -15275,10 +15264,10 @@
       <c r="E144" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F144" s="20" t="s">
+      <c r="F144" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="G144" s="18" t="s">
+      <c r="G144" s="17" t="s">
         <v>749</v>
       </c>
       <c r="H144" s="8" t="s">
@@ -15288,41 +15277,46 @@
         <v>750</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="18" customFormat="1" ht="113.1" customHeight="1">
-      <c r="A145" s="18" t="s">
+    <row r="145" spans="1:9" s="17" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A145" s="17" t="s">
         <v>752</v>
       </c>
-      <c r="B145" s="18" t="s">
+      <c r="B145" s="17" t="s">
         <v>753</v>
       </c>
-      <c r="C145" s="18">
+      <c r="C145" s="17">
         <v>2022</v>
       </c>
-      <c r="F145" s="19" t="s">
+      <c r="D145" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F145" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="I145" s="16" t="s">
+      <c r="I145" s="15" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
-      <c r="A146" s="18" t="s">
+      <c r="A146" s="17" t="s">
         <v>757</v>
       </c>
-      <c r="B146" s="18" t="s">
+      <c r="B146" s="17" t="s">
         <v>756</v>
       </c>
-      <c r="C146" s="18">
+      <c r="C146" s="17">
         <v>2021</v>
       </c>
-      <c r="D146" s="18"/>
+      <c r="D146" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="E146" s="8"/>
-      <c r="F146" s="21" t="s">
+      <c r="F146" s="8" t="s">
         <v>758</v>
       </c>
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
-      <c r="I146" s="15" t="s">
+      <c r="I146" s="8" t="s">
         <v>759</v>
       </c>
     </row>
@@ -15485,8 +15479,8 @@
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
-      <c r="F161" s="17"/>
-      <c r="G161" s="17"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="16"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="6"/>
@@ -15496,8 +15490,8 @@
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
-      <c r="F162" s="17"/>
-      <c r="G162" s="17"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="16"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="6"/>
@@ -15507,8 +15501,8 @@
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
-      <c r="F163" s="17"/>
-      <c r="G163" s="17"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="16"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="6"/>
@@ -15518,8 +15512,8 @@
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
-      <c r="F164" s="17"/>
-      <c r="G164" s="17"/>
+      <c r="F164" s="16"/>
+      <c r="G164" s="16"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="6"/>
@@ -15529,8 +15523,8 @@
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
-      <c r="F165" s="17"/>
-      <c r="G165" s="17"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="16"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="6"/>
@@ -15540,8 +15534,8 @@
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
-      <c r="F166" s="17"/>
-      <c r="G166" s="17"/>
+      <c r="F166" s="16"/>
+      <c r="G166" s="16"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="6"/>
@@ -15551,8 +15545,8 @@
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
-      <c r="F167" s="17"/>
-      <c r="G167" s="17"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="16"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="6"/>
@@ -15562,8 +15556,8 @@
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
-      <c r="F168" s="17"/>
-      <c r="G168" s="17"/>
+      <c r="F168" s="16"/>
+      <c r="G168" s="16"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="6"/>

--- a/library.xlsx
+++ b/library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\buglocalization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D45698-7A8D-4672-A38E-EA2E95F7AF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439147B9-D410-4591-99A4-002D0D002F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15390" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20565" yWindow="-13245" windowWidth="24000" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="849">
   <si>
     <t>title</t>
   </si>
@@ -2840,97 +2840,502 @@
     <t>总文献数</t>
   </si>
   <si>
-    <t>A Preliminary Investigation on the Performance of SBFL Techniques and Distance Metrics in Parallel Fault Localization</t>
-  </si>
-  <si>
-    <t>https://ieeexplore.ieee.org/document/9761975</t>
-  </si>
-  <si>
-    <t>abstract—To locate multiple bugs in parallel, one common prac_x0002_tice is to generate fault-focused clusters where failed test cases that are likely caused by the same bug are grouped together. With respect to the fault-focused clustering and fault localization, Spectrum-based fault localization (SBFL) technique and distance metric are two critical impact factors. This article proposes a method to evaluate the parallel fault localization performance of SBFL techniques and distance metrics where the fault-focused information for each failed test case is already given. Case studies are conducted using the proposed method to evaluate five SBFL techniques and five distance metrics on three programs with mul_x0002_tiple bugs. Index Terms—Distance metric, fault-focused clustering, multiple bug, parallel fault localization, spectrum-based fault localization (SBFL).</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yihao, Li 
-Pan, Liu</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>JSS</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>An extensive study on smell-aware bug localization</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.jss.2021.110986</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>B类期刊</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Bug localization is an important aspect of software maintenance because it can locate modules that should be changed to fix a specific bug. Our previous study showed that the accuracy of the information retrieval (IR)-based bug localization technique improved when used in combination with code smell information. Although this technique showed promise, the study showed limited usefulness because of the small number of: (1) projects in the dataset, (2) types of smell information, and (3) baseline bug localization techniques used for assessment. This paper presents an extension of our previous experiments on Bench4BL, the largest bug localization benchmark dataset available for bug localization. In addition, we generalized the smell-aware bug localization technique to allow different configurations of smell information, which were combined with various bug localization techniques. Our results confirmed that our technique can improve the performance of IR-based bug localization techniques for the class level even when large datasets are processed. Furthermore, because of the optimized configuration of the smell information, our technique can enhance the performance of most state-of-the-art bug localization techniques.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Aoi, Takahashi
- Natthawute, Sae-Lim
-Shinpei, Hayashi 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Motoshi, Saeki</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Aries: A Semi-formal Technique for Fine-grained Bug Localization in Hardware Designs</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Binod, Kumar
-Vineesh, V S
-Puneet, Nemade
-Masahiro, Fujita</t>
+    <t>Zhu, Ziye
+Li, Yun
+Wang, Yu
+Wang, Yaojing
+Tong, Hanghang</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Abstract—Effective bug localization during verification is a challenging step in the development cycle of complex hardware designs. While meeting different coverage goals is possible in the verification process, yet bug localization can not be directly related to such goals. We propose a two-step methodology to achieve fine-grained design bug localization. First, we obtain multiple error traces based on a failing property. Starting from an initial error trace, we employ model checking to generate supportive error traces that are utilized to mine important assertions. In the second step, we utilize these assertions for fine_x0002_grained design bug localization. The mapping of the assertions leads to specific regions in RTL descriptions that are highly probable to be the root cause of the design bug. Specifically, we devise a binning methodology to categorize multiple suspects in different bins that need to be investigated by the design engineer for arriving at the correction for corresponding bugs. Experiments on multiple designs illustrate the efficacy of the proposed methodology in comparison to previous work and state_x0002_of-the-art industrial tool.</t>
-  </si>
-  <si>
-    <t>ARIES: a transaction recovery method supporting fine-granularity locking and partial rollbacks using write-ahead logging: ACM Transactions on Database Systems: Vol 17, No 1</t>
-  </si>
-  <si>
-    <t>HeuiChan, Lim
-Saumya, Debray</t>
+    <t>Data Mining and Knowledge Discovery</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Automated Bug Localization in JIT Compilers</t>
+    <t>Bug localization utilizes the collected bug reports to locate the buggy source files. The state of the art falls short in handling the following three aspects, including (L1) the subtle difference between natural language and programming language, (L2) the noise in the bug reports and (L3) the multi-grained nature of programming language. To overcome these limitations, we propose a novel deep multimodal model named DeMoB for bug localization. It embraces three key features, each of which is tailored to address each of the three limitations. To be specific, the proposed DeMoB generates the multimodal coordinated representations for both bug reports and source files for addressing L1. It further incorporates the AttL encoder to process bug reports for addressing L2, and the MDCL encoder to process source files for addressing L3. Extensive experiments on four large-scale real-world data sets demonstrate that the proposed DeMoB significantly outperforms existing techniques.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Automated bug localization in JIT compilers | Proceedings of the 17th ACM SIGPLAN/SIGOPS International Conference on Virtual Execution Environments</t>
+    <t>A deep multimodal model for bug localization</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Many widely-deployed modern programming systems use just-in-time (JIT) compilers to improve performance. The size and complexity of JIT-based systems, combined with the dynamic nature of JIT-compiler optimizations, make it challenging to locate and fix JIT compiler bugs quickly. At the same time, JIT compiler bugs can result in exploitable security vulnerabilities, making rapid bug localization impor_x0002_tant. Existing work on automated bug localization focuses on static code, i.e., code that is not generated at runtime, and so cannot handle bugs in JIT compilers that generate incorrect code during optimization. This paper describes an approach to automated bug localization in JIT compilers, down to the level of distinct optimization phases, starting with a single initial Proof-of-Concept (PoC) input that demonstrates the bug. Experiments using a prototype implementation of our ideas on Google’s V8 JavaScript interpreter and TurboFan JIT compiler demonstrates that it can successfully identify buggy optimization phases.</t>
+    <t>A Preliminary Investigation on the Performance of SBFL Techniques and Distance Metrics in Parallel Fault Localization</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li, Yihao</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empirical study</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9761975</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>An empirical study of the effectiveness of IR-based bug localization for large-scale industrial projects</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li, Wei
+Li, Qingan
+Ming, Yunlong
+Dai, Weijiao
+Ying, Shi
+Yuan, Mengting</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESE</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE TRANSACTIONS ON RELIABILITY 1
+A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug localization, which refers to finding buggy files for a given bug report, is tedious and time-consuming for practical projects with tens of millions of lines of code. Recently, many information retrieval (IR)-based bug localization (IRBL) approaches have been proposed to formulate this problem as a search problem. Despite the excellent performance claimed in the literature, there is hardly any approach adopted in the industrial community to the best of our knowledge. The challenge of adapting IRBL to industrial projects is that the projects have different characteristics compared to open-source projects used in the literatures, which have not been taken into consideration in previous studies. In this paper, we re-implement six state-of-the-art IRBL techniques and evaluate their effectiveness on 10 Huawei projects consisting of 161,967 source code files and 24,437 bug reports in total. Localizing bugs in these projects faces several challenges, including the software product line, the bilingual issue, and the quality of bug reports, etc. We conduct comprehensive experiments to reveal how these factors affect IRBL effectiveness, and modify the data set to test whether some factors could be overcome, if additional information or hints are given. Based on the insights found in our work, we suggest potential improvements on IRBL techniques. This study is also expected to provide empirical evidences for other software tasks which face the same fundamental challenges.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abstract—To locate multiple bugs in parallel, one common prac-
+tice is to generate fault-focused clusters where failed test cases that are likely caused by the same bug are grouped together. With respect to the fault-focused clustering and fault localization, Spectrum-based fault localization (SBFL) technique and distance metric are two critical impact factors. This article proposes a method to evaluate the parallel fault localization performance of SBFL techniques and distance metrics where the fault-focused information for each failed test case is already given. Case studies are conducted using the proposed method to evaluate five SBFL techniques and five distance metrics on three programs with mul- tiple bugs.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>An extensive study on smell-aware bug localization</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Takahashi, Aoi
+Sae-Lim, Natthawute
+Hayashi, Shinpei
+Saeki, Motoshi</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR-based bug localization</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jss.2021.110986</t>
+  </si>
+  <si>
+    <t>Are datasets for information retrieval-based bug localization techniques trustworthy?: Impact analysis of bug types on IRBL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kim, Misoo
+Lee, Eunseok</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Various evaluation datasets are used to evaluate the performance of information retrieval-based bug localization (IRBL) techniques. To accurately evaluate the IRBL and furthermore improve the performance, it is strongly required to analyze the validity of these datasets in advance. To this end, we surveyed 50 previous studies, collected 41,754 bug reports, and found out critical problems that affect the validity of results of performance evaluation. They are in both the ground truth and the search space. These problems arise from using different bug types without clearly distinguishing them. We divided the bugs into production- and test-related bugs. Based on this distinction, we investigate and analyze the impact of the bug type on IRBL performance evaluation. Approximately 18.6% of the bug reports were linked to non-buggy files as the ground truth. Up to 58.5% of the source files in the search space introduced noise into the localization of a specific bug type. From the experiments, we validated that the average precision changed in approximately 90% of the bug reports linked with an incorrect ground truth; we determined that specifying a suitable search space changed the average precision in at least half of the bug reports. Further, we showed that these problems can alter the relative ranks of the IRBL techniques. Our large-scale analysis demonstrated that a significant amount of noise occurs, which can compromise the evaluation results. An important finding of this study is that it is essential to consider the bug types to improve the accuracy of the performance evaluation.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kumar, Binod
+S, Vineesh V
+Nemade, Puneet
+Fujita, Masahiro</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE Transactions on Computer-Aided Design of Integrated Circuits and Systems</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abstract—Effective bug localization during verification is a challenging step in the development cycle of complex hardware designs. While meeting different coverage goals is possible in the verification process, yet bug localization can not be directly related to such goals. We propose a two-step methodology to achieve fine-grained design bug localization. First, we obtain multiple error traces based on a failing property. Starting from an initial error trace, we employ model checking to generate supportive error traces that are utilized to mine important assertions. In the second step, we utilize these assertions for fine- grained design bug localization. The mapping of the assertions leads to specific regions in RTL descriptions that are highly probable to be the root cause of the design bug. Specifically, we devise a binning methodology to categorize multiple suspects in different bins that need to be investigated by the design engineer for arriving at the correction for corresponding bugs. Experiments on multiple designs illustrate the efficacy of the proposed methodology in comparison to previous work and state- of-the-art industrial tool.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automated bug localization in JIT compilers</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lim, Heui Chan
+Debray, Saumya</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGPLAN/SIGOPS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Many widely-deployed modern programming systems use just-in-Time (JIT) compilers to improve performance. The size and complexity of JIT-based systems, combined with the dynamic nature of JIT-compiler optimizations, make it challenging to locate and fix JIT compiler bugs quickly. At the same time, JIT compiler bugs can result in exploitable security vulnerabilities, making rapid bug localization important. Existing work on automated bug localization focuses on static code, i.e., code that is not generated at runtime, and so cannot handle bugs in JIT compilers that generate incorrect code during optimization. This paper describes an approach to automated bug localization in JIT compilers, down to the level of distinct optimization phases, starting with a single initial Proof-of-Concept (PoC) input that demonstrates the bug. Experiments using a prototype implementation of our ideas on Google's V8 JavaScript interpreter and TurboFan JIT compiler demonstrates that it can successfully identify buggy optimization phases.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLESER: Bug Localization Based on Enhanced Semantic Retrieval</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zou, Weiqin
+Li, Enming
+Fang, Chunrong</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning-based bug localization</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arxiv.org/abs/2109.03555</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>arXiv</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Static bug localization techniques that locate bugs at method granularity have gained much attention from both researchers and practitioners. For a static method-level bug localization technique, a key but challenging step is to fully retrieve the semantics of methods and bug reports. Currently, existing studies mainly use the same bag-of-word space to represent the semantics of methods and bug reports without considering structure information of methods and textual contexts of bug reports, which largely and negatively affects bug localization performance. To address this problem, we develop BLESER, a new bug localization technique based on enhanced semantic retrieval. Specifically, we use an AST-based code embedding model (capturing code structure better) to retrieve the semantics of methods, and word embedding models (capturing textual contexts better) to represent the semantics of bug reports. Then, a deep learning model is built on the enhanced semantic representations. During model building, we compare five typical word embedding models in representing bug reports and try to explore the usefulness of re-sampling strategies and cost-sensitive strategies in handling class imbalance problems. We evaluate our BLESER on five Java projects from the Defects4J dataset. We find that: (1) On the whole, the word embedding model ELMo outperformed the other four models (including word2vec, BERT, etc.) in facilitating bug localization techniques. (2) Among four strategies aiming at solving class imbalance problems, the strategy ROS (random over-sampling) performed much better than the other three strategies (including random under-sampling, Focal Loss, etc.). (3) By integrating ELMo and ROS into BLESER, at method-level bug localization, we could achieve MAP of 0.108-0.504, MRR of 0.134-0.510, and Accuracy@1 of 0.125-0.5 on five Defects4J projects.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoostNSift: A Query Boosting and Code Sifting Technique for Method Level Bug Localization</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Razzaq, Abdul
+Buckley, Jim
+Patten, James Vincent
+Chochlov, Muslim
+Sai, Ashish Rajendra</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query reformulation</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locating bugs is an important, but effort-intensive and time-consuming task, when dealing with large-scale systems. To address this, Information Retrieval (IR) techniques are increasingly being used to suggest potential buggy source code locations, for given bug reports. While IR techniques are very scalable, in practice their effectiveness in accurately localizing bugs in a software system remains low. Results of empirical studies suggest that the effectiveness of bug localization techniques can be augmented by the configuration of queries used to locate buggy code. However, in most IR-based bug localization techniques, presented by researchers, the impact of the queries' configurations is not fully considered. In a similar vein, techniques consider all code elements as equally suspicious of being buggy while localizing bugs, but this is not always the case either.In this paper, we present a new method-level, information-retrieval-based bug localization technique called "BoostNSift". BoostNSift exploits the important information in queries by 'boost'ing that information, and then 'sift's the identified code elements, based on a novel technique that emphasizes the code elements' specific relatedness to a bug report over its generic relatedness to all bug reports. To evaluate the performance of BoostNSift, we employed a state-of-The-Art empirical design that has been commonly used for evaluating file level IR-based bug localization techniques: 6851 bugs are selected from commonly used Eclipse, AspectJ, SWT, and ZXing benchmarks and made openly available for method-level analyses. The performance of BoostNSift is compared with the openly-Available state-of-The-Art IR-based BugLocator, BLUiR, and BLIA techniques. Experiments show that BoostNSift improves on BLUiR by up to 324%, on BugLocator by up to 297%, and on BLIA up to 120%, in terms of Mean Reciprocal Rank (MRR). Similar improvements are observed in terms of Mean Average Precision (MAP) and Top-N evaluation measures.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCAM</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broccoli: Bug localization with the help of text search engines</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ledel, Benjamin
+Herbold, Steffen</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOSEM</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug localization is a tedious activity in the bug fixing process in which a software developer tries to locate bugs in the source code described in a bug report. Since this process is time-consuming and sometimes requires additional knowledge about the software project, current literature proposes several information retrieval techniques which can aid the bug localization process. However, recent research questioned the state-of-the-art approaches, since they are barely adopted in practical scenarios. In this paper, we introduce anew bug localization approach, called Broccoli, which uses techniques from previous approaches and extends them with a search engine to improve the localization. Primarily, we utilize a search engine to find similar source code locations and prior bug reports that are comparable to the new bug report. We combine these search engine techniques with information retrieval techniques used by previous approaches. In a case study, we evaluate the performance of our search engine approach against seven bug localization algorithms on 82 open source projects in two data sets. In the first data set, we are not able to show a significant difference between Broccoli and Locus. However, the search engine approach has the highest Mean Reciprocal Rank(MRR) and Mean Average Precision (MAP) value on average and exceeds the other algorithm by 7% - 77%(MAP) and 6% - 108% (MRR). In the second data set, the MAP and MRR value of Broccoli is also higher than the state-of-the-art on average with a better 9% - 107% MAP value and 32% - 173% better MRR value. However, we are not able to show a significant difference between Broccoli and BRTracer+ in the statistical analysis regarding the MRR metric.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arxiv.org/abs/2109.11902</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code Complexity and Version History for Enhancing Hybrid Bug Localization</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seyam, Ahmed
+Hamdy, Abeer
+Farhan, Marwa</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software projects are not void from bugs when they are released, so the developers keep receiving bug reports that describe technical issues. The process of identifying the buggy code files that correspond to the submitted bug reports is called bug localization. Automating the bug localization process can speed up bug fixing and improve the productivity of the developers, especially with a large number of submitted bug reports. Several automatic bug localization approaches were proposed in the literature reviews which are based on the textual and /or semantic similarity among the bug reports and the source code files. Nevertheless, none of the previous approaches made use of the source code complexity despite its importance; as high complexity source code files have higher probabilities to be modified than the low complexity files and are prone to bug occurrences. To improve the accuracy of the automatic bug localization task, this paper proposes a Hybrid Bug Localization approach (HBL) that makes full use of textual and semantic features of source code files, previously fixed bug reports, in addition to the source code complexity and version history properties. The effectiveness of the proposed approach was assessed using three open-source Java projects, ZXing, SWT, and AspectJ, of different sizes. Experimental results showed that the proposed approach outperforms several state-of-the-art approaches in terms of the mean average precision (MAP) and the mean reciprocal rank (MRR) metrics.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE Access</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DigBug—Pre/post-processing operator selection for accurate bug localization</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kim, Kisub
+Ghatpande, Sankalp
+Liu, Kui
+Koyuncu, Anil
+Kim, Dongsun
+Bissyandé, Tegawendé F.
+Klein, Jacques
+Traon, Yves Le</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug localization is a recurrent maintenance task in software development. It aims at identifying relevant code locations (e.g., code files) that must be inspected to fix bugs. When such bugs are reported by users, the localization process become often overwhelming as it is mostly a manual task due to incomplete and informal information (written in natural languages) available in bug reports. The research community has then invested in automated approaches, notably using Information Retrieval techniques. Unfortunately, reported performance in the literature is still limited for practical usage. Our key observation, after empirically investigating a large dataset of bug reports as well as workflow and results of state-of-the-art approaches, is that most approaches attempt localization for every bug report without considering the different characteristics of the bug reports. We propose DIGBUG as a straightforward approach to specialized bug localization. This approach selects pre/post-processing operators based on the attributes of bug reports; and the bug localization model is parameterized in accordance as well. Our experiments confirm that departing from “one-size-fits-all” approaches, DIGBUG outperforms the state-of-the-art techniques by 6 and 14 percentage points, respectively in terms of MAP and MRR on average.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jss.2022.111300</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>To improve the software debugging efficiency, bug localization techniques have been developed to automatically locate buggy files based on bug reports. Traditional information retrieval-based bug localization cannot deal with the lexical mismatch, thus its performance is limited. In recent years, some deep learning models have been proposed to learn the semantics of bug reports and source files to bridge the lexical gap. However, their accuracy is still limited as building accurate semantic representations of bug reports and source files is very challenging. Recently, relevance matching was proposed to identify whether a document is relevant to a given query by considering both local matching and global matching. In this work, we propose a novel framework DreamLoc, which utilizes a relevance matching model to locate buggy files. Specifically, DreamLoc conducts the local matching by employing an attention-based mechanism to calculate the matching scores between bug report terms and code snippets. It also conducts the global matching by employing a gating mechanism to aggregate results of local matching and obtain the final matching score between a bug report and a source file. Since the local matching considers the relevance between each word and the global matching differentiates the importance of words, DreamLoc can effectively model the characteristics of bug reports and source files. Experimental results on five benchmark datasets show that DreamLoc outperforms five state-of-the-art models. For example, compared with DeepLoc, a recently proposed approach, the evaluation measures Accuracy@10, MAP, and MRR are improved by 6.4%, 7.4%, and 7.2%, respectively.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE Transactions on Reliability</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1109/TR.2021.3104728</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qi, Binhang
+Sun, Hailong
+Yuan, Wei
+Zhang, Hongyu
+Meng, Xiangxin</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast Changeset-based Bug Localization with BERT</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ciborowska, Agnieszka
+Damevski, Kostadin</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICSE</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automatically localizing software bugs to the changesets that induced them has the potential to improve software developer efficiency and to positively affect software quality. To facilitate this automation, a bug report has to be effectively matched with source code changes, even when a significant lexical gap exists between natural language used to describe the bug and identifier naming practices used by developers. To bridge this gap, we need techniques that are able to capture software engineering-specific and project-specific semantics in order to detect relatedness between the two types of documents that goes beyond exact term matching. Popular transformer-based deep learning architectures, such as BERT, excel at leveraging contextual information, hence appear to be a suitable candidate for the task. However, BERT-like models are computationally expensive, which precludes them from being used in an environment where response time is important. In this paper, we describe how BERT can be made fast enough to be applicable to changeset-based bug localization. We also explore several design decisions in using BERT for this purpose, including how best to encode changesets and how to match bug reports to individual changes for improved accuracy. We compare the accuracy and performance of our model to a non-contextual baseline (i.e., vector space model) and BERT-based architectures previously used in software engineering. Our evaluation results demonstrate advantages in using the proposed BERT model compared to the baselines, especially for bug reports that lack any hints about related code elements.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arxiv.org/abs/2112.14169</t>
+  </si>
+  <si>
+    <t>Laprob: A Label propagation-Based software bug localization method</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERSAHIN, Mustafa
+UTKU, Semih
+KILINÇ, Deniz
+ERSAHIN, Buket</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>On the classification of bug reports to improve bug localization</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li, Zhengliang
+Jiang, Zhiwei
+Chen, Xiang
+Cao, Kaibo
+Gu, Qing</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yang, Shouliang
+Cao, Junming
+Zeng, Hushuang
+Shen, Beijun
+Zhong, Hao</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Almhana, Rafi
+Kessentini, Marouane
+Mkaouer, Wiem</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fang, Fan
+Wu, John
+Li, Yanyan
+Ye, Xin
+Aljedaani, Wajdi
+Mkaouer, Mohamed Wiem</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ciborowska, Agnieszka
+Decker, Michael J.
+Damevski, Kostadin</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rao, Shivani
+Kak, Avinash</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ma, Yi Fan
+Li, Ming</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>The forgotten role of search queries in IR-based bug localization: an empirical study</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rahman, Mohammad Masudur
+Khomh, Foutse
+Yeasmin, Shamima
+Roy, Chanchal K.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information retrieval-based bug localization approach with adaptive attribute weighting</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locating Faulty Methods with a Mixed RNN and Attention Model</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method-level bug localization using hybrid multi-objective search</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online Adaptable Bug Localization for Rapidly Evolving Software</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retrieval from software libraries for bug localization</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>The flowing nature matters: feature learning from the control flow graph of source code for bug localization</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software quality assurance is one of the crucial factors for the success of software projects. Bug fixing has an essential role in software quality assurance, and bug localization (BL) is the first step of this process. BL is difficult and time-consuming since the developers should understand the flow, coding structure, and the logic of the program. Information retrieval-based bug localization (IRBL) uses the information of bug reports and source code to locate the section of code in which the bug occurs. It is difficult to apply other tools because of the diversity of software development languages, design patterns, and development standards. The aim of this study is to build an adaptive IRBL tool and make it usable by more companies. BugSTAiR solves the aforementioned problem by means of the adaptive attribute weighting (AAW) algorithm and is evaluated on four open-source projects which are well-known benchmark datasets on BL. One of them is BLIA which is the state of the art in bug localization area and another is BLUIR which is a well-known BL tool. According to the promising results of experiments, Top1 rank of BugSTAiR is 2% and MAP is 10% better than BLIA's results on AspectJ and it has localized 4.6% of all bugs in Top1 and its precision is 6.1% better than BLIA on SWT, respectively. On the other side, it is 20% better in the Top1 metric and 30% in precision than BLUIR.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Context: Bug localization, which locates suspicious snippets related to the bugs mentioned in the bug reports, is time-consuming and laborious. Many automatic bug localization methods have been proposed to speed up the process of bug fixing and reduce the burden on developers. However, these methods have not fully utilized the intra-relations and inter-relations among the bug reports and the source files (i.e., call relationships between the source files). Objective: In this paper, we propose a novel method LaProb (a label propagation-based software bug localization method) that makes full use of the intra-relations and inter-relations among the bug reports and the source files. Method: LaProb transforms the problem of bug localization into a multi-label distribution learning problem. LaProb first constructs a BHG (Biparty Hybrid Graph) by analyzing the structures and contents of bug reports and source files, and calculates the intra-relations between pairs of bug reports and source files, as well as the inter-relations between bug reports and source files. Based on BHG, LaProb then predicts the label distribution on source files by using the label propagation algorithm for the target bug report. Finally, LaProb finishes the bug localization task by sorting the results of label propagation. Results: The experimental results on nine open-source software projects (i.e., SWT, AspectJ, Eclipse, ZXing, SEC, HIVE, HBASE, WFLY and ROO) show that compared with several state-of-the-art methods (including BugLocator, BRTracer, BLUiR, AmaLgam, Locus and BLIZZARD), LaProb performs the best in terms of all five metrics on average. For MAP performance measure, LaProb achieves an improvement of 30.9%, 36.6%, 28.0%, 22.2%, 20.1% and 53.5%, respectively. Conclusion: LaProb is capable of making full use of the intra-relations and inter-relations among the bug reports and the source files and achieves better performance than seven state-of-the-art methods.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.infsof.2020.106410</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR-based fault localization approaches achieves promising results when locating faulty files by comparing a bug report with source code. Unfortunately, they become less effective to locate faulty methods. We conduct a preliminary study to explore its challenges, and identify three problems: The semantic gap problem, the representation sparseness problem, and the single revision problem.To tackle these problems, we propose MRAM, a mixed RNN and attention model, which combines bug-fixing features and method structured features to explore both implicit and explicit relevance between methods and bug reports for method level fault localization task. The core ideas of our model are: (1) constructing code revision graphs from code, commits and past bug reports, which reveal the latent relations among methods to augment short methods and as well provide all revisions of code and past fixes to train more accurate models; (2) embedding three method structured features (token sequences, API invocation sequences, and comments) jointly with RNN and soft attention to represent source methods and obtain their implicit relevance with bug reports; and (3) integrating multi-revision bug-fixing features, which provide the explicit relevance between bug reports and methods, to improve the performance.We have implemented MRAM and conducted a controlled experiment on five open-source projects. Comparing with state-of-The-Art approaches, our MRAM improves MRR values by 3.8-5.1% (3.7-5.4%) when the dataset contains (does not contain) localized bug reports. Our statistics test shows that our improvements are significant.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Context: One of the time-consuming maintenance tasks is the localization of bugs especially in large software systems. Developers have to follow a tedious process to reproduce the abnormal behavior then inspect a large number of files. While several studies have been proposed for bugs localization, the majority of them are recommending classes/files as outputs which may still require high inspection effort. Furthermore, there is a significant difference between the natural language used in bug reports and the programming language which limits the efficiency of existing approaches since most of them are mainly based on lexical similarity. Objective: In this paper, we propose an automated approach to find and rank the potential methods in order to localize the source of a bug based on a bug report description. Method: Our approach finds a good balance between minimizing the number of recommended classes and maximizing the relevance of the proposed solution using a hybrid multi-objective optimization algorithm combining local and global search. The relevance of the recommended code fragments is estimated based on the use of the history of changes and bug-fixing, and the lexical similarity between the bug report description and the API documentation. Our approach operates on two main steps. The first step is to find the best set of classes satisfying the two conflicting criteria of relevance and the number of classes to recommend using a global search based on NSGA-II. The second step is to locate the most appropriate methods to inspect, using a local multi-objective search based on Simulated Annealing (MOSA) from the list of classes recommended by the first step. Results: We evaluated our system on 6 open source Java projects, using the version of the project before fixing the bug of many bug reports. Our hybrid multi-objective approach is able to successfully locate the true buggy methods within the top 10 recommendations for over 78% of the bug reports leading to a significant reduction of developers’ effort comparing to class-level bug localization techniques. Conclusion: The experimental results show that the search-based approach significantly outperforms four state-of-the-art methods in recommending relevant files for bug reports.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.infsof.2020.106474</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug localization is the automated process of finding the possible faulty files in a software project. Bug localization allows developers to concentrate on vital files. Information retrieval (IR)-based approaches have been proposed to assist automatically identify software defects by using bug report information. However, some bug reports that are not semantically related to the relevant code are not helpful to IR-based systems. Running an IR-based reporting system can lead to false-positive results. In this paper, we propose a classification model for classifying a bug report as either uninformative or informative. Our approach helps to lower false positives and increase ranking performances by filtering uninformative information before running an IR-based bug location system. The model is based on implicit features learned from bug reports that use neural networks and explicit features defined manually. We test our proposed model on three open-source software projects that contain over 9000 bug reports. The results of the evaluation show that our model enhances the efficiency of a developed IR-based system in the trade-off between precision and recall. For implicit features, our tests with comparisons show that the LSTM network performs better than the CNN and multilayer perceptron with respect to the F-measurements. Combining both implicit and explicit features outperforms using only implicit features. Our classification model helps improve precision in bug localization tasks when precision is considered more important than recall.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00500-021-05689-2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug localization aims to reduce debugging time by recommending program elements that are relevant for a specific bug report. To date, researchers have primarily addressed this problem by applying different information retrieval techniques that leverage similarities between a given bug report and source code. However, with modern software development trending towards increased speed of software change and continuous delivery to the user, the current generation of bug localization techniques, which cannot quickly adapt to the latest version of the software, is becoming inadequate. In this paper, we propose a technique for online bug localization, which enables rapidly updatable bug localization models. More specifically, we propose a streaming bug localization technique, based on an ensemble of online topic models, that is able to adapt to both specific (with explicit code mentions) and more abstract bug reports. By using changesets (diffs) as the input instead of a snapshot of the source code, the model naturally integrates defect prediction and co-change information into its prediction. Initial results indicate that the proposed approach improves bug localization performance for 42 out of 56 evaluation projects, with an average MAP improvement of 5.9%.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arxiv.org/abs/2203.03544</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>This retrospective on our 2011 MSR publication starts with the research milieu that led to the work reported in our paper. We brie y review the competing ideas of a decade ago that could be applied to solving the problem of identifying the les in a software library related to a query. We were especially interested in nding out if the more complex text retrieval methods of that time would be e ective in the software context. A surprising conclusion of our paper was that the reality was exactly the opposite: the more traditional simpler methods outperformed the complex methods. In addition to this surprising result, our paper was also the rst to report what was considered at that time a large-scale quantitative evaluation of the IR-based approaches to automatic bug localization. Over the years, such quantitative evaluations have become the norm. We believe that these contributions were largely responsible for the popularity of this paper in the research literature.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug localization plays an important role in software maintenance. Traditional works treat the source code from the lexical perspective, while some recent researches indicate that exploiting the program structure is beneficial for improving bug localization. Control flow graph (CFG) is a widely used graph representation, which essentially represents the program structure. Although using graph neural network for feature learning is a straightforward way and has been proven effective in various software mining problems, this approach is inappropriate since adjacent nodes in the CFG could be totally unrelated in semantics. On the other hand, previous statements may affect the semantics of subsequent statements along the execution path, which we call the flowing nature of control flow graph. In this paper, we claim that the flowing nature should be explicitly considered and propose a novel model named cFlow for bug localization, which employs a particular designed flow-based GRU for feature learning from the CFG. The flow-based GRU exploits the program structure represented by the CFG to transmit the semantics of statements along the execution path, which reflects the flowing nature. Experimental results on widely-used real-world software projects show that cFlow significantly outperforms the state-of-the-art bug localization methods, indicating that exploiting the program structure from the CFG with respect to the flowing nature is beneficial for improving bug localization.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10994-021-06078-4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Being light-weight and cost-effective, IR-based approaches for bug localization have shown promise in finding software bugs. However, the accuracy of these approaches heavily depends on their used bug reports. A significant number of bug reports contain only plain natural language texts. According to existing studies, IR-based approaches cannot perform well when they use these bug reports as search queries. On the other hand, there is a piece of recent evidence that suggests that even these natural language-only reports contain enough good keywords that could help localize the bugs successfully. On one hand, these findings suggest that natural language-only bug reports might be a sufficient source for good query keywords. On the other hand, they cast serious doubt on the query selection practices in the IR-based bug localization. In this article, we attempted to clear the sky on this aspect by conducting an in-depth empirical study that critically examines the state-of-the-art query selection practices in IR-based bug localization. In particular, we use a dataset of 2,320 bug reports, employ ten existing approaches from the literature, exploit the Genetic Algorithm-based approach to construct optimal, near-optimal search queries from these bug reports, and then answer three research questions. We confirmed that the state-of-the-art query construction approaches are indeed not sufficient for constructing appropriate queries (for bug localization) from certain natural language-only bug reports. However, these bug reports indeed contain high-quality search keywords in their texts even though they might not contain explicit hints for localizing bugs (e.g., stack traces). We also demonstrate that optimal queries and non-optimal queries chosen from bug report texts are significantly different in terms of several keyword characteristics (e.g., frequency, entropy, position, part of speech). Such an analysis has led us to four actionable insights on how to choose appropriate keywords from a bug report. Furthermore, we demonstrate 27%–34% improvement in the performance of non-optimal queries through the application of our actionable insights to them. Finally, we summarize our study findings with future research directions (e.g., machine intelligence in keyword selection).</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10664-021-10022-4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/3468744.3468755</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ICPC52881.2021.00028</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.3906/elk-2006-14</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ACCESS.2021.3074266</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/SCAM52516.2021.00019</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/3453933.3454021</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/tcad.2022.3166114</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10664-021-09946-8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10664-021-10082-6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10618-021-00755-7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3001,6 +3406,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3026,7 +3440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3062,14 +3476,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10780,11 +11207,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L168"/>
+  <dimension ref="A1:L165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E143" sqref="E143"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10794,7 +11221,7 @@
     <col min="3" max="3" width="5" style="3" customWidth="1"/>
     <col min="4" max="4" width="15" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="31.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="31.625" style="16" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="5" customWidth="1"/>
     <col min="8" max="8" width="8.75" style="3" customWidth="1"/>
     <col min="9" max="9" width="25.625" style="3" customWidth="1"/>
@@ -10818,7 +11245,7 @@
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -10838,1300 +11265,1195 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="113.1" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>12</v>
+      <c r="A2" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>750</v>
       </c>
       <c r="C2" s="8">
-        <v>2020</v>
-      </c>
-      <c r="D2" s="8" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" ht="113.1" customHeight="1">
+      <c r="A3" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2022</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="113.1" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2022</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="22" t="s">
+        <v>845</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="113.1" customHeight="1">
+      <c r="A5" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2022</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="22" t="s">
+        <v>796</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="113.1" customHeight="1">
+      <c r="A6" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2022</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="22" t="s">
+        <v>833</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="113.1" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>815</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2022</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="22" t="s">
+        <v>836</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="113.1" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2022</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="21" t="s">
+        <v>799</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="113.1" customHeight="1">
+      <c r="A9" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2021</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" ht="113.1" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="8">
-        <v>2020</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="113.1" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="8">
-        <v>2020</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="113.1" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2020</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" ht="113.1" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2020</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" ht="113.1" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" ht="113.1" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2020</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" ht="113.1" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="8">
-        <v>2020</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="113.1" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>73</v>
+      <c r="A10" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>760</v>
       </c>
       <c r="C10" s="8">
-        <v>2020</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="13"/>
+        <v>2021</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>743</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="113.1" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>79</v>
+      <c r="A11" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>764</v>
       </c>
       <c r="C11" s="8">
-        <v>2020</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" s="9"/>
+        <v>2021</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="113.1" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>85</v>
+      <c r="A12" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>770</v>
       </c>
       <c r="C12" s="8">
-        <v>2020</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12"/>
-      <c r="K12" s="9"/>
+        <v>2021</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="22" t="s">
+        <v>844</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12" ht="113.1" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>90</v>
+      <c r="A13" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>774</v>
       </c>
       <c r="C13" s="8">
-        <v>2020</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="13"/>
+        <v>2021</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="22" t="s">
+        <v>776</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:12" ht="113.1" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>95</v>
+      <c r="A14" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>780</v>
       </c>
       <c r="C14" s="8">
-        <v>2020</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K14" s="9"/>
+        <v>2021</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="22" t="s">
+        <v>843</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>782</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="113.1" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>101</v>
+      <c r="A15" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>785</v>
       </c>
       <c r="C15" s="8">
-        <v>2019</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15"/>
-      <c r="K15" s="9"/>
+        <v>2021</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="22" t="s">
+        <v>788</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>787</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="113.1" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>108</v>
+      <c r="A16" s="17" t="s">
+        <v>789</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>790</v>
       </c>
       <c r="C16" s="8">
-        <v>2019</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="K16" s="9"/>
+        <v>2021</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="22" t="s">
+        <v>842</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>791</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="113.1" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>73</v>
+      <c r="A17" s="17" t="s">
+        <v>801</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>802</v>
       </c>
       <c r="C17" s="8">
-        <v>2019</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+        <v>2021</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="20" t="s">
+        <v>805</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="113.1" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>116</v>
+      <c r="A18" s="17" t="s">
+        <v>818</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>807</v>
       </c>
       <c r="C18" s="8">
-        <v>2019</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="K18" s="12"/>
+        <v>2021</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="22" t="s">
+        <v>841</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17" t="s">
+        <v>824</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="113.1" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>122</v>
+      <c r="A19" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>809</v>
       </c>
       <c r="C19" s="8">
-        <v>2019</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+        <v>2021</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="22" t="s">
+        <v>826</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" ht="113.1" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>128</v>
+      <c r="A20" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>810</v>
       </c>
       <c r="C20" s="8">
-        <v>2019</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+        <v>2021</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="22" t="s">
+        <v>840</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="113.1" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>133</v>
+      <c r="A21" s="17" t="s">
+        <v>820</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>811</v>
       </c>
       <c r="C21" s="8">
-        <v>2019</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+        <v>2021</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="22" t="s">
+        <v>829</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" ht="113.1" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>138</v>
+      <c r="A22" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>812</v>
       </c>
       <c r="C22" s="8">
-        <v>2019</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="J22"/>
-      <c r="K22" s="9"/>
+        <v>2021</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="22" t="s">
+        <v>831</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" ht="113.1" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>144</v>
+      <c r="A23" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>814</v>
       </c>
       <c r="C23" s="8">
-        <v>2019</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>146</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="22" t="s">
+        <v>839</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" ht="113.1" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>116</v>
+      <c r="A24" s="17" t="s">
+        <v>816</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>817</v>
       </c>
       <c r="C24" s="8">
-        <v>2019</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+        <v>2021</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="22" t="s">
+        <v>838</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" ht="113.1" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="C25" s="8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>153</v>
+        <v>14</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" ht="113.1" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="C26" s="8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>158</v>
+        <v>22</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="113.1" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="C27" s="8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>163</v>
+        <v>32</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>164</v>
+        <v>35</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="113.1" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="C28" s="8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>168</v>
+        <v>40</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="113.1" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="C29" s="8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>173</v>
+        <v>47</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="J29" s="10"/>
+        <v>50</v>
+      </c>
       <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" ht="113.1" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="C30" s="8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>177</v>
+        <v>54</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>178</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="J30" s="10"/>
       <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11" ht="113.1" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="C31" s="8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>181</v>
+        <v>61</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="J31" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="J31"/>
       <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11" ht="113.1" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C32" s="8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>184</v>
+        <v>68</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>185</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J32"/>
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="113.1" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="C33" s="8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>189</v>
+        <v>75</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
+        <v>77</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="13"/>
     </row>
     <row r="34" spans="1:12" ht="113.1" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="C34" s="8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>193</v>
+        <v>80</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="J34" s="10"/>
+        <v>83</v>
+      </c>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:12" ht="113.1" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="C35" s="8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>198</v>
+        <v>86</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>199</v>
+        <v>64</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
+        <v>88</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35" s="10"/>
       <c r="L35" s="10"/>
     </row>
     <row r="36" spans="1:12" ht="113.1" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>201</v>
+        <v>89</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>202</v>
+        <v>90</v>
       </c>
       <c r="C36" s="8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>204</v>
+        <v>75</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>208</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="13"/>
       <c r="L36" s="10"/>
     </row>
     <row r="37" spans="1:12" ht="113.1" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>209</v>
+        <v>94</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="C37" s="8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>211</v>
+        <v>96</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
+        <v>99</v>
+      </c>
+      <c r="K37" s="10"/>
       <c r="L37" s="10"/>
     </row>
     <row r="38" spans="1:12" ht="113.1" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>214</v>
+        <v>100</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>215</v>
+        <v>101</v>
       </c>
       <c r="C38" s="8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>217</v>
+        <v>102</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>218</v>
+        <v>106</v>
       </c>
       <c r="J38"/>
+      <c r="K38" s="10"/>
     </row>
     <row r="39" spans="1:12" ht="113.1" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="C39" s="8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>222</v>
+        <v>109</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="J39"/>
+        <v>111</v>
+      </c>
+      <c r="K39" s="10"/>
     </row>
     <row r="40" spans="1:12" ht="113.1" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="C40" s="8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>226</v>
+        <v>75</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>227</v>
+        <v>34</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>228</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
     </row>
     <row r="41" spans="1:12" ht="113.1" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="C41" s="8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>230</v>
+        <v>117</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>231</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:12" ht="113.1" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="C42" s="8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>234</v>
+        <v>123</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="J42" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>237</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
     </row>
     <row r="43" spans="1:12" ht="113.1" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="C43" s="8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>240</v>
+        <v>129</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>16</v>
@@ -12140,692 +12462,707 @@
         <v>34</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>241</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
     </row>
     <row r="44" spans="1:12" ht="113.1" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>242</v>
+        <v>132</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c r="C44" s="8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>245</v>
+        <v>134</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>246</v>
+        <v>34</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>247</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
     </row>
     <row r="45" spans="1:12" ht="113.1" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>249</v>
+        <v>138</v>
       </c>
       <c r="C45" s="8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>251</v>
+        <v>3</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>253</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="J45"/>
       <c r="K45" s="10"/>
     </row>
     <row r="46" spans="1:12" ht="113.1" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="C46" s="8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>256</v>
+        <v>80</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>257</v>
+        <v>34</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>258</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="113.1" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>259</v>
+        <v>147</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>260</v>
+        <v>116</v>
       </c>
       <c r="C47" s="8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>262</v>
+        <v>148</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>263</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
     </row>
     <row r="48" spans="1:12" ht="113.1" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>264</v>
+        <v>150</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>265</v>
+        <v>151</v>
       </c>
       <c r="C48" s="8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>267</v>
+        <v>152</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>268</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
     </row>
     <row r="49" spans="1:11" ht="113.1" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="C49" s="8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>272</v>
+        <v>157</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>273</v>
+        <v>70</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>274</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:11" ht="113.1" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>275</v>
+        <v>160</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>276</v>
+        <v>161</v>
       </c>
       <c r="C50" s="8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>277</v>
+        <v>162</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>278</v>
+        <v>70</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
+        <v>164</v>
+      </c>
     </row>
     <row r="51" spans="1:11" ht="113.1" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C51" s="8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>281</v>
+        <v>167</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>282</v>
+        <v>169</v>
       </c>
       <c r="J51" s="10"/>
       <c r="K51" s="9"/>
     </row>
     <row r="52" spans="1:11" ht="113.1" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>283</v>
+        <v>170</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="C52" s="8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>285</v>
+        <v>172</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>286</v>
+        <v>174</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
     </row>
     <row r="53" spans="1:11" ht="113.1" customHeight="1">
       <c r="A53" s="8" t="s">
-        <v>287</v>
+        <v>175</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C53" s="8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>288</v>
+        <v>109</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>177</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="J53" s="10"/>
+        <v>178</v>
+      </c>
       <c r="K53" s="10"/>
     </row>
     <row r="54" spans="1:11" ht="113.1" customHeight="1">
       <c r="A54" s="8" t="s">
-        <v>290</v>
+        <v>179</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="C54" s="8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>293</v>
+        <v>109</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>227</v>
+        <v>34</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>294</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="J54" s="10"/>
       <c r="K54" s="9"/>
     </row>
     <row r="55" spans="1:11" ht="113.1" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>295</v>
+        <v>183</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>296</v>
+        <v>20</v>
       </c>
       <c r="C55" s="8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>297</v>
+        <v>134</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>184</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="13"/>
+        <v>185</v>
+      </c>
+      <c r="K55" s="10"/>
     </row>
     <row r="56" spans="1:11" ht="113.1" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>299</v>
+        <v>186</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>276</v>
+        <v>187</v>
       </c>
       <c r="C56" s="8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>301</v>
+        <v>188</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>63</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>302</v>
+        <v>64</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="J56"/>
+        <v>190</v>
+      </c>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
     </row>
     <row r="57" spans="1:11" ht="113.1" customHeight="1">
       <c r="A57" s="8" t="s">
-        <v>304</v>
+        <v>191</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>305</v>
+        <v>192</v>
       </c>
       <c r="C57" s="8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>307</v>
+        <v>188</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="J57"/>
+        <v>195</v>
+      </c>
+      <c r="J57" s="10"/>
     </row>
     <row r="58" spans="1:11" ht="113.1" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>309</v>
+        <v>196</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>310</v>
+        <v>197</v>
       </c>
       <c r="C58" s="8">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>312</v>
+        <v>75</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>198</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>313</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
     </row>
     <row r="59" spans="1:11" ht="113.1" customHeight="1">
       <c r="A59" s="8" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="C59" s="8">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>317</v>
+        <v>203</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>204</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>318</v>
+        <v>206</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="113.1" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>319</v>
+        <v>209</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="C60" s="8">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>322</v>
+        <v>75</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>211</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="K60" s="10"/>
+        <v>213</v>
+      </c>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
     </row>
     <row r="61" spans="1:11" ht="113.1" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>324</v>
+        <v>214</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="C61" s="8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>327</v>
+        <v>216</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>217</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>328</v>
+        <v>218</v>
       </c>
       <c r="J61"/>
     </row>
     <row r="62" spans="1:11" ht="113.1" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="C62" s="8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>332</v>
+        <v>221</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>222</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>273</v>
+        <v>25</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>333</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="J62"/>
     </row>
     <row r="63" spans="1:11" ht="113.1" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>334</v>
+        <v>224</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>335</v>
+        <v>225</v>
       </c>
       <c r="C63" s="8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>337</v>
+        <v>109</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>226</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>63</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="J63" s="10"/>
-      <c r="K63" s="9"/>
+        <v>228</v>
+      </c>
     </row>
     <row r="64" spans="1:11" ht="113.1" customHeight="1">
       <c r="A64" s="8" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>340</v>
+        <v>73</v>
       </c>
       <c r="C64" s="8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>342</v>
+        <v>109</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>230</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K64" s="10"/>
+        <v>231</v>
+      </c>
     </row>
     <row r="65" spans="1:12" ht="113.1" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>344</v>
+        <v>232</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="C65" s="8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>346</v>
+        <v>203</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>273</v>
+        <v>98</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="J65" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="K65" s="12" t="s">
-        <v>349</v>
+        <v>235</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="L65" s="10"/>
     </row>
     <row r="66" spans="1:12" ht="113.1" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>350</v>
+        <v>238</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>351</v>
+        <v>187</v>
       </c>
       <c r="C66" s="8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>352</v>
+        <v>239</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>240</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>16</v>
@@ -12834,155 +13171,144 @@
         <v>34</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>353</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="113.1" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>354</v>
+        <v>242</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>355</v>
+        <v>243</v>
       </c>
       <c r="C67" s="8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>356</v>
+        <v>244</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>245</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="J67"/>
-      <c r="K67" s="9"/>
+        <v>247</v>
+      </c>
     </row>
     <row r="68" spans="1:12" ht="113.1" customHeight="1">
       <c r="A68" s="8" t="s">
-        <v>358</v>
+        <v>248</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>359</v>
+        <v>249</v>
       </c>
       <c r="C68" s="8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>360</v>
+        <v>250</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>251</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>63</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>361</v>
+        <v>252</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="J68" s="9"/>
+        <v>253</v>
+      </c>
       <c r="K68" s="9"/>
     </row>
     <row r="69" spans="1:12" ht="113.1" customHeight="1">
       <c r="A69" s="8" t="s">
-        <v>363</v>
+        <v>254</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>364</v>
+        <v>255</v>
       </c>
       <c r="C69" s="8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>365</v>
+        <v>148</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>256</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>366</v>
+        <v>257</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="J69" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="K69" s="12" t="s">
-        <v>369</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="113.1" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>370</v>
+        <v>259</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="C70" s="8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>371</v>
+        <v>261</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>227</v>
+        <v>34</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
+        <v>263</v>
+      </c>
     </row>
     <row r="71" spans="1:12" ht="113.1" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>373</v>
+        <v>264</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>374</v>
+        <v>265</v>
       </c>
       <c r="C71" s="8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>376</v>
+        <v>266</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>267</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>16</v>
@@ -12991,811 +13317,807 @@
         <v>212</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="J71"/>
+        <v>268</v>
+      </c>
     </row>
     <row r="72" spans="1:12" ht="113.1" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>378</v>
+        <v>269</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>379</v>
+        <v>270</v>
       </c>
       <c r="C72" s="8">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>381</v>
+        <v>271</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>272</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>98</v>
+        <v>273</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="J72"/>
+        <v>274</v>
+      </c>
+      <c r="K72" s="10"/>
     </row>
     <row r="73" spans="1:12" ht="113.1" customHeight="1">
       <c r="A73" s="8" t="s">
-        <v>383</v>
+        <v>275</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>384</v>
+        <v>276</v>
       </c>
       <c r="C73" s="8">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>385</v>
+        <v>75</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>386</v>
+        <v>278</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="J73"/>
+        <v>279</v>
+      </c>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
     </row>
     <row r="74" spans="1:12" ht="113.1" customHeight="1">
       <c r="A74" s="8" t="s">
-        <v>388</v>
+        <v>280</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>389</v>
+        <v>192</v>
       </c>
       <c r="C74" s="8">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>391</v>
+        <v>109</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>281</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>392</v>
+        <v>34</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>393</v>
+        <v>282</v>
       </c>
       <c r="J74" s="10"/>
       <c r="K74" s="10"/>
     </row>
     <row r="75" spans="1:12" ht="113.1" customHeight="1">
       <c r="A75" s="8" t="s">
-        <v>394</v>
+        <v>283</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>395</v>
+        <v>85</v>
       </c>
       <c r="C75" s="8">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>397</v>
+        <v>284</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>285</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>398</v>
+        <v>70</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>399</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J75" s="10"/>
       <c r="K75" s="10"/>
     </row>
     <row r="76" spans="1:12" ht="113.1" customHeight="1">
       <c r="A76" s="8" t="s">
-        <v>400</v>
+        <v>287</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>310</v>
+        <v>161</v>
       </c>
       <c r="C76" s="8">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>401</v>
+        <v>14</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>288</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>398</v>
+        <v>70</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>402</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="J76" s="10"/>
       <c r="K76" s="10"/>
     </row>
     <row r="77" spans="1:12" ht="113.1" customHeight="1">
       <c r="A77" s="8" t="s">
-        <v>403</v>
+        <v>290</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>404</v>
+        <v>291</v>
       </c>
       <c r="C77" s="8">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>405</v>
+        <v>292</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>406</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="K77" s="10"/>
     </row>
     <row r="78" spans="1:12" ht="113.1" customHeight="1">
       <c r="A78" s="8" t="s">
-        <v>407</v>
+        <v>295</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>408</v>
+        <v>296</v>
       </c>
       <c r="C78" s="8">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>410</v>
+        <v>109</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>297</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>411</v>
+        <v>199</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>412</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="J78" s="3"/>
+      <c r="K78" s="13"/>
     </row>
     <row r="79" spans="1:12" ht="113.1" customHeight="1">
       <c r="A79" s="8" t="s">
-        <v>413</v>
+        <v>299</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>414</v>
+        <v>276</v>
       </c>
       <c r="C79" s="8">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>416</v>
+        <v>300</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>301</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>63</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>227</v>
+        <v>302</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
+        <v>303</v>
+      </c>
+      <c r="J79"/>
     </row>
     <row r="80" spans="1:12" ht="113.1" customHeight="1">
       <c r="A80" s="8" t="s">
-        <v>418</v>
+        <v>304</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>419</v>
+        <v>305</v>
       </c>
       <c r="C80" s="8">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>420</v>
+        <v>306</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>307</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
+        <v>308</v>
+      </c>
+      <c r="J80"/>
     </row>
     <row r="81" spans="1:12" ht="113.1" customHeight="1">
       <c r="A81" s="8" t="s">
-        <v>422</v>
+        <v>309</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>423</v>
+        <v>310</v>
       </c>
       <c r="C81" s="8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8" t="s">
-        <v>424</v>
+      <c r="E81" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>312</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
+        <v>313</v>
+      </c>
     </row>
     <row r="82" spans="1:12" ht="113.1" customHeight="1">
       <c r="A82" s="8" t="s">
-        <v>426</v>
+        <v>314</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>427</v>
+        <v>315</v>
       </c>
       <c r="C82" s="8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>429</v>
+        <v>316</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>430</v>
+        <v>105</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
+        <v>318</v>
+      </c>
     </row>
     <row r="83" spans="1:12" ht="113.1" customHeight="1">
       <c r="A83" s="8" t="s">
-        <v>432</v>
+        <v>319</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>433</v>
+        <v>320</v>
       </c>
       <c r="C83" s="8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>435</v>
+        <v>321</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>322</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>436</v>
+        <v>64</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="J83" s="9"/>
+        <v>323</v>
+      </c>
       <c r="K83" s="9"/>
     </row>
     <row r="84" spans="1:12" ht="113.1" customHeight="1">
       <c r="A84" s="8" t="s">
-        <v>438</v>
+        <v>324</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>439</v>
+        <v>325</v>
       </c>
       <c r="C84" s="8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>440</v>
+        <v>326</v>
+      </c>
+      <c r="F84" s="20" t="s">
+        <v>327</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="J84" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="K84" s="12"/>
+        <v>328</v>
+      </c>
+      <c r="J84"/>
     </row>
     <row r="85" spans="1:12" ht="113.1" customHeight="1">
       <c r="A85" s="8" t="s">
-        <v>443</v>
+        <v>329</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>444</v>
+        <v>330</v>
       </c>
       <c r="C85" s="8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>446</v>
+        <v>331</v>
+      </c>
+      <c r="F85" s="20" t="s">
+        <v>332</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="J85"/>
+        <v>333</v>
+      </c>
     </row>
     <row r="86" spans="1:12" ht="113.1" customHeight="1">
       <c r="A86" s="8" t="s">
-        <v>448</v>
+        <v>334</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>449</v>
+        <v>335</v>
       </c>
       <c r="C86" s="8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>451</v>
+        <v>336</v>
+      </c>
+      <c r="F86" s="20" t="s">
+        <v>337</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>452</v>
+        <v>64</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
+        <v>338</v>
+      </c>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
     </row>
     <row r="87" spans="1:12" ht="113.1" customHeight="1">
       <c r="A87" s="8" t="s">
-        <v>454</v>
+        <v>339</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>455</v>
+        <v>340</v>
       </c>
       <c r="C87" s="8">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>457</v>
+        <v>341</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>342</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="J87"/>
+        <v>343</v>
+      </c>
+      <c r="K87" s="10"/>
     </row>
     <row r="88" spans="1:12" ht="113.1" customHeight="1">
       <c r="A88" s="8" t="s">
-        <v>459</v>
+        <v>344</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="C88" s="8">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>461</v>
+        <v>345</v>
+      </c>
+      <c r="F88" s="20" t="s">
+        <v>346</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>462</v>
+        <v>273</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
+        <v>347</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="K88" s="12" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="89" spans="1:12" ht="113.1" customHeight="1">
       <c r="A89" s="8" t="s">
-        <v>464</v>
+        <v>350</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>465</v>
+        <v>351</v>
       </c>
       <c r="C89" s="8">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>467</v>
+        <v>3</v>
+      </c>
+      <c r="F89" s="20" t="s">
+        <v>352</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>273</v>
+        <v>34</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="J89"/>
+        <v>353</v>
+      </c>
     </row>
     <row r="90" spans="1:12" ht="113.1" customHeight="1">
       <c r="A90" s="8" t="s">
-        <v>469</v>
+        <v>354</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>460</v>
+        <v>355</v>
       </c>
       <c r="C90" s="8">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>471</v>
+        <v>109</v>
+      </c>
+      <c r="F90" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>472</v>
+        <v>34</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="J90" s="9"/>
+        <v>357</v>
+      </c>
+      <c r="J90"/>
       <c r="K90" s="9"/>
       <c r="L90" s="3"/>
     </row>
     <row r="91" spans="1:12" ht="113.1" customHeight="1">
       <c r="A91" s="8" t="s">
-        <v>474</v>
+        <v>358</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="C91" s="8">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>475</v>
+        <v>109</v>
+      </c>
+      <c r="F91" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>430</v>
+        <v>361</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
+        <v>362</v>
+      </c>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
       <c r="L91" s="9"/>
     </row>
     <row r="92" spans="1:12" ht="113.1" customHeight="1">
       <c r="A92" s="8" t="s">
-        <v>477</v>
+        <v>363</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>478</v>
+        <v>364</v>
       </c>
       <c r="C92" s="8">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>480</v>
+        <v>203</v>
+      </c>
+      <c r="F92" s="20" t="s">
+        <v>365</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>34</v>
+        <v>366</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
+        <v>367</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="K92" s="12" t="s">
+        <v>369</v>
+      </c>
       <c r="L92" s="10"/>
     </row>
     <row r="93" spans="1:12" ht="113.1" customHeight="1">
       <c r="A93" s="8" t="s">
-        <v>482</v>
+        <v>370</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>483</v>
+        <v>210</v>
       </c>
       <c r="C93" s="8">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>485</v>
+        <v>75</v>
+      </c>
+      <c r="F93" s="20" t="s">
+        <v>371</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>486</v>
+        <v>227</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="J93" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="K93" s="12" t="s">
-        <v>489</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
       <c r="L93" s="10"/>
     </row>
     <row r="94" spans="1:12" ht="113.1" customHeight="1">
       <c r="A94" s="8" t="s">
-        <v>490</v>
+        <v>373</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>491</v>
+        <v>374</v>
       </c>
       <c r="C94" s="8">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>493</v>
+        <v>375</v>
+      </c>
+      <c r="F94" s="20" t="s">
+        <v>376</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>452</v>
+        <v>212</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
+        <v>377</v>
+      </c>
+      <c r="J94"/>
     </row>
     <row r="95" spans="1:12" ht="113.1" customHeight="1">
       <c r="A95" s="8" t="s">
-        <v>495</v>
+        <v>378</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>496</v>
+        <v>379</v>
       </c>
       <c r="C95" s="8">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>498</v>
+        <v>380</v>
+      </c>
+      <c r="F95" s="20" t="s">
+        <v>381</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="J95" s="9"/>
-      <c r="K95" s="12"/>
+        <v>382</v>
+      </c>
+      <c r="J95"/>
       <c r="L95" s="10"/>
     </row>
     <row r="96" spans="1:12" ht="113.1" customHeight="1">
       <c r="A96" s="8" t="s">
-        <v>500</v>
+        <v>383</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>501</v>
+        <v>384</v>
       </c>
       <c r="C96" s="8">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>502</v>
+        <v>375</v>
+      </c>
+      <c r="F96" s="20" t="s">
+        <v>385</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>486</v>
+        <v>386</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="J96" s="9"/>
-      <c r="K96" s="12"/>
+        <v>387</v>
+      </c>
+      <c r="J96"/>
       <c r="L96" s="9"/>
     </row>
     <row r="97" spans="1:12" ht="113.1" customHeight="1">
       <c r="A97" s="8" t="s">
-        <v>504</v>
+        <v>388</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="C97" s="8">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>506</v>
+        <v>390</v>
+      </c>
+      <c r="F97" s="20" t="s">
+        <v>391</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>34</v>
+        <v>392</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>507</v>
+        <v>393</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
@@ -13803,159 +14125,153 @@
     </row>
     <row r="98" spans="1:12" ht="113.1" customHeight="1">
       <c r="A98" s="8" t="s">
-        <v>508</v>
+        <v>394</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>509</v>
+        <v>395</v>
       </c>
       <c r="C98" s="8">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>510</v>
+        <v>53</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>512</v>
+        <v>396</v>
+      </c>
+      <c r="F98" s="20" t="s">
+        <v>397</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>199</v>
+        <v>398</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="J98" s="13"/>
-      <c r="K98" s="13"/>
+        <v>399</v>
+      </c>
+      <c r="K98" s="10"/>
       <c r="L98" s="10"/>
     </row>
     <row r="99" spans="1:12" ht="113.1" customHeight="1">
       <c r="A99" s="8" t="s">
-        <v>514</v>
+        <v>400</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>515</v>
+        <v>310</v>
       </c>
       <c r="C99" s="8">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>517</v>
+        <v>396</v>
+      </c>
+      <c r="F99" s="20" t="s">
+        <v>401</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>227</v>
+        <v>398</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="J99" s="10"/>
+        <v>402</v>
+      </c>
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
     </row>
     <row r="100" spans="1:12" ht="113.1" customHeight="1">
       <c r="A100" s="8" t="s">
-        <v>519</v>
+        <v>403</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>520</v>
+        <v>404</v>
       </c>
       <c r="C100" s="8">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>510</v>
+        <v>13</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>522</v>
+        <v>134</v>
+      </c>
+      <c r="F100" s="20" t="s">
+        <v>405</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>486</v>
+        <v>199</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
+        <v>406</v>
+      </c>
       <c r="L100" s="10"/>
     </row>
     <row r="101" spans="1:12" ht="113.1" customHeight="1">
       <c r="A101" s="8" t="s">
-        <v>524</v>
+        <v>407</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>525</v>
+        <v>408</v>
       </c>
       <c r="C101" s="8">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>527</v>
+        <v>409</v>
+      </c>
+      <c r="F101" s="20" t="s">
+        <v>410</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>227</v>
+        <v>411</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="J101" s="9"/>
-      <c r="K101" s="9"/>
+        <v>412</v>
+      </c>
       <c r="L101" s="9"/>
     </row>
     <row r="102" spans="1:12" ht="113.1" customHeight="1">
       <c r="A102" s="8" t="s">
-        <v>529</v>
+        <v>413</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>530</v>
+        <v>414</v>
       </c>
       <c r="C102" s="8">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>532</v>
+        <v>415</v>
+      </c>
+      <c r="F102" s="20" t="s">
+        <v>416</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>63</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
@@ -13963,57 +14279,51 @@
     </row>
     <row r="103" spans="1:12" ht="113.1" customHeight="1">
       <c r="A103" s="8" t="s">
-        <v>534</v>
+        <v>418</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>535</v>
+        <v>419</v>
       </c>
       <c r="C103" s="8">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>536</v>
+        <v>148</v>
+      </c>
+      <c r="F103" s="20" t="s">
+        <v>420</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="J103" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="K103" s="12" t="s">
-        <v>539</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="J103" s="13"/>
+      <c r="K103" s="13"/>
     </row>
     <row r="104" spans="1:12" ht="113.1" customHeight="1">
       <c r="A104" s="8" t="s">
-        <v>540</v>
+        <v>422</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>541</v>
+        <v>423</v>
       </c>
       <c r="C104" s="8">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>542</v>
+        <v>53</v>
+      </c>
+      <c r="E104" s="8"/>
+      <c r="F104" s="20" t="s">
+        <v>424</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>24</v>
@@ -14022,936 +14332,939 @@
         <v>25</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>543</v>
+        <v>425</v>
       </c>
       <c r="J104" s="10"/>
       <c r="K104" s="10"/>
     </row>
     <row r="105" spans="1:12" ht="113.1" customHeight="1">
       <c r="A105" s="8" t="s">
-        <v>544</v>
+        <v>426</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>545</v>
+        <v>427</v>
       </c>
       <c r="C105" s="8">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>547</v>
+        <v>428</v>
+      </c>
+      <c r="F105" s="20" t="s">
+        <v>429</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>486</v>
+        <v>430</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="J105" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="K105" s="12" t="s">
-        <v>550</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
     </row>
     <row r="106" spans="1:12" ht="113.1" customHeight="1">
       <c r="A106" s="8" t="s">
-        <v>551</v>
+        <v>432</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>552</v>
+        <v>433</v>
       </c>
       <c r="C106" s="8">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8" t="s">
-        <v>553</v>
+        <v>53</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="F106" s="20" t="s">
+        <v>435</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>227</v>
+        <v>436</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>554</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
     </row>
     <row r="107" spans="1:12" ht="113.1" customHeight="1">
       <c r="A107" s="8" t="s">
-        <v>555</v>
+        <v>438</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>556</v>
+        <v>439</v>
       </c>
       <c r="C107" s="8">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>557</v>
+        <v>22</v>
+      </c>
+      <c r="F107" s="20" t="s">
+        <v>440</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>227</v>
+        <v>34</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
+        <v>441</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="K107" s="12"/>
     </row>
     <row r="108" spans="1:12" ht="113.1" customHeight="1">
       <c r="A108" s="8" t="s">
-        <v>559</v>
+        <v>443</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>560</v>
+        <v>444</v>
       </c>
       <c r="C108" s="8">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>561</v>
+        <v>445</v>
+      </c>
+      <c r="F108" s="20" t="s">
+        <v>446</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>562</v>
+        <v>447</v>
       </c>
       <c r="J108"/>
     </row>
     <row r="109" spans="1:12" ht="113.1" customHeight="1">
       <c r="A109" s="8" t="s">
-        <v>563</v>
+        <v>448</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>374</v>
+        <v>449</v>
       </c>
       <c r="C109" s="8">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>564</v>
+        <v>450</v>
+      </c>
+      <c r="F109" s="20" t="s">
+        <v>451</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>361</v>
+        <v>452</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>565</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
     </row>
     <row r="110" spans="1:12" ht="113.1" customHeight="1">
       <c r="A110" s="8" t="s">
-        <v>566</v>
+        <v>454</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>389</v>
+        <v>455</v>
       </c>
       <c r="C110" s="8">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>568</v>
+        <v>456</v>
+      </c>
+      <c r="F110" s="20" t="s">
+        <v>457</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="J110" s="10"/>
-      <c r="K110" s="10"/>
+        <v>458</v>
+      </c>
+      <c r="J110"/>
     </row>
     <row r="111" spans="1:12" ht="113.1" customHeight="1">
       <c r="A111" s="8" t="s">
-        <v>570</v>
+        <v>459</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="C111" s="8">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>572</v>
+        <v>250</v>
+      </c>
+      <c r="F111" s="20" t="s">
+        <v>461</v>
       </c>
       <c r="G111" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>573</v>
+        <v>462</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="J111" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="K111" s="6" t="s">
-        <v>576</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
     </row>
     <row r="112" spans="1:12" ht="113.1" customHeight="1">
       <c r="A112" s="8" t="s">
-        <v>577</v>
+        <v>464</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>578</v>
+        <v>465</v>
       </c>
       <c r="C112" s="8">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>580</v>
+        <v>466</v>
+      </c>
+      <c r="F112" s="20" t="s">
+        <v>467</v>
       </c>
       <c r="G112" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>25</v>
+        <v>273</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="J112" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="K112" s="6" t="s">
-        <v>583</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="J112"/>
     </row>
     <row r="113" spans="1:12" ht="113.1" customHeight="1">
       <c r="A113" s="8" t="s">
-        <v>584</v>
+        <v>469</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>585</v>
+        <v>460</v>
       </c>
       <c r="C113" s="8">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>587</v>
+        <v>470</v>
+      </c>
+      <c r="F113" s="20" t="s">
+        <v>471</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>588</v>
+        <v>472</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>589</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
     </row>
     <row r="114" spans="1:12" ht="113.1" customHeight="1">
       <c r="A114" s="8" t="s">
-        <v>590</v>
+        <v>474</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>591</v>
+        <v>320</v>
       </c>
       <c r="C114" s="8">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>592</v>
+        <v>321</v>
+      </c>
+      <c r="F114" s="20" t="s">
+        <v>475</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>34</v>
+        <v>430</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="J114" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="K114" s="6" t="s">
-        <v>595</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="J114" s="13"/>
+      <c r="K114" s="13"/>
     </row>
     <row r="115" spans="1:12" ht="113.1" customHeight="1">
       <c r="A115" s="8" t="s">
-        <v>596</v>
+        <v>477</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>597</v>
+        <v>478</v>
       </c>
       <c r="C115" s="8">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>598</v>
+        <v>479</v>
+      </c>
+      <c r="F115" s="20" t="s">
+        <v>480</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>599</v>
+        <v>481</v>
       </c>
       <c r="J115" s="10"/>
       <c r="K115" s="10"/>
     </row>
     <row r="116" spans="1:12" ht="113.1" customHeight="1">
       <c r="A116" s="8" t="s">
-        <v>600</v>
+        <v>482</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>601</v>
+        <v>483</v>
       </c>
       <c r="C116" s="8">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>602</v>
+        <v>484</v>
+      </c>
+      <c r="F116" s="20" t="s">
+        <v>485</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>199</v>
+        <v>486</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="J116" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="K116" s="6"/>
+        <v>487</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="K116" s="12" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="117" spans="1:12" ht="113.1" customHeight="1">
       <c r="A117" s="8" t="s">
-        <v>605</v>
+        <v>490</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>606</v>
+        <v>491</v>
       </c>
       <c r="C117" s="8">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>608</v>
+        <v>492</v>
+      </c>
+      <c r="F117" s="20" t="s">
+        <v>493</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>361</v>
+        <v>452</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>609</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
     </row>
     <row r="118" spans="1:12" ht="113.1" customHeight="1">
       <c r="A118" s="8" t="s">
-        <v>610</v>
+        <v>495</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>611</v>
+        <v>496</v>
       </c>
       <c r="C118" s="8">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>613</v>
+        <v>497</v>
+      </c>
+      <c r="F118" s="20" t="s">
+        <v>498</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>614</v>
+        <v>34</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>615</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="J118" s="10"/>
+      <c r="K118" s="12"/>
     </row>
     <row r="119" spans="1:12" ht="113.1" customHeight="1">
       <c r="A119" s="8" t="s">
-        <v>616</v>
+        <v>500</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>617</v>
+        <v>501</v>
       </c>
       <c r="C119" s="8">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>619</v>
+        <v>22</v>
+      </c>
+      <c r="F119" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>34</v>
+        <v>486</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>620</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="J119" s="10"/>
+      <c r="K119" s="12"/>
     </row>
     <row r="120" spans="1:12" ht="113.1" customHeight="1">
       <c r="A120" s="8" t="s">
-        <v>621</v>
+        <v>504</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>622</v>
+        <v>505</v>
       </c>
       <c r="C120" s="8">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>624</v>
+        <v>316</v>
+      </c>
+      <c r="F120" s="20" t="s">
+        <v>506</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>614</v>
+        <v>34</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>625</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
     </row>
     <row r="121" spans="1:12" ht="113.1" customHeight="1">
       <c r="A121" s="8" t="s">
-        <v>626</v>
+        <v>508</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>627</v>
+        <v>509</v>
       </c>
       <c r="C121" s="8">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>21</v>
+        <v>510</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>629</v>
+        <v>511</v>
+      </c>
+      <c r="F121" s="20" t="s">
+        <v>512</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="J121" s="6" t="s">
-        <v>631</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="J121" s="13"/>
+      <c r="K121" s="13"/>
     </row>
     <row r="122" spans="1:12" ht="113.1" customHeight="1">
       <c r="A122" s="8" t="s">
-        <v>632</v>
+        <v>514</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>633</v>
+        <v>515</v>
       </c>
       <c r="C122" s="8">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>634</v>
+        <v>516</v>
+      </c>
+      <c r="F122" s="20" t="s">
+        <v>517</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>635</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="J122" s="10"/>
+      <c r="K122" s="10"/>
     </row>
     <row r="123" spans="1:12" ht="113.1" customHeight="1">
       <c r="A123" s="8" t="s">
-        <v>636</v>
+        <v>519</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>637</v>
+        <v>520</v>
       </c>
       <c r="C123" s="8">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>13</v>
+        <v>510</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>638</v>
+        <v>521</v>
+      </c>
+      <c r="F123" s="20" t="s">
+        <v>522</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>141</v>
+        <v>486</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3"/>
+        <v>523</v>
+      </c>
+      <c r="J123" s="10"/>
+      <c r="K123" s="10"/>
     </row>
     <row r="124" spans="1:12" ht="113.1" customHeight="1">
       <c r="A124" s="8" t="s">
-        <v>640</v>
+        <v>524</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>641</v>
+        <v>525</v>
       </c>
       <c r="C124" s="8">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>643</v>
+        <v>526</v>
+      </c>
+      <c r="F124" s="20" t="s">
+        <v>527</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>644</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="J124" s="10"/>
+      <c r="K124" s="10"/>
     </row>
     <row r="125" spans="1:12" ht="113.1" customHeight="1">
       <c r="A125" s="8" t="s">
-        <v>645</v>
+        <v>529</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>646</v>
+        <v>530</v>
       </c>
       <c r="C125" s="8">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>648</v>
+        <v>531</v>
+      </c>
+      <c r="F125" s="20" t="s">
+        <v>532</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>649</v>
+        <v>64</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="J125" s="12"/>
+        <v>533</v>
+      </c>
+      <c r="J125" s="10"/>
       <c r="K125" s="9"/>
     </row>
     <row r="126" spans="1:12" ht="113.1" customHeight="1">
       <c r="A126" s="8" t="s">
-        <v>651</v>
+        <v>534</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="C126" s="8">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>653</v>
+        <v>203</v>
+      </c>
+      <c r="F126" s="20" t="s">
+        <v>536</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="K126" s="9"/>
+        <v>537</v>
+      </c>
+      <c r="J126" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="K126" s="12" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="127" spans="1:12" ht="113.1" customHeight="1">
       <c r="A127" s="8" t="s">
-        <v>655</v>
+        <v>540</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>656</v>
+        <v>541</v>
       </c>
       <c r="C127" s="8">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>657</v>
+        <v>109</v>
+      </c>
+      <c r="F127" s="20" t="s">
+        <v>542</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>658</v>
+        <v>25</v>
       </c>
       <c r="I127" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="J127" s="12"/>
+        <v>543</v>
+      </c>
+      <c r="J127" s="10"/>
       <c r="K127" s="9"/>
       <c r="L127" s="10"/>
     </row>
     <row r="128" spans="1:12" ht="113.1" customHeight="1">
       <c r="A128" s="8" t="s">
-        <v>660</v>
+        <v>544</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>661</v>
+        <v>545</v>
       </c>
       <c r="C128" s="8">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>663</v>
+        <v>546</v>
+      </c>
+      <c r="F128" s="20" t="s">
+        <v>547</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>573</v>
+        <v>486</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>664</v>
-      </c>
-      <c r="J128" s="12"/>
-      <c r="K128" s="9"/>
+        <v>548</v>
+      </c>
+      <c r="J128" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="K128" s="12" t="s">
+        <v>550</v>
+      </c>
       <c r="L128" s="13"/>
     </row>
     <row r="129" spans="1:12" ht="113.1" customHeight="1">
       <c r="A129" s="8" t="s">
-        <v>665</v>
+        <v>551</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>666</v>
+        <v>552</v>
       </c>
       <c r="C129" s="8">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>668</v>
+        <v>21</v>
+      </c>
+      <c r="E129" s="8"/>
+      <c r="F129" s="20" t="s">
+        <v>553</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="I129" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="J129" s="12" t="s">
-        <v>670</v>
-      </c>
-      <c r="K129" s="12" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
       <c r="L129" s="13"/>
     </row>
     <row r="130" spans="1:12" ht="113.1" customHeight="1">
       <c r="A130" s="8" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>255</v>
+        <v>556</v>
       </c>
       <c r="C130" s="8">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>346</v>
+        <v>221</v>
+      </c>
+      <c r="F130" s="20" t="s">
+        <v>557</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>430</v>
+        <v>227</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="J130" s="12"/>
+        <v>558</v>
+      </c>
+      <c r="J130" s="10"/>
       <c r="K130" s="9"/>
       <c r="L130" s="13"/>
     </row>
     <row r="131" spans="1:12" ht="113.1" customHeight="1">
       <c r="A131" s="8" t="s">
-        <v>674</v>
+        <v>559</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>675</v>
+        <v>560</v>
       </c>
       <c r="C131" s="8">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>677</v>
+        <v>109</v>
+      </c>
+      <c r="F131" s="20" t="s">
+        <v>561</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>34</v>
+        <v>430</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="J131" s="12"/>
-      <c r="K131" s="9"/>
+        <v>562</v>
+      </c>
+      <c r="J131"/>
       <c r="L131" s="13"/>
     </row>
     <row r="132" spans="1:12" ht="113.1" customHeight="1">
       <c r="A132" s="8" t="s">
-        <v>679</v>
+        <v>563</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>680</v>
+        <v>374</v>
       </c>
       <c r="C132" s="8">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>681</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>682</v>
+        <v>375</v>
+      </c>
+      <c r="F132" s="20" t="s">
+        <v>564</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>573</v>
+        <v>361</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>683</v>
-      </c>
-      <c r="J132" s="12"/>
-      <c r="K132" s="9"/>
+        <v>565</v>
+      </c>
       <c r="L132" s="13"/>
     </row>
     <row r="133" spans="1:12" ht="113.1" customHeight="1">
       <c r="A133" s="8" t="s">
-        <v>684</v>
+        <v>566</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>685</v>
+        <v>389</v>
       </c>
       <c r="C133" s="8">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>687</v>
+        <v>567</v>
+      </c>
+      <c r="F133" s="20" t="s">
+        <v>568</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>573</v>
+        <v>64</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="J133" s="12"/>
+        <v>569</v>
+      </c>
+      <c r="J133" s="10"/>
       <c r="K133" s="9"/>
       <c r="L133" s="13"/>
     </row>
     <row r="134" spans="1:12" ht="113.1" customHeight="1">
       <c r="A134" s="8" t="s">
-        <v>689</v>
+        <v>570</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>690</v>
+        <v>478</v>
       </c>
       <c r="C134" s="8">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>692</v>
+        <v>571</v>
+      </c>
+      <c r="F134" s="20" t="s">
+        <v>572</v>
       </c>
       <c r="G134" s="8" t="s">
         <v>16</v>
@@ -14960,30 +15273,34 @@
         <v>573</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="J134" s="12"/>
-      <c r="K134" s="9"/>
+        <v>574</v>
+      </c>
+      <c r="J134" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="K134" s="6" t="s">
+        <v>576</v>
+      </c>
       <c r="L134" s="13"/>
     </row>
     <row r="135" spans="1:12" ht="113.1" customHeight="1">
       <c r="A135" s="8" t="s">
-        <v>694</v>
+        <v>577</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>695</v>
+        <v>578</v>
       </c>
       <c r="C135" s="8">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>697</v>
+        <v>579</v>
+      </c>
+      <c r="F135" s="20" t="s">
+        <v>580</v>
       </c>
       <c r="G135" s="8" t="s">
         <v>24</v>
@@ -14992,602 +15309,984 @@
         <v>25</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="J135" s="12"/>
-      <c r="K135" s="9"/>
+        <v>581</v>
+      </c>
+      <c r="J135" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>583</v>
+      </c>
       <c r="L135" s="13"/>
     </row>
     <row r="136" spans="1:12" ht="113.1" customHeight="1">
       <c r="A136" s="8" t="s">
-        <v>699</v>
+        <v>584</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>700</v>
+        <v>585</v>
       </c>
       <c r="C136" s="8">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>701</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>702</v>
+        <v>586</v>
+      </c>
+      <c r="F136" s="20" t="s">
+        <v>587</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>34</v>
+        <v>588</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>703</v>
-      </c>
-      <c r="J136" s="12"/>
-      <c r="K136" s="9"/>
+        <v>589</v>
+      </c>
       <c r="L136" s="13"/>
     </row>
     <row r="137" spans="1:12" ht="113.1" customHeight="1">
       <c r="A137" s="8" t="s">
-        <v>704</v>
+        <v>590</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>705</v>
+        <v>591</v>
       </c>
       <c r="C137" s="8">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="F137" s="8" t="s">
-        <v>707</v>
+        <v>203</v>
+      </c>
+      <c r="F137" s="20" t="s">
+        <v>592</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="I137" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="J137" s="12"/>
-      <c r="K137" s="9"/>
+        <v>593</v>
+      </c>
+      <c r="J137" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="K137" s="6" t="s">
+        <v>595</v>
+      </c>
       <c r="L137" s="13"/>
     </row>
     <row r="138" spans="1:12" ht="113.1" customHeight="1">
       <c r="A138" s="8" t="s">
-        <v>709</v>
+        <v>596</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>710</v>
+        <v>597</v>
       </c>
       <c r="C138" s="8">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="F138" s="8" t="s">
-        <v>712</v>
+        <v>239</v>
+      </c>
+      <c r="F138" s="20" t="s">
+        <v>598</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>713</v>
+        <v>430</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="J138" s="12"/>
+        <v>599</v>
+      </c>
+      <c r="J138" s="10"/>
       <c r="K138" s="9"/>
       <c r="L138" s="13"/>
     </row>
     <row r="139" spans="1:12" ht="113.1" customHeight="1">
       <c r="A139" s="8" t="s">
-        <v>715</v>
+        <v>600</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>705</v>
+        <v>601</v>
       </c>
       <c r="C139" s="8">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="F139" s="8" t="s">
-        <v>716</v>
+        <v>22</v>
+      </c>
+      <c r="F139" s="20" t="s">
+        <v>602</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>573</v>
+        <v>199</v>
       </c>
       <c r="I139" s="8" t="s">
-        <v>717</v>
-      </c>
-      <c r="J139" s="12"/>
-      <c r="K139" s="9"/>
+        <v>603</v>
+      </c>
+      <c r="J139" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="K139" s="6"/>
       <c r="L139" s="13"/>
     </row>
     <row r="140" spans="1:12" ht="113.1" customHeight="1">
       <c r="A140" s="8" t="s">
-        <v>718</v>
+        <v>605</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>719</v>
+        <v>606</v>
       </c>
       <c r="C140" s="8">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F140" s="8" t="s">
-        <v>720</v>
+        <v>607</v>
+      </c>
+      <c r="F140" s="20" t="s">
+        <v>608</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>430</v>
+        <v>361</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>721</v>
-      </c>
-      <c r="J140" s="11" t="s">
-        <v>722</v>
-      </c>
-      <c r="K140" s="12" t="s">
-        <v>723</v>
+        <v>609</v>
       </c>
       <c r="L140" s="13"/>
     </row>
     <row r="141" spans="1:12" ht="113.1" customHeight="1">
       <c r="A141" s="8" t="s">
-        <v>724</v>
+        <v>610</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>725</v>
+        <v>611</v>
       </c>
       <c r="C141" s="8">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>727</v>
+        <v>612</v>
+      </c>
+      <c r="F141" s="20" t="s">
+        <v>613</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>728</v>
+        <v>614</v>
       </c>
       <c r="I141" s="8" t="s">
-        <v>729</v>
-      </c>
-      <c r="J141" s="12"/>
-      <c r="K141" s="9"/>
+        <v>615</v>
+      </c>
       <c r="L141" s="13"/>
     </row>
     <row r="142" spans="1:12" ht="113.1" customHeight="1">
       <c r="A142" s="8" t="s">
-        <v>730</v>
+        <v>616</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>725</v>
+        <v>617</v>
       </c>
       <c r="C142" s="8">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>731</v>
+        <v>618</v>
+      </c>
+      <c r="F142" s="20" t="s">
+        <v>619</v>
       </c>
       <c r="G142" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A143" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="C143" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="F143" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="G143" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H142" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I142" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="J142"/>
-    </row>
-    <row r="143" spans="1:12" ht="113.1" customHeight="1">
-      <c r="A143" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="B143" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="C143" s="8">
-        <v>2022</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
+      <c r="H143" s="8" t="s">
+        <v>614</v>
+      </c>
       <c r="I143" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="J143"/>
-    </row>
-    <row r="144" spans="1:12" s="8" customFormat="1" ht="113.1" customHeight="1">
+        <v>625</v>
+      </c>
+      <c r="J143" s="6"/>
+      <c r="K143"/>
+    </row>
+    <row r="144" spans="1:12" s="4" customFormat="1" ht="113.1" customHeight="1">
       <c r="A144" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="B144" s="17" t="s">
-        <v>751</v>
+        <v>626</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>627</v>
       </c>
       <c r="C144" s="8">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="F144" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="G144" s="17" t="s">
-        <v>749</v>
+        <v>628</v>
+      </c>
+      <c r="F144" s="20" t="s">
+        <v>629</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>746</v>
+        <v>141</v>
       </c>
       <c r="I144" s="8" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="17" customFormat="1" ht="113.1" customHeight="1">
-      <c r="A145" s="17" t="s">
-        <v>752</v>
-      </c>
-      <c r="B145" s="17" t="s">
-        <v>753</v>
-      </c>
-      <c r="C145" s="17">
-        <v>2022</v>
+        <v>630</v>
+      </c>
+      <c r="J144" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="K144"/>
+    </row>
+    <row r="145" spans="1:11" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A145" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="C145" s="8">
+        <v>2013</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F145" s="8" t="s">
-        <v>755</v>
-      </c>
-      <c r="I145" s="15" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
-      <c r="A146" s="17" t="s">
-        <v>757</v>
-      </c>
-      <c r="B146" s="17" t="s">
-        <v>756</v>
-      </c>
-      <c r="C146" s="17">
-        <v>2021</v>
+      <c r="E145" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="F145" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I145" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="J145" s="6"/>
+      <c r="K145"/>
+    </row>
+    <row r="146" spans="1:11" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A146" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="C146" s="8">
+        <v>2013</v>
       </c>
       <c r="D146" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" s="20" t="s">
+        <v>638</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H146" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I146" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+    </row>
+    <row r="147" spans="1:11" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A147" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="C147" s="8">
+        <v>2012</v>
+      </c>
+      <c r="D147" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
-      <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="8"/>
-      <c r="I147" s="8"/>
-    </row>
-    <row r="148" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
-      <c r="A148" s="8"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="8"/>
-    </row>
-    <row r="149" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
-      <c r="A149" s="8"/>
-      <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-      <c r="H149" s="8"/>
-      <c r="I149" s="8"/>
-    </row>
-    <row r="150" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
-      <c r="A150" s="8"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="8"/>
-      <c r="I150" s="8"/>
-    </row>
-    <row r="151" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
-      <c r="A151" s="8"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="8"/>
-    </row>
-    <row r="152" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
-      <c r="A152" s="8"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
-      <c r="I152" s="8"/>
-    </row>
-    <row r="153" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
-      <c r="A153" s="8"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
-      <c r="I153" s="8"/>
-    </row>
-    <row r="154" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="8"/>
-    </row>
-    <row r="155" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
-      <c r="A155" s="8"/>
-      <c r="B155" s="8"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
-      <c r="I155" s="8"/>
-    </row>
-    <row r="156" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
-      <c r="I156" s="8"/>
-    </row>
-    <row r="157" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
-      <c r="A157" s="8"/>
-      <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
-      <c r="I157" s="8"/>
-    </row>
-    <row r="158" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
-      <c r="A158" s="8"/>
-      <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
-      <c r="I158" s="8"/>
-    </row>
-    <row r="159" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
-      <c r="A159" s="8"/>
-      <c r="B159" s="8"/>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="8"/>
-    </row>
-    <row r="160" spans="1:9" s="4" customFormat="1" ht="113.1" customHeight="1">
-      <c r="A160" s="8"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="8"/>
-    </row>
-    <row r="161" spans="1:10" s="4" customFormat="1">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="F161" s="16"/>
-      <c r="G161" s="16"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="6"/>
-    </row>
-    <row r="162" spans="1:10" s="4" customFormat="1">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="F162" s="16"/>
-      <c r="G162" s="16"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
-      <c r="J162" s="6"/>
-    </row>
-    <row r="163" spans="1:10" s="4" customFormat="1">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="F163" s="16"/>
-      <c r="G163" s="16"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="6"/>
-    </row>
-    <row r="164" spans="1:10" s="4" customFormat="1">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="F164" s="16"/>
-      <c r="G164" s="16"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="6"/>
-    </row>
-    <row r="165" spans="1:10" s="4" customFormat="1">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="F165" s="16"/>
-      <c r="G165" s="16"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-      <c r="J165" s="6"/>
-    </row>
-    <row r="166" spans="1:10" s="4" customFormat="1">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="F166" s="16"/>
-      <c r="G166" s="16"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="6"/>
-    </row>
-    <row r="167" spans="1:10" s="4" customFormat="1">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="F167" s="16"/>
-      <c r="G167" s="16"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="3"/>
-      <c r="J167" s="6"/>
-    </row>
-    <row r="168" spans="1:10" s="4" customFormat="1">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="F168" s="16"/>
-      <c r="G168" s="16"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
-      <c r="J168" s="6"/>
+      <c r="E147" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="F147" s="20" t="s">
+        <v>643</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H147" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I147" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="J147" s="6"/>
+      <c r="K147"/>
+    </row>
+    <row r="148" spans="1:11" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A148" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="C148" s="8">
+        <v>2012</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="F148" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H148" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="I148" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="J148" s="12"/>
+      <c r="K148" s="10"/>
+    </row>
+    <row r="149" spans="1:11" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A149" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="C149" s="8">
+        <v>2012</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="F149" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H149" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I149" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="J149" s="6"/>
+      <c r="K149" s="10"/>
+    </row>
+    <row r="150" spans="1:11" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A150" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="C150" s="8">
+        <v>2012</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="F150" s="20" t="s">
+        <v>657</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H150" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="I150" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="J150" s="12"/>
+      <c r="K150" s="10"/>
+    </row>
+    <row r="151" spans="1:11" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A151" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="C151" s="8">
+        <v>2012</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="F151" s="20" t="s">
+        <v>663</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="I151" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="J151" s="12"/>
+      <c r="K151" s="10"/>
+    </row>
+    <row r="152" spans="1:11" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A152" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="C152" s="8">
+        <v>2012</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="F152" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="G152" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H152" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="I152" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="J152" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="K152" s="12" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A153" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C153" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="F153" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H153" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="I153" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="J153" s="12"/>
+      <c r="K153" s="10"/>
+    </row>
+    <row r="154" spans="1:11" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A154" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="C154" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="F154" s="20" t="s">
+        <v>677</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H154" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I154" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="J154" s="12"/>
+      <c r="K154" s="10"/>
+    </row>
+    <row r="155" spans="1:11" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A155" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="C155" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="F155" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="G155" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H155" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="I155" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="J155" s="12"/>
+      <c r="K155" s="10"/>
+    </row>
+    <row r="156" spans="1:11" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A156" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="C156" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="F156" s="20" t="s">
+        <v>687</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H156" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="I156" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="J156" s="12"/>
+      <c r="K156" s="10"/>
+    </row>
+    <row r="157" spans="1:11" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A157" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="C157" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="F157" s="20" t="s">
+        <v>692</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H157" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="I157" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="J157" s="12"/>
+      <c r="K157" s="10"/>
+    </row>
+    <row r="158" spans="1:11" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A158" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="C158" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="F158" s="20" t="s">
+        <v>697</v>
+      </c>
+      <c r="G158" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H158" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I158" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="J158" s="12"/>
+      <c r="K158" s="10"/>
+    </row>
+    <row r="159" spans="1:11" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A159" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="C159" s="8">
+        <v>2010</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="F159" s="20" t="s">
+        <v>702</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H159" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I159" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="J159" s="12"/>
+      <c r="K159" s="10"/>
+    </row>
+    <row r="160" spans="1:11" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A160" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="C160" s="8">
+        <v>2010</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="F160" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="G160" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H160" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I160" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="J160" s="12"/>
+      <c r="K160" s="10"/>
+    </row>
+    <row r="161" spans="1:11" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A161" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C161" s="8">
+        <v>2010</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="F161" s="20" t="s">
+        <v>712</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H161" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="I161" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="J161" s="12"/>
+      <c r="K161" s="10"/>
+    </row>
+    <row r="162" spans="1:11" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A162" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="C162" s="8">
+        <v>2008</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="F162" s="20" t="s">
+        <v>716</v>
+      </c>
+      <c r="G162" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H162" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="I162" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="J162" s="12"/>
+      <c r="K162" s="10"/>
+    </row>
+    <row r="163" spans="1:11" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A163" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="C163" s="8">
+        <v>2007</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F163" s="20" t="s">
+        <v>720</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H163" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="I163" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="J163" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="K163" s="12" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A164" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="C164" s="8">
+        <v>2007</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="F164" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="G164" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H164" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="I164" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="J164" s="12"/>
+      <c r="K164" s="10"/>
+    </row>
+    <row r="165" spans="1:11" s="4" customFormat="1" ht="113.1" customHeight="1">
+      <c r="A165" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="C165" s="8">
+        <v>2006</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="F165" s="20" t="s">
+        <v>731</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H165" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I165" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="J165"/>
+      <c r="K165"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K142">
-    <sortCondition descending="1" ref="C2:C142"/>
-    <sortCondition ref="A2:A142"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K165">
+    <sortCondition descending="1" ref="C2:C165"/>
+    <sortCondition ref="A2:A165"/>
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J121" r:id="rId1" tooltip="http://sailhome.cs.queensu.ca/replication/sthomas/TSE2013" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J129" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J105" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J114" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J93" r:id="rId6" tooltip="https://bitbucket.org/amlfse/amldata/downloads/amldata.7z" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J112" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J111" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J42" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J36" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J103" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J65" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J69" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J84" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J140" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F144" r:id="rId17" xr:uid="{A85ED5DA-6221-414B-A462-2685C3B906C6}"/>
-    <hyperlink ref="F145" r:id="rId18" display="https://dl.acm.org/doi/10.1145/128765.128770" xr:uid="{B8C1E87C-DF03-4078-9352-32227C360C62}"/>
-    <hyperlink ref="F146" r:id="rId19" display="https://dl.acm.org/doi/10.1145/3453933.3454021" xr:uid="{6CC18420-388E-4A79-AB6E-559A833DDB30}"/>
+    <hyperlink ref="J144" r:id="rId1" tooltip="http://sailhome.cs.queensu.ca/replication/sthomas/TSE2013" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J152" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J128" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J137" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J27" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J116" r:id="rId6" tooltip="https://bitbucket.org/amlfse/amldata/downloads/amldata.7z" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J135" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J134" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J65" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J59" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J126" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J88" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J92" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J107" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J163" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I23" r:id="rId17" display="http://arxiv.org/abs/2203.03544" xr:uid="{B9324520-914B-42D2-9D04-E2992715544E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/library.xlsx
+++ b/library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\buglocalization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439147B9-D410-4591-99A4-002D0D002F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502737DE-D2F3-4D80-A5A4-141C6DCE61CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20565" yWindow="-13245" windowWidth="24000" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18750" yWindow="-15555" windowWidth="24000" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="856">
   <si>
     <t>title</t>
   </si>
@@ -2905,11 +2905,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>IEEE TRANSACTIONS ON RELIABILITY 1
-A</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Bug localization, which refers to finding buggy files for a given bug report, is tedious and time-consuming for practical projects with tens of millions of lines of code. Recently, many information retrieval (IR)-based bug localization (IRBL) approaches have been proposed to formulate this problem as a search problem. Despite the excellent performance claimed in the literature, there is hardly any approach adopted in the industrial community to the best of our knowledge. The challenge of adapting IRBL to industrial projects is that the projects have different characteristics compared to open-source projects used in the literatures, which have not been taken into consideration in previous studies. In this paper, we re-implement six state-of-the-art IRBL techniques and evaluate their effectiveness on 10 Huawei projects consisting of 161,967 source code files and 24,437 bug reports in total. Localizing bugs in these projects faces several challenges, including the software product line, the bilingual issue, and the quality of bug reports, etc. We conduct comprehensive experiments to reveal how these factors affect IRBL effectiveness, and modify the data set to test whether some factors could be overcome, if additional information or hints are given. Based on the insights found in our work, we suggest potential improvements on IRBL techniques. This study is also expected to provide empirical evidences for other software tasks which face the same fundamental challenges.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3330,12 +3325,43 @@
     <t>https://doi.org/10.1007/s10618-021-00755-7</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>DreamLoc: A Deep Relevance Matching-Based Framework for bug Localization</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE TRANSACTIONS ON RELIABILITY</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkish Journal of Electrical Engineering and Computer Sciences</t>
+  </si>
+  <si>
+    <t>IST</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICPC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soft Computing</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM SIGSOFT Software Engineering Notes</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3406,15 +3432,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3440,7 +3457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3481,9 +3498,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -11211,7 +11225,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11245,7 +11259,7 @@
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -11278,15 +11292,15 @@
         <v>751</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>752</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="17" t="s">
-        <v>756</v>
+        <v>849</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -11306,15 +11320,15 @@
         <v>751</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="22" t="s">
-        <v>847</v>
+      <c r="F3" s="21" t="s">
+        <v>846</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="17" t="s">
         <v>755</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -11324,128 +11338,132 @@
         <v>744</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C4" s="8">
         <v>2022</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="22" t="s">
-        <v>845</v>
+      <c r="F4" s="21" t="s">
+        <v>844</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>767</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>768</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="113.1" customHeight="1">
       <c r="A5" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>793</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>794</v>
       </c>
       <c r="C5" s="8">
         <v>2022</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="22" t="s">
-        <v>796</v>
+      <c r="F5" s="21" t="s">
+        <v>795</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="17" t="s">
         <v>742</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="113.1" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C6" s="8">
         <v>2022</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="22" t="s">
-        <v>833</v>
+      <c r="F6" s="21" t="s">
+        <v>832</v>
       </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="17"/>
+      <c r="H6" s="17" t="s">
+        <v>776</v>
+      </c>
       <c r="I6" s="17" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="113.1" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C7" s="8">
         <v>2022</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="22" t="s">
-        <v>836</v>
+      <c r="F7" s="21" t="s">
+        <v>835</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="17"/>
+      <c r="H7" s="17" t="s">
+        <v>850</v>
+      </c>
       <c r="I7" s="17" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="113.1" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>797</v>
+        <v>848</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C8" s="8">
         <v>2022</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="21" t="s">
-        <v>799</v>
+      <c r="F8" s="20" t="s">
+        <v>798</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="17" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -11464,8 +11482,8 @@
         <v>13</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="22" t="s">
-        <v>848</v>
+      <c r="F9" s="21" t="s">
+        <v>847</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="17" t="s">
@@ -11479,20 +11497,20 @@
     </row>
     <row r="10" spans="1:12" ht="113.1" customHeight="1">
       <c r="A10" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>759</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>760</v>
       </c>
       <c r="C10" s="8">
         <v>2021</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="19" t="s">
         <v>761</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="20" t="s">
-        <v>762</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="17" t="s">
@@ -11506,10 +11524,10 @@
     </row>
     <row r="11" spans="1:12" ht="113.1" customHeight="1">
       <c r="A11" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>763</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>764</v>
       </c>
       <c r="C11" s="8">
         <v>2021</v>
@@ -11518,42 +11536,42 @@
         <v>751</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="22" t="s">
-        <v>846</v>
+      <c r="F11" s="21" t="s">
+        <v>845</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="17" t="s">
         <v>755</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="113.1" customHeight="1">
       <c r="A12" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>769</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>770</v>
       </c>
       <c r="C12" s="8">
         <v>2021</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="22" t="s">
-        <v>844</v>
+      <c r="F12" s="21" t="s">
+        <v>843</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="I12" s="17" t="s">
         <v>771</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>772</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -11561,295 +11579,307 @@
     </row>
     <row r="13" spans="1:12" ht="113.1" customHeight="1">
       <c r="A13" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>773</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>774</v>
       </c>
       <c r="C13" s="8">
         <v>2021</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="21" t="s">
         <v>775</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="22" t="s">
-        <v>776</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="I13" s="17" t="s">
         <v>777</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>778</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:12" ht="113.1" customHeight="1">
       <c r="A14" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>779</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>780</v>
       </c>
       <c r="C14" s="8">
         <v>2021</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="22" t="s">
-        <v>843</v>
+      <c r="F14" s="21" t="s">
+        <v>842</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="15" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="113.1" customHeight="1">
       <c r="A15" s="17" t="s">
+        <v>783</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>784</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>785</v>
       </c>
       <c r="C15" s="8">
         <v>2021</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="22" t="s">
-        <v>788</v>
+      <c r="F15" s="21" t="s">
+        <v>787</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="I15" s="17" t="s">
         <v>786</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>787</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="113.1" customHeight="1">
       <c r="A16" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>789</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>790</v>
       </c>
       <c r="C16" s="8">
         <v>2021</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="22" t="s">
-        <v>842</v>
+      <c r="F16" s="21" t="s">
+        <v>841</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="17" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="113.1" customHeight="1">
       <c r="A17" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>801</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>802</v>
       </c>
       <c r="C17" s="8">
         <v>2021</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="20" t="s">
-        <v>805</v>
+      <c r="F17" s="19" t="s">
+        <v>804</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="I17" s="17" t="s">
         <v>803</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>804</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="113.1" customHeight="1">
       <c r="A18" s="17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C18" s="8">
         <v>2021</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="22" t="s">
-        <v>841</v>
+      <c r="F18" s="21" t="s">
+        <v>840</v>
       </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="17"/>
+      <c r="H18" s="15" t="s">
+        <v>851</v>
+      </c>
       <c r="I18" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="113.1" customHeight="1">
       <c r="A19" s="17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C19" s="8">
         <v>2021</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="22" t="s">
-        <v>826</v>
+      <c r="F19" s="21" t="s">
+        <v>825</v>
       </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="17"/>
+      <c r="H19" s="17" t="s">
+        <v>852</v>
+      </c>
       <c r="I19" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" ht="113.1" customHeight="1">
       <c r="A20" s="17" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C20" s="8">
         <v>2021</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="22" t="s">
-        <v>840</v>
+      <c r="F20" s="21" t="s">
+        <v>839</v>
       </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="17"/>
+      <c r="H20" s="17" t="s">
+        <v>853</v>
+      </c>
       <c r="I20" s="17" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="113.1" customHeight="1">
       <c r="A21" s="17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C21" s="8">
         <v>2021</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="22" t="s">
-        <v>829</v>
+      <c r="F21" s="21" t="s">
+        <v>828</v>
       </c>
       <c r="G21" s="8"/>
-      <c r="H21" s="17"/>
+      <c r="H21" s="17" t="s">
+        <v>852</v>
+      </c>
       <c r="I21" s="17" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" ht="113.1" customHeight="1">
       <c r="A22" s="17" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C22" s="8">
         <v>2021</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="22" t="s">
-        <v>831</v>
+      <c r="F22" s="21" t="s">
+        <v>830</v>
       </c>
       <c r="G22" s="8"/>
-      <c r="H22" s="17"/>
+      <c r="H22" s="17" t="s">
+        <v>854</v>
+      </c>
       <c r="I22" s="17" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" ht="113.1" customHeight="1">
       <c r="A23" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C23" s="8">
         <v>2021</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="22" t="s">
-        <v>839</v>
+      <c r="F23" s="21" t="s">
+        <v>838</v>
       </c>
       <c r="G23" s="8"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18" t="s">
-        <v>834</v>
+      <c r="H23" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>833</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" ht="113.1" customHeight="1">
       <c r="A24" s="17" t="s">
+        <v>815</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>816</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>817</v>
       </c>
       <c r="C24" s="8">
         <v>2021</v>
@@ -11858,13 +11888,15 @@
         <v>751</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="22" t="s">
-        <v>838</v>
+      <c r="F24" s="21" t="s">
+        <v>837</v>
       </c>
       <c r="G24" s="8"/>
-      <c r="H24" s="17"/>
+      <c r="H24" s="17" t="s">
+        <v>755</v>
+      </c>
       <c r="I24" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -11885,7 +11917,7 @@
       <c r="E25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="8" t="s">
@@ -11916,7 +11948,7 @@
       <c r="E26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="8" t="s">
@@ -11951,7 +11983,7 @@
       <c r="E27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>33</v>
       </c>
       <c r="G27" s="8" t="s">
@@ -11986,7 +12018,7 @@
       <c r="E28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>41</v>
       </c>
       <c r="G28" s="8" t="s">
@@ -12017,7 +12049,7 @@
       <c r="E29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>48</v>
       </c>
       <c r="G29" s="8" t="s">
@@ -12047,7 +12079,7 @@
       <c r="E30" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="19" t="s">
         <v>55</v>
       </c>
       <c r="G30" s="8" t="s">
@@ -12078,7 +12110,7 @@
       <c r="E31" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="19" t="s">
         <v>62</v>
       </c>
       <c r="G31" s="8" t="s">
@@ -12109,7 +12141,7 @@
       <c r="E32" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="19" t="s">
         <v>69</v>
       </c>
       <c r="G32" s="8" t="s">
@@ -12140,7 +12172,7 @@
       <c r="E33" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="19" t="s">
         <v>76</v>
       </c>
       <c r="G33" s="8" t="s">
@@ -12171,7 +12203,7 @@
       <c r="E34" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="19" t="s">
         <v>81</v>
       </c>
       <c r="G34" s="8" t="s">
@@ -12201,7 +12233,7 @@
       <c r="E35" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="19" t="s">
         <v>87</v>
       </c>
       <c r="G35" s="8" t="s">
@@ -12233,7 +12265,7 @@
       <c r="E36" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="19" t="s">
         <v>91</v>
       </c>
       <c r="G36" s="8" t="s">
@@ -12265,7 +12297,7 @@
       <c r="E37" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="19" t="s">
         <v>97</v>
       </c>
       <c r="G37" s="8" t="s">
@@ -12296,7 +12328,7 @@
       <c r="E38" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="19" t="s">
         <v>103</v>
       </c>
       <c r="G38" s="8" t="s">
@@ -12327,7 +12359,7 @@
       <c r="E39" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="19" t="s">
         <v>110</v>
       </c>
       <c r="G39" s="8" t="s">
@@ -12357,7 +12389,7 @@
       <c r="E40" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="19" t="s">
         <v>113</v>
       </c>
       <c r="G40" s="8" t="s">
@@ -12388,7 +12420,7 @@
       <c r="E41" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="19" t="s">
         <v>118</v>
       </c>
       <c r="G41" s="8" t="s">
@@ -12421,7 +12453,7 @@
       <c r="E42" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="19" t="s">
         <v>124</v>
       </c>
       <c r="G42" s="8" t="s">
@@ -12452,7 +12484,7 @@
       <c r="E43" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="19" t="s">
         <v>130</v>
       </c>
       <c r="G43" s="8" t="s">
@@ -12483,7 +12515,7 @@
       <c r="E44" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F44" s="19" t="s">
         <v>135</v>
       </c>
       <c r="G44" s="8" t="s">
@@ -12514,7 +12546,7 @@
       <c r="E45" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="19" t="s">
         <v>139</v>
       </c>
       <c r="G45" s="8" t="s">
@@ -12545,7 +12577,7 @@
       <c r="E46" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F46" s="20" t="s">
+      <c r="F46" s="19" t="s">
         <v>145</v>
       </c>
       <c r="G46" s="8" t="s">
@@ -12574,7 +12606,7 @@
       <c r="E47" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="19" t="s">
         <v>118</v>
       </c>
       <c r="G47" s="8" t="s">
@@ -12605,7 +12637,7 @@
       <c r="E48" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="F48" s="19" t="s">
         <v>153</v>
       </c>
       <c r="G48" s="8" t="s">
@@ -12636,7 +12668,7 @@
       <c r="E49" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F49" s="19" t="s">
         <v>158</v>
       </c>
       <c r="G49" s="8" t="s">
@@ -12667,7 +12699,7 @@
       <c r="E50" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="19" t="s">
         <v>163</v>
       </c>
       <c r="G50" s="8" t="s">
@@ -12696,7 +12728,7 @@
       <c r="E51" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="19" t="s">
         <v>168</v>
       </c>
       <c r="G51" s="8" t="s">
@@ -12727,7 +12759,7 @@
       <c r="E52" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="F52" s="19" t="s">
         <v>173</v>
       </c>
       <c r="G52" s="8" t="s">
@@ -12758,7 +12790,7 @@
       <c r="E53" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="F53" s="19" t="s">
         <v>177</v>
       </c>
       <c r="G53" s="8" t="s">
@@ -12788,7 +12820,7 @@
       <c r="E54" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="F54" s="19" t="s">
         <v>181</v>
       </c>
       <c r="G54" s="8" t="s">
@@ -12819,7 +12851,7 @@
       <c r="E55" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="F55" s="19" t="s">
         <v>184</v>
       </c>
       <c r="G55" s="8" t="s">
@@ -12849,7 +12881,7 @@
       <c r="E56" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F56" s="20" t="s">
+      <c r="F56" s="19" t="s">
         <v>189</v>
       </c>
       <c r="G56" s="8" t="s">
@@ -12880,7 +12912,7 @@
       <c r="E57" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F57" s="20" t="s">
+      <c r="F57" s="19" t="s">
         <v>193</v>
       </c>
       <c r="G57" s="8" t="s">
@@ -12910,7 +12942,7 @@
       <c r="E58" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F58" s="20" t="s">
+      <c r="F58" s="19" t="s">
         <v>198</v>
       </c>
       <c r="G58" s="8" t="s">
@@ -12941,7 +12973,7 @@
       <c r="E59" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F59" s="20" t="s">
+      <c r="F59" s="19" t="s">
         <v>204</v>
       </c>
       <c r="G59" s="8" t="s">
@@ -12976,7 +13008,7 @@
       <c r="E60" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F60" s="20" t="s">
+      <c r="F60" s="19" t="s">
         <v>211</v>
       </c>
       <c r="G60" s="8" t="s">
@@ -13007,7 +13039,7 @@
       <c r="E61" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F61" s="20" t="s">
+      <c r="F61" s="19" t="s">
         <v>217</v>
       </c>
       <c r="G61" s="8" t="s">
@@ -13037,7 +13069,7 @@
       <c r="E62" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="F62" s="19" t="s">
         <v>222</v>
       </c>
       <c r="G62" s="8" t="s">
@@ -13067,7 +13099,7 @@
       <c r="E63" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F63" s="19" t="s">
         <v>226</v>
       </c>
       <c r="G63" s="8" t="s">
@@ -13096,7 +13128,7 @@
       <c r="E64" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F64" s="20" t="s">
+      <c r="F64" s="19" t="s">
         <v>230</v>
       </c>
       <c r="G64" s="8" t="s">
@@ -13125,7 +13157,7 @@
       <c r="E65" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F65" s="19" t="s">
         <v>234</v>
       </c>
       <c r="G65" s="8" t="s">
@@ -13161,7 +13193,7 @@
       <c r="E66" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="F66" s="20" t="s">
+      <c r="F66" s="19" t="s">
         <v>240</v>
       </c>
       <c r="G66" s="8" t="s">
@@ -13190,7 +13222,7 @@
       <c r="E67" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F67" s="20" t="s">
+      <c r="F67" s="19" t="s">
         <v>245</v>
       </c>
       <c r="G67" s="8" t="s">
@@ -13219,7 +13251,7 @@
       <c r="E68" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="F68" s="20" t="s">
+      <c r="F68" s="19" t="s">
         <v>251</v>
       </c>
       <c r="G68" s="8" t="s">
@@ -13249,7 +13281,7 @@
       <c r="E69" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F69" s="20" t="s">
+      <c r="F69" s="19" t="s">
         <v>256</v>
       </c>
       <c r="G69" s="8" t="s">
@@ -13278,7 +13310,7 @@
       <c r="E70" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="F70" s="20" t="s">
+      <c r="F70" s="19" t="s">
         <v>262</v>
       </c>
       <c r="G70" s="8" t="s">
@@ -13307,7 +13339,7 @@
       <c r="E71" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="F71" s="20" t="s">
+      <c r="F71" s="19" t="s">
         <v>267</v>
       </c>
       <c r="G71" s="8" t="s">
@@ -13336,7 +13368,7 @@
       <c r="E72" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="F72" s="20" t="s">
+      <c r="F72" s="19" t="s">
         <v>272</v>
       </c>
       <c r="G72" s="8" t="s">
@@ -13366,7 +13398,7 @@
       <c r="E73" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F73" s="20" t="s">
+      <c r="F73" s="19" t="s">
         <v>277</v>
       </c>
       <c r="G73" s="8" t="s">
@@ -13397,7 +13429,7 @@
       <c r="E74" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F74" s="20" t="s">
+      <c r="F74" s="19" t="s">
         <v>281</v>
       </c>
       <c r="G74" s="8" t="s">
@@ -13428,7 +13460,7 @@
       <c r="E75" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="F75" s="20" t="s">
+      <c r="F75" s="19" t="s">
         <v>285</v>
       </c>
       <c r="G75" s="8" t="s">
@@ -13459,7 +13491,7 @@
       <c r="E76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F76" s="20" t="s">
+      <c r="F76" s="19" t="s">
         <v>288</v>
       </c>
       <c r="G76" s="8" t="s">
@@ -13490,7 +13522,7 @@
       <c r="E77" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="F77" s="20" t="s">
+      <c r="F77" s="19" t="s">
         <v>293</v>
       </c>
       <c r="G77" s="8" t="s">
@@ -13520,7 +13552,7 @@
       <c r="E78" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F78" s="20" t="s">
+      <c r="F78" s="19" t="s">
         <v>297</v>
       </c>
       <c r="G78" s="8" t="s">
@@ -13551,7 +13583,7 @@
       <c r="E79" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="F79" s="20" t="s">
+      <c r="F79" s="19" t="s">
         <v>301</v>
       </c>
       <c r="G79" s="8" t="s">
@@ -13581,7 +13613,7 @@
       <c r="E80" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="F80" s="20" t="s">
+      <c r="F80" s="19" t="s">
         <v>307</v>
       </c>
       <c r="G80" s="8" t="s">
@@ -13611,7 +13643,7 @@
       <c r="E81" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="F81" s="20" t="s">
+      <c r="F81" s="19" t="s">
         <v>312</v>
       </c>
       <c r="G81" s="8" t="s">
@@ -13640,7 +13672,7 @@
       <c r="E82" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="F82" s="20" t="s">
+      <c r="F82" s="19" t="s">
         <v>317</v>
       </c>
       <c r="G82" s="8" t="s">
@@ -13669,7 +13701,7 @@
       <c r="E83" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="F83" s="20" t="s">
+      <c r="F83" s="19" t="s">
         <v>322</v>
       </c>
       <c r="G83" s="8" t="s">
@@ -13699,7 +13731,7 @@
       <c r="E84" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="F84" s="20" t="s">
+      <c r="F84" s="19" t="s">
         <v>327</v>
       </c>
       <c r="G84" s="8" t="s">
@@ -13729,7 +13761,7 @@
       <c r="E85" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="F85" s="20" t="s">
+      <c r="F85" s="19" t="s">
         <v>332</v>
       </c>
       <c r="G85" s="8" t="s">
@@ -13758,7 +13790,7 @@
       <c r="E86" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="F86" s="20" t="s">
+      <c r="F86" s="19" t="s">
         <v>337</v>
       </c>
       <c r="G86" s="8" t="s">
@@ -13789,7 +13821,7 @@
       <c r="E87" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="F87" s="20" t="s">
+      <c r="F87" s="19" t="s">
         <v>342</v>
       </c>
       <c r="G87" s="8" t="s">
@@ -13819,7 +13851,7 @@
       <c r="E88" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="F88" s="20" t="s">
+      <c r="F88" s="19" t="s">
         <v>346</v>
       </c>
       <c r="G88" s="8" t="s">
@@ -13854,7 +13886,7 @@
       <c r="E89" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="20" t="s">
+      <c r="F89" s="19" t="s">
         <v>352</v>
       </c>
       <c r="G89" s="8" t="s">
@@ -13883,7 +13915,7 @@
       <c r="E90" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F90" s="20" t="s">
+      <c r="F90" s="19" t="s">
         <v>356</v>
       </c>
       <c r="G90" s="8" t="s">
@@ -13915,7 +13947,7 @@
       <c r="E91" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F91" s="20" t="s">
+      <c r="F91" s="19" t="s">
         <v>360</v>
       </c>
       <c r="G91" s="8" t="s">
@@ -13947,7 +13979,7 @@
       <c r="E92" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F92" s="20" t="s">
+      <c r="F92" s="19" t="s">
         <v>365</v>
       </c>
       <c r="G92" s="8" t="s">
@@ -13983,7 +14015,7 @@
       <c r="E93" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F93" s="20" t="s">
+      <c r="F93" s="19" t="s">
         <v>371</v>
       </c>
       <c r="G93" s="8" t="s">
@@ -14015,7 +14047,7 @@
       <c r="E94" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="F94" s="20" t="s">
+      <c r="F94" s="19" t="s">
         <v>376</v>
       </c>
       <c r="G94" s="8" t="s">
@@ -14045,7 +14077,7 @@
       <c r="E95" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="F95" s="20" t="s">
+      <c r="F95" s="19" t="s">
         <v>381</v>
       </c>
       <c r="G95" s="8" t="s">
@@ -14076,7 +14108,7 @@
       <c r="E96" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="F96" s="20" t="s">
+      <c r="F96" s="19" t="s">
         <v>385</v>
       </c>
       <c r="G96" s="8" t="s">
@@ -14107,7 +14139,7 @@
       <c r="E97" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="F97" s="20" t="s">
+      <c r="F97" s="19" t="s">
         <v>391</v>
       </c>
       <c r="G97" s="8" t="s">
@@ -14139,7 +14171,7 @@
       <c r="E98" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="F98" s="20" t="s">
+      <c r="F98" s="19" t="s">
         <v>397</v>
       </c>
       <c r="G98" s="8" t="s">
@@ -14170,7 +14202,7 @@
       <c r="E99" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="F99" s="20" t="s">
+      <c r="F99" s="19" t="s">
         <v>401</v>
       </c>
       <c r="G99" s="8" t="s">
@@ -14201,7 +14233,7 @@
       <c r="E100" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F100" s="20" t="s">
+      <c r="F100" s="19" t="s">
         <v>405</v>
       </c>
       <c r="G100" s="8" t="s">
@@ -14231,7 +14263,7 @@
       <c r="E101" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="F101" s="20" t="s">
+      <c r="F101" s="19" t="s">
         <v>410</v>
       </c>
       <c r="G101" s="8" t="s">
@@ -14261,7 +14293,7 @@
       <c r="E102" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="F102" s="20" t="s">
+      <c r="F102" s="19" t="s">
         <v>416</v>
       </c>
       <c r="G102" s="8" t="s">
@@ -14293,7 +14325,7 @@
       <c r="E103" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F103" s="20" t="s">
+      <c r="F103" s="19" t="s">
         <v>420</v>
       </c>
       <c r="G103" s="8" t="s">
@@ -14322,7 +14354,7 @@
         <v>53</v>
       </c>
       <c r="E104" s="8"/>
-      <c r="F104" s="20" t="s">
+      <c r="F104" s="19" t="s">
         <v>424</v>
       </c>
       <c r="G104" s="8" t="s">
@@ -14353,7 +14385,7 @@
       <c r="E105" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="F105" s="20" t="s">
+      <c r="F105" s="19" t="s">
         <v>429</v>
       </c>
       <c r="G105" s="8" t="s">
@@ -14384,7 +14416,7 @@
       <c r="E106" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="F106" s="20" t="s">
+      <c r="F106" s="19" t="s">
         <v>435</v>
       </c>
       <c r="G106" s="8" t="s">
@@ -14415,7 +14447,7 @@
       <c r="E107" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F107" s="20" t="s">
+      <c r="F107" s="19" t="s">
         <v>440</v>
       </c>
       <c r="G107" s="8" t="s">
@@ -14448,7 +14480,7 @@
       <c r="E108" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F108" s="20" t="s">
+      <c r="F108" s="19" t="s">
         <v>446</v>
       </c>
       <c r="G108" s="8" t="s">
@@ -14478,7 +14510,7 @@
       <c r="E109" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="F109" s="20" t="s">
+      <c r="F109" s="19" t="s">
         <v>451</v>
       </c>
       <c r="G109" s="8" t="s">
@@ -14509,7 +14541,7 @@
       <c r="E110" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="F110" s="20" t="s">
+      <c r="F110" s="19" t="s">
         <v>457</v>
       </c>
       <c r="G110" s="8" t="s">
@@ -14539,7 +14571,7 @@
       <c r="E111" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="F111" s="20" t="s">
+      <c r="F111" s="19" t="s">
         <v>461</v>
       </c>
       <c r="G111" s="8" t="s">
@@ -14570,7 +14602,7 @@
       <c r="E112" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="F112" s="20" t="s">
+      <c r="F112" s="19" t="s">
         <v>467</v>
       </c>
       <c r="G112" s="8" t="s">
@@ -14600,7 +14632,7 @@
       <c r="E113" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="F113" s="20" t="s">
+      <c r="F113" s="19" t="s">
         <v>471</v>
       </c>
       <c r="G113" s="8" t="s">
@@ -14631,7 +14663,7 @@
       <c r="E114" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="F114" s="20" t="s">
+      <c r="F114" s="19" t="s">
         <v>475</v>
       </c>
       <c r="G114" s="8" t="s">
@@ -14662,7 +14694,7 @@
       <c r="E115" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="F115" s="20" t="s">
+      <c r="F115" s="19" t="s">
         <v>480</v>
       </c>
       <c r="G115" s="8" t="s">
@@ -14693,7 +14725,7 @@
       <c r="E116" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="F116" s="20" t="s">
+      <c r="F116" s="19" t="s">
         <v>485</v>
       </c>
       <c r="G116" s="8" t="s">
@@ -14728,7 +14760,7 @@
       <c r="E117" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="F117" s="20" t="s">
+      <c r="F117" s="19" t="s">
         <v>493</v>
       </c>
       <c r="G117" s="8" t="s">
@@ -14759,7 +14791,7 @@
       <c r="E118" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F118" s="20" t="s">
+      <c r="F118" s="19" t="s">
         <v>498</v>
       </c>
       <c r="G118" s="8" t="s">
@@ -14790,7 +14822,7 @@
       <c r="E119" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F119" s="20" t="s">
+      <c r="F119" s="19" t="s">
         <v>502</v>
       </c>
       <c r="G119" s="8" t="s">
@@ -14821,7 +14853,7 @@
       <c r="E120" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="F120" s="20" t="s">
+      <c r="F120" s="19" t="s">
         <v>506</v>
       </c>
       <c r="G120" s="8" t="s">
@@ -14852,7 +14884,7 @@
       <c r="E121" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="F121" s="20" t="s">
+      <c r="F121" s="19" t="s">
         <v>512</v>
       </c>
       <c r="G121" s="8" t="s">
@@ -14883,7 +14915,7 @@
       <c r="E122" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="F122" s="20" t="s">
+      <c r="F122" s="19" t="s">
         <v>517</v>
       </c>
       <c r="G122" s="8" t="s">
@@ -14914,7 +14946,7 @@
       <c r="E123" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="F123" s="20" t="s">
+      <c r="F123" s="19" t="s">
         <v>522</v>
       </c>
       <c r="G123" s="8" t="s">
@@ -14945,7 +14977,7 @@
       <c r="E124" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="F124" s="20" t="s">
+      <c r="F124" s="19" t="s">
         <v>527</v>
       </c>
       <c r="G124" s="8" t="s">
@@ -14976,7 +15008,7 @@
       <c r="E125" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="F125" s="20" t="s">
+      <c r="F125" s="19" t="s">
         <v>532</v>
       </c>
       <c r="G125" s="8" t="s">
@@ -15007,7 +15039,7 @@
       <c r="E126" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F126" s="20" t="s">
+      <c r="F126" s="19" t="s">
         <v>536</v>
       </c>
       <c r="G126" s="8" t="s">
@@ -15042,7 +15074,7 @@
       <c r="E127" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F127" s="20" t="s">
+      <c r="F127" s="19" t="s">
         <v>542</v>
       </c>
       <c r="G127" s="8" t="s">
@@ -15074,7 +15106,7 @@
       <c r="E128" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="F128" s="20" t="s">
+      <c r="F128" s="19" t="s">
         <v>547</v>
       </c>
       <c r="G128" s="8" t="s">
@@ -15108,7 +15140,7 @@
         <v>21</v>
       </c>
       <c r="E129" s="8"/>
-      <c r="F129" s="20" t="s">
+      <c r="F129" s="19" t="s">
         <v>553</v>
       </c>
       <c r="G129" s="8" t="s">
@@ -15138,7 +15170,7 @@
       <c r="E130" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F130" s="20" t="s">
+      <c r="F130" s="19" t="s">
         <v>557</v>
       </c>
       <c r="G130" s="8" t="s">
@@ -15170,7 +15202,7 @@
       <c r="E131" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F131" s="20" t="s">
+      <c r="F131" s="19" t="s">
         <v>561</v>
       </c>
       <c r="G131" s="8" t="s">
@@ -15201,7 +15233,7 @@
       <c r="E132" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="F132" s="20" t="s">
+      <c r="F132" s="19" t="s">
         <v>564</v>
       </c>
       <c r="G132" s="8" t="s">
@@ -15231,7 +15263,7 @@
       <c r="E133" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="F133" s="20" t="s">
+      <c r="F133" s="19" t="s">
         <v>568</v>
       </c>
       <c r="G133" s="8" t="s">
@@ -15263,7 +15295,7 @@
       <c r="E134" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="F134" s="20" t="s">
+      <c r="F134" s="19" t="s">
         <v>572</v>
       </c>
       <c r="G134" s="8" t="s">
@@ -15299,7 +15331,7 @@
       <c r="E135" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="F135" s="20" t="s">
+      <c r="F135" s="19" t="s">
         <v>580</v>
       </c>
       <c r="G135" s="8" t="s">
@@ -15335,7 +15367,7 @@
       <c r="E136" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="F136" s="20" t="s">
+      <c r="F136" s="19" t="s">
         <v>587</v>
       </c>
       <c r="G136" s="8" t="s">
@@ -15365,7 +15397,7 @@
       <c r="E137" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F137" s="20" t="s">
+      <c r="F137" s="19" t="s">
         <v>592</v>
       </c>
       <c r="G137" s="8" t="s">
@@ -15401,7 +15433,7 @@
       <c r="E138" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="F138" s="20" t="s">
+      <c r="F138" s="19" t="s">
         <v>598</v>
       </c>
       <c r="G138" s="8" t="s">
@@ -15433,7 +15465,7 @@
       <c r="E139" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F139" s="20" t="s">
+      <c r="F139" s="19" t="s">
         <v>602</v>
       </c>
       <c r="G139" s="8" t="s">
@@ -15467,7 +15499,7 @@
       <c r="E140" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="F140" s="20" t="s">
+      <c r="F140" s="19" t="s">
         <v>608</v>
       </c>
       <c r="G140" s="8" t="s">
@@ -15497,7 +15529,7 @@
       <c r="E141" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="F141" s="20" t="s">
+      <c r="F141" s="19" t="s">
         <v>613</v>
       </c>
       <c r="G141" s="8" t="s">
@@ -15527,7 +15559,7 @@
       <c r="E142" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="F142" s="20" t="s">
+      <c r="F142" s="19" t="s">
         <v>619</v>
       </c>
       <c r="G142" s="8" t="s">
@@ -15556,7 +15588,7 @@
       <c r="E143" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="F143" s="20" t="s">
+      <c r="F143" s="19" t="s">
         <v>624</v>
       </c>
       <c r="G143" s="8" t="s">
@@ -15587,7 +15619,7 @@
       <c r="E144" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="F144" s="20" t="s">
+      <c r="F144" s="19" t="s">
         <v>629</v>
       </c>
       <c r="G144" s="8" t="s">
@@ -15620,7 +15652,7 @@
       <c r="E145" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="F145" s="20" t="s">
+      <c r="F145" s="19" t="s">
         <v>634</v>
       </c>
       <c r="G145" s="8" t="s">
@@ -15651,7 +15683,7 @@
       <c r="E146" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F146" s="20" t="s">
+      <c r="F146" s="19" t="s">
         <v>638</v>
       </c>
       <c r="G146" s="8" t="s">
@@ -15682,7 +15714,7 @@
       <c r="E147" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="F147" s="20" t="s">
+      <c r="F147" s="19" t="s">
         <v>643</v>
       </c>
       <c r="G147" s="8" t="s">
@@ -15713,7 +15745,7 @@
       <c r="E148" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="F148" s="20" t="s">
+      <c r="F148" s="19" t="s">
         <v>648</v>
       </c>
       <c r="G148" s="8" t="s">
@@ -15744,7 +15776,7 @@
       <c r="E149" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="F149" s="20" t="s">
+      <c r="F149" s="19" t="s">
         <v>653</v>
       </c>
       <c r="G149" s="8" t="s">
@@ -15775,7 +15807,7 @@
       <c r="E150" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="F150" s="20" t="s">
+      <c r="F150" s="19" t="s">
         <v>657</v>
       </c>
       <c r="G150" s="8" t="s">
@@ -15806,7 +15838,7 @@
       <c r="E151" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="F151" s="20" t="s">
+      <c r="F151" s="19" t="s">
         <v>663</v>
       </c>
       <c r="G151" s="8" t="s">
@@ -15837,7 +15869,7 @@
       <c r="E152" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="F152" s="20" t="s">
+      <c r="F152" s="19" t="s">
         <v>668</v>
       </c>
       <c r="G152" s="8" t="s">
@@ -15872,7 +15904,7 @@
       <c r="E153" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="F153" s="20" t="s">
+      <c r="F153" s="19" t="s">
         <v>346</v>
       </c>
       <c r="G153" s="8" t="s">
@@ -15903,7 +15935,7 @@
       <c r="E154" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="F154" s="20" t="s">
+      <c r="F154" s="19" t="s">
         <v>677</v>
       </c>
       <c r="G154" s="8" t="s">
@@ -15934,7 +15966,7 @@
       <c r="E155" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="F155" s="20" t="s">
+      <c r="F155" s="19" t="s">
         <v>682</v>
       </c>
       <c r="G155" s="8" t="s">
@@ -15965,7 +15997,7 @@
       <c r="E156" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="F156" s="20" t="s">
+      <c r="F156" s="19" t="s">
         <v>687</v>
       </c>
       <c r="G156" s="8" t="s">
@@ -15996,7 +16028,7 @@
       <c r="E157" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="F157" s="20" t="s">
+      <c r="F157" s="19" t="s">
         <v>692</v>
       </c>
       <c r="G157" s="8" t="s">
@@ -16027,7 +16059,7 @@
       <c r="E158" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="F158" s="20" t="s">
+      <c r="F158" s="19" t="s">
         <v>697</v>
       </c>
       <c r="G158" s="8" t="s">
@@ -16058,7 +16090,7 @@
       <c r="E159" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="F159" s="20" t="s">
+      <c r="F159" s="19" t="s">
         <v>702</v>
       </c>
       <c r="G159" s="8" t="s">
@@ -16089,7 +16121,7 @@
       <c r="E160" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="F160" s="20" t="s">
+      <c r="F160" s="19" t="s">
         <v>707</v>
       </c>
       <c r="G160" s="8" t="s">
@@ -16120,7 +16152,7 @@
       <c r="E161" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="F161" s="20" t="s">
+      <c r="F161" s="19" t="s">
         <v>712</v>
       </c>
       <c r="G161" s="8" t="s">
@@ -16151,7 +16183,7 @@
       <c r="E162" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="F162" s="20" t="s">
+      <c r="F162" s="19" t="s">
         <v>716</v>
       </c>
       <c r="G162" s="8" t="s">
@@ -16182,7 +16214,7 @@
       <c r="E163" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F163" s="20" t="s">
+      <c r="F163" s="19" t="s">
         <v>720</v>
       </c>
       <c r="G163" s="8" t="s">
@@ -16217,7 +16249,7 @@
       <c r="E164" s="8" t="s">
         <v>726</v>
       </c>
-      <c r="F164" s="20" t="s">
+      <c r="F164" s="19" t="s">
         <v>727</v>
       </c>
       <c r="G164" s="8" t="s">
@@ -16248,7 +16280,7 @@
       <c r="E165" s="8" t="s">
         <v>726</v>
       </c>
-      <c r="F165" s="20" t="s">
+      <c r="F165" s="19" t="s">
         <v>731</v>
       </c>
       <c r="G165" s="8" t="s">
@@ -16286,7 +16318,6 @@
     <hyperlink ref="J92" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="J107" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="J163" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="I23" r:id="rId17" display="http://arxiv.org/abs/2203.03544" xr:uid="{B9324520-914B-42D2-9D04-E2992715544E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
